--- a/data/industry/worksheet.xlsx
+++ b/data/industry/worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ys11m\Documents\GitHub\JED_validation\data\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C8CED5-C7E5-40FD-8CE4-FF0D12E839D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B6DC54-EE46-433C-8C81-5DBBFCD544F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3564" windowWidth="25920" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43470" yWindow="630" windowWidth="25920" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>France</t>
   </si>
@@ -182,6 +182,1074 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>energy_consumption[Thousand tonnes of oil equivalent]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>543528166000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118787872000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1035152258000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>844849023000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69204570000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90207983446</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25488505000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69990505000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>472704048000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124369229000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4432775852</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37960077729</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86794210725</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92380069000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103517976000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14485323000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4060149000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25257428000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>222801692423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>143103022085</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48054663000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96103590864</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62190488812</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19497970644</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1506781217</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8505738000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19506713000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2304367833</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>634964000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21069068099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>23957.107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11636.499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50065.858999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23502.312000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2060.134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2226.6570000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2463.422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4312.7860000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18476.511999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9274.3919999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1389.684</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6094.0709999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11349.805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9292.6010000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6941.1170000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>337.166</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>921.40599999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>898.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13723.846</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5961.9170000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2869.4789999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3994.5770000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4958</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2454.7359999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>403.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1073.3409999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1173.8879999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>329.87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.137</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2230.4870000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0497-4B88-94B5-D3B8C6ACDD7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="771224496"/>
+        <c:axId val="771213456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="771224496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771213456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="771213456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771224496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C003A59-F6A8-EB2E-8B10-39EC21F6A21C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,18 +1515,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -466,427 +1534,338 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>543528166000</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>23957.107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>118787872000</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>11636.499</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1035152258000</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>50065.858999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>844849023000</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>23502.312000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>69204570000</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>2060.134</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>90207983446</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>2226.6570000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>25488505000</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>2463.422</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>69990505000</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>4312.7860000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>472704048000</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>18476.511999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>124369229000</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>9274.3919999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>4432775852</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>1389.684</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>37960077729</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>6094.0709999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>86794210725</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11349.805</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>92380069000</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>9292.6010000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>103517976000</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>6941.1170000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>14485323000</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>337.166</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>4060149000</v>
       </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>921.40599999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>25257428000</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>898.67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>222801692423</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>13723.846</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>143103022085</v>
       </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>5961.9170000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>48054663000</v>
       </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>2869.4789999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>96103590864</v>
       </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>3994.5770000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>62190488812</v>
       </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>4958</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>19497970644</v>
       </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>2454.7359999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>1506781217</v>
       </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>403.80799999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>8505738000</v>
       </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>1073.3409999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>19506713000</v>
       </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>1173.8879999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>2304367833</v>
       </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>329.87</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>634964000</v>
       </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>85.137</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>21069068099</v>
       </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>2230.4870000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/industry/worksheet.xlsx
+++ b/data/industry/worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ys11m\Documents\GitHub\JED_validation\data\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61756822-0AAB-4E5C-AAD3-A4F115443901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36238A53-5BEB-4EDB-8F42-1F70F4D59506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7848" yWindow="6480" windowWidth="20736" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -795,7 +795,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -963,7 +963,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1635,7 +1635,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1778,97 +1778,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015920000</c:v>
+                  <c:v>4543000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>498581000</c:v>
+                  <c:v>48998000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1969262000</c:v>
+                  <c:v>1048215000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1381125000</c:v>
+                  <c:v>71816000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245947000</c:v>
+                  <c:v>6128000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1532069550</c:v>
+                  <c:v>79443155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99716000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>886962000</c:v>
+                  <c:v>23347000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5433667000</c:v>
+                  <c:v>101109000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>471484000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1537547273</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1930342940</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66318169</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>289128000</c:v>
+                  <c:v>59656000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200131000</c:v>
+                  <c:v>159313000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>175063000</c:v>
+                  <c:v>47293000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48994000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>423989000</c:v>
+                  <c:v>11931000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>981862837</c:v>
+                  <c:v>212339718</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72775412</c:v>
+                  <c:v>711715</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11631000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56619596</c:v>
+                  <c:v>37367089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>82216224</c:v>
+                  <c:v>398043</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46849371</c:v>
+                  <c:v>5491359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28586278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>96131000</c:v>
+                  <c:v>48858000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8430692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>302000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14740358</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,97 +2011,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9356671000</c:v>
+                  <c:v>12128420000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2565730000</c:v>
+                  <c:v>3332183000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16584092000</c:v>
+                  <c:v>24516058000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30266035000</c:v>
+                  <c:v>35582316000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>770080000</c:v>
+                  <c:v>663823000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2423434756</c:v>
+                  <c:v>1836656778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1150008000</c:v>
+                  <c:v>1263449000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4570237000</c:v>
+                  <c:v>4858757000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14989305000</c:v>
+                  <c:v>18497143000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4782880000</c:v>
+                  <c:v>5356484000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>877060604</c:v>
+                  <c:v>481799594</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1122357477</c:v>
+                  <c:v>1529911578</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1679359000</c:v>
+                  <c:v>1540291000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2083288000</c:v>
+                  <c:v>2256667000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>494361000</c:v>
+                  <c:v>555438000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62753000</c:v>
+                  <c:v>65315000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>775372000</c:v>
+                  <c:v>917370000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8156052839</c:v>
+                  <c:v>9284730519</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3158506454</c:v>
+                  <c:v>3796902640</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>916314000</c:v>
+                  <c:v>1132802000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1165915179</c:v>
+                  <c:v>2455111177</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2138871773</c:v>
+                  <c:v>2401368187</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>884645670</c:v>
+                  <c:v>963560179</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>218248034</c:v>
+                  <c:v>237028025</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>146870000</c:v>
+                  <c:v>227402000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>888231000</c:v>
+                  <c:v>1107547000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>392998880</c:v>
+                  <c:v>608701678</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16636447</c:v>
+                  <c:v>26803653</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4724000</c:v>
+                  <c:v>5020000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>852133733</c:v>
+                  <c:v>848218339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,97 +2244,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>19662245000</c:v>
+                  <c:v>29796146000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2009922000</c:v>
+                  <c:v>4494064000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25765576000</c:v>
+                  <c:v>42433467000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23559768000</c:v>
+                  <c:v>41192169000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>367087000</c:v>
+                  <c:v>2949360000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2163964488</c:v>
+                  <c:v>4515948273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1624383000</c:v>
+                  <c:v>1986610000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2041742000</c:v>
+                  <c:v>3005391000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16860069000</c:v>
+                  <c:v>26910350000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4505346000</c:v>
+                  <c:v>7214797000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>206544773</c:v>
+                  <c:v>216362764</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>811205447</c:v>
+                  <c:v>893465705</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1650682737</c:v>
+                  <c:v>2186712026</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7631925000</c:v>
+                  <c:v>9763452000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1380615000</c:v>
+                  <c:v>2956642000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>361089000</c:v>
+                  <c:v>511047000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62829000</c:v>
+                  <c:v>75520000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>497541000</c:v>
+                  <c:v>2164474000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6133067150</c:v>
+                  <c:v>9788241962</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1879953760</c:v>
+                  <c:v>3640569487</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>71025000</c:v>
+                  <c:v>582258000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1562678604</c:v>
+                  <c:v>2390097201</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1046578525</c:v>
+                  <c:v>1466238706</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1014538809</c:v>
+                  <c:v>1301372331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10513447</c:v>
+                  <c:v>18085662</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>96058000</c:v>
+                  <c:v>165616000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>444057000</c:v>
+                  <c:v>686026000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>174202255</c:v>
+                  <c:v>281436011</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36456114</c:v>
+                  <c:v>49910751</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>347000</c:v>
+                  <c:v>417000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>809925156</c:v>
+                  <c:v>1001085869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,88 +2477,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5013034000</c:v>
+                  <c:v>3921782000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>612211000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1593699000</c:v>
+                  <c:v>703738000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5147618000</c:v>
+                  <c:v>1908680000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>501203000</c:v>
+                  <c:v>372565000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>780017983</c:v>
+                  <c:v>566181669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34552000</c:v>
+                  <c:v>12692000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>163673000</c:v>
+                  <c:v>68190000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1629470000</c:v>
+                  <c:v>340193000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>722592000</c:v>
+                  <c:v>420340000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>487170017</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1746314946</c:v>
+                  <c:v>297007266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1140302000</c:v>
+                  <c:v>777754000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>766375000</c:v>
+                  <c:v>705723000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>717448000</c:v>
+                  <c:v>275433000</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>65678000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>207626000</c:v>
+                  <c:v>61388000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1210901586</c:v>
+                  <c:v>448523778</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>526841527</c:v>
+                  <c:v>348285161</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>174192000</c:v>
+                  <c:v>123478000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>284228485</c:v>
+                  <c:v>249834045</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>182339540</c:v>
+                  <c:v>56035337</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165556805</c:v>
+                  <c:v>109173739</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9782004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>109708000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110063000</c:v>
+                  <c:v>76283000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56107125</c:v>
+                  <c:v>38911357</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2567,7 +2567,7 @@
                   <c:v>9244000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44969634</c:v>
+                  <c:v>41853728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,97 +2710,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>97106585000</c:v>
+                  <c:v>176547254000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19701652000</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>130000000000</c:v>
+                  <c:v>41853799000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228476055000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92854627000</c:v>
+                  <c:v>181789129000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8571203000</c:v>
+                  <c:v>15938211000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14645789232</c:v>
+                  <c:v>23046729922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4034476000</c:v>
+                  <c:v>8488371000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9386962000</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>109000000000</c:v>
+                  <c:v>19785110000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181206026000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18101100000</c:v>
+                  <c:v>38978551000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>547806142</c:v>
+                  <c:v>2075792167</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11300406571</c:v>
+                  <c:v>21710151603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5246315732</c:v>
+                  <c:v>12103346519</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7669781000</c:v>
+                  <c:v>15514198000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17737265000</c:v>
+                  <c:v>26087864000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1683033000</c:v>
+                  <c:v>3149345000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>947453000</c:v>
+                  <c:v>1662598000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3843176000</c:v>
+                  <c:v>6991843000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41533898498</c:v>
+                  <c:v>71853118448</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11580299123</c:v>
+                  <c:v>24834588949</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2413372000</c:v>
+                  <c:v>7713322000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9910912941</c:v>
+                  <c:v>16950249408</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11221058078</c:v>
+                  <c:v>16334824426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3778010019</c:v>
+                  <c:v>5937140812</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>390275515</c:v>
+                  <c:v>454081479</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>851148000</c:v>
+                  <c:v>1393942000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3803070000</c:v>
+                  <c:v>5723122000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1039465088</c:v>
+                  <c:v>1918436674</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>573917531</c:v>
+                  <c:v>766406700</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>227477000</c:v>
+                  <c:v>320633000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3262876132</c:v>
+                  <c:v>5766462149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,98 +2942,98 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>115000000000</c:v>
+                <c:pt idx="0">
+                  <c:v>117479147000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21893148000</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>247000000000</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>258000000000</c:v>
+                  <c:v>20897602000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247960089000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256819892000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5303777000</c:v>
+                  <c:v>2788699000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18554347125</c:v>
+                  <c:v>17818928853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4582522000</c:v>
+                  <c:v>4539010000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12367785000</c:v>
+                  <c:v>12379288000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95004058000</c:v>
+                  <c:v>93674090000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20473867000</c:v>
+                  <c:v>20670803000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1931332482</c:v>
+                  <c:v>1931889895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3850899620</c:v>
+                  <c:v>3869788354</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14455344373</c:v>
+                  <c:v>17091893403</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24869309000</c:v>
+                  <c:v>25877978000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28997550000</c:v>
+                  <c:v>29201485000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3028498000</c:v>
+                  <c:v>3047792000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>385695000</c:v>
+                  <c:v>380202000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4594756000</c:v>
+                  <c:v>4174397000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39902542936</c:v>
+                  <c:v>39338454428</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31916119028</c:v>
+                  <c:v>31401604740</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17717681000</c:v>
+                  <c:v>17352934000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25491348435</c:v>
+                  <c:v>35426920917</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10437611133</c:v>
+                  <c:v>10606741057</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3998684934</c:v>
+                  <c:v>3920863584</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>347546959</c:v>
+                  <c:v>339974744</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2738052000</c:v>
+                  <c:v>2748720000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3188661000</c:v>
+                  <c:v>3303566000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2388348688</c:v>
+                  <c:v>2599661530</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>233479068</c:v>
+                  <c:v>223194023</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>124247000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3988114755</c:v>
+                  <c:v>3943961180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3178,97 +3178,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>62181324000</c:v>
+                  <c:v>49778016000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15530245000</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>179000000000</c:v>
+                  <c:v>11653274000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181719286000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89703115000</c:v>
+                  <c:v>105753920000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6129891000</c:v>
+                  <c:v>6118494000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8983060842</c:v>
+                  <c:v>10381460364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>312035000</c:v>
+                  <c:v>455774000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9738740000</c:v>
+                  <c:v>6015167000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44824069000</c:v>
+                  <c:v>35436088000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4389233000</c:v>
+                  <c:v>6342372000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1464555003</c:v>
+                  <c:v>1504559029</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13310761584</c:v>
+                  <c:v>10396961269</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9569227000</c:v>
+                  <c:v>8143785000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15407516000</c:v>
+                  <c:v>13677101000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1156591000</c:v>
+                  <c:v>1529918000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>123812000</c:v>
+                  <c:v>119647000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1424828000</c:v>
+                  <c:v>1682390000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21702598412</c:v>
+                  <c:v>25101364591</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29651599401</c:v>
+                  <c:v>27280987966</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7086700000</c:v>
+                  <c:v>5002729000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13813211596</c:v>
+                  <c:v>13040519114</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5144262230</c:v>
+                  <c:v>8537422522</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1164767354</c:v>
+                  <c:v>1919133852</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3442390</c:v>
+                  <c:v>6100984</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1068668000</c:v>
+                  <c:v>1395470000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>983394000</c:v>
+                  <c:v>1251951000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>312085914</c:v>
+                  <c:v>340629296</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11874130</c:v>
+                  <c:v>577082833</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1388542964</c:v>
+                  <c:v>3381043119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,34 +3413,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>366547000</c:v>
+                  <c:v>270826000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>178372000</c:v>
+                  <c:v>103761000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1959731000</c:v>
+                  <c:v>138552000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1823881000</c:v>
+                  <c:v>896358000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27759000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>132820197</c:v>
+                  <c:v>131763546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27249000</c:v>
+                  <c:v>68257000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28592000</c:v>
+                  <c:v>4002000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>414369000</c:v>
+                  <c:v>324787000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>202228000</c:v>
+                  <c:v>60493000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3449,37 +3449,37 @@
                   <c:v>664808137</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>174895024</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21917000</c:v>
+                  <c:v>73297000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23405000</c:v>
+                  <c:v>97161000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58245000</c:v>
+                  <c:v>56227000</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7839000</c:v>
+                  <c:v>7088000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>119970937</c:v>
+                  <c:v>112977102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55817114</c:v>
+                  <c:v>35669346</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8511000</c:v>
+                  <c:v>11846000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25808461</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>495261487</c:v>
+                  <c:v>441830917</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -3488,16 +3488,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13456000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>103397000</c:v>
+                  <c:v>2446000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13410164</c:v>
+                  <c:v>409034</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1574091</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -3648,97 +3648,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>26795760000</c:v>
+                  <c:v>19388844000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5228766000</c:v>
+                  <c:v>4229607000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54605901000</c:v>
+                  <c:v>39607680000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46223118000</c:v>
+                  <c:v>29220700000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>839197000</c:v>
+                  <c:v>550148000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2835744404</c:v>
+                  <c:v>1748088687</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>825763000</c:v>
+                  <c:v>661862000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3870705000</c:v>
+                  <c:v>3592079000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26249407000</c:v>
+                  <c:v>16774772000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7008346000</c:v>
+                  <c:v>5008176000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>630335849</c:v>
+                  <c:v>470195890</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2558085516</c:v>
+                  <c:v>2339458220</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2298910000</c:v>
+                  <c:v>1516177000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5485827000</c:v>
+                  <c:v>4054035000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>487890000</c:v>
+                  <c:v>396289000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60720000</c:v>
+                  <c:v>52353000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1403740000</c:v>
+                  <c:v>910112000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16726650815</c:v>
+                  <c:v>11518360634</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8873396808</c:v>
+                  <c:v>5132270537</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2373303000</c:v>
+                  <c:v>1844915000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3439724770</c:v>
+                  <c:v>2041096355</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2711577822</c:v>
+                  <c:v>2343863790</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>926614683</c:v>
+                  <c:v>604949890</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21419725</c:v>
+                  <c:v>18321315</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>599702000</c:v>
+                  <c:v>266170000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1100518000</c:v>
+                  <c:v>1016743000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>553465792</c:v>
+                  <c:v>506299117</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52575169</c:v>
+                  <c:v>46550659</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>4571000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1045489685</c:v>
+                  <c:v>1054292521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3883,97 +3883,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4907018000</c:v>
+                  <c:v>358305000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1324107000</c:v>
+                  <c:v>180225000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8009663000</c:v>
+                  <c:v>1820157000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5825441000</c:v>
+                  <c:v>1728614000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>488037000</c:v>
+                  <c:v>83803000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43964890</c:v>
+                  <c:v>19710370</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>242939000</c:v>
+                  <c:v>55916000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>636513000</c:v>
+                  <c:v>186989000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2176461000</c:v>
+                  <c:v>966269000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>876232000</c:v>
+                  <c:v>148943000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58889959</c:v>
+                  <c:v>541016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112229849</c:v>
+                  <c:v>68088737</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>474850000</c:v>
+                  <c:v>57905000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1025826000</c:v>
+                  <c:v>95474000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91536000</c:v>
+                  <c:v>48273000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>152613000</c:v>
+                  <c:v>114005000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>165593000</c:v>
+                  <c:v>73418000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1518876266</c:v>
+                  <c:v>1034065831</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>716020413</c:v>
+                  <c:v>273170929</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>202062000</c:v>
+                  <c:v>121168000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>493410579</c:v>
+                  <c:v>141741448</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>548339499</c:v>
+                  <c:v>81536782</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>331206667</c:v>
+                  <c:v>65740362</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>9729476</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>231295000</c:v>
+                  <c:v>95300000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>824016000</c:v>
+                  <c:v>76976000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>54261364</c:v>
+                  <c:v>33060645</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23872532</c:v>
+                  <c:v>931956</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2965000</c:v>
+                  <c:v>2159000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>161917685</c:v>
+                  <c:v>46560643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4118,31 +4118,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12832385000</c:v>
+                  <c:v>12785846000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2165219000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17836465000</c:v>
+                  <c:v>17510144000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24118346000</c:v>
+                  <c:v>23886651000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>290400000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1225105960</c:v>
+                  <c:v>1225078312</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1066998000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2712118000</c:v>
+                  <c:v>2711591000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12527014000</c:v>
+                  <c:v>12599144000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2690670000</c:v>
@@ -4154,25 +4154,25 @@
                   <c:v>285616466</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4931766821</c:v>
+                  <c:v>4928640972</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7223018000</c:v>
+                  <c:v>7238792000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2173426000</c:v>
+                  <c:v>2135538000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>199955000</c:v>
+                  <c:v>200326000</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>92855000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>697863000</c:v>
+                  <c:v>695211000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5686751208</c:v>
+                  <c:v>5650389253</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3091540366</c:v>
@@ -4184,10 +4184,10 @@
                   <c:v>623092318</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>787443143</c:v>
+                  <c:v>785588978</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>583526433</c:v>
+                  <c:v>562553430</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>70120644</c:v>
@@ -4196,10 +4196,10 @@
                   <c:v>312289000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>669644000</c:v>
+                  <c:v>669524000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>223943800</c:v>
+                  <c:v>224118151</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48602650</c:v>
@@ -4353,97 +4353,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1521725000</c:v>
+                  <c:v>1866349000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237909000</c:v>
+                  <c:v>680238000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3016911000</c:v>
+                  <c:v>1679993000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13141934000</c:v>
+                  <c:v>12986536000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143435000</c:v>
+                  <c:v>314998000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>429642727</c:v>
+                  <c:v>409206674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>171720000</c:v>
+                  <c:v>226570000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1524349000</c:v>
+                  <c:v>1690401000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2352669000</c:v>
+                  <c:v>4517581000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>414332000</c:v>
+                  <c:v>634565000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>403753852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74321968</c:v>
+                  <c:v>1506888612</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>187645000</c:v>
+                  <c:v>481286000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>903385000</c:v>
+                  <c:v>997196000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86210000</c:v>
+                  <c:v>553854000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>14344000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>253081000</c:v>
+                  <c:v>594662000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>642016514</c:v>
+                  <c:v>1258563849</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>992084942</c:v>
+                  <c:v>805283288</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32168000</c:v>
+                  <c:v>103624000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>93959647</c:v>
+                  <c:v>148981151</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>534334608</c:v>
+                  <c:v>1621501207</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>117068719</c:v>
+                  <c:v>592772264</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15078006</c:v>
+                  <c:v>70783235</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4413000</c:v>
+                  <c:v>43168000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>186045000</c:v>
+                  <c:v>163847000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28625698</c:v>
+                  <c:v>144611242</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2307829</c:v>
+                  <c:v>167945066</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>962000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47192968</c:v>
+                  <c:v>246457780</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,97 +4589,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9768952000</c:v>
+                  <c:v>8327303000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1793179000</c:v>
+                  <c:v>1663767000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13810958000</c:v>
+                  <c:v>13125455000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19804015000</c:v>
+                  <c:v>17767993000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>977345000</c:v>
+                  <c:v>932527000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2247624177</c:v>
+                  <c:v>1968038892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>397620000</c:v>
+                  <c:v>342325000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2055192000</c:v>
+                  <c:v>1553436000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10243490000</c:v>
+                  <c:v>9486254000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2031010000</c:v>
+                  <c:v>1528365000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>247716373</c:v>
+                  <c:v>180801066</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2596417830</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4972148000</c:v>
+                  <c:v>4735066000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4244196000</c:v>
+                  <c:v>3687563000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1841001000</c:v>
+                  <c:v>1462076000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1476740000</c:v>
+                  <c:v>1053279000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3207882000</c:v>
+                  <c:v>2380803000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8880399826</c:v>
+                  <c:v>7834490314</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2235590566</c:v>
+                  <c:v>1928481335</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>628450000</c:v>
+                  <c:v>572855000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>642029623</c:v>
+                  <c:v>529720257</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3274234946</c:v>
+                  <c:v>2494248288</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>445715312</c:v>
+                  <c:v>381124350</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39219007</c:v>
+                  <c:v>38507775</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>428951000</c:v>
+                  <c:v>325161000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1017612000</c:v>
+                  <c:v>884031000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>692980988</c:v>
+                  <c:v>538901645</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>91068296</c:v>
+                  <c:v>11211202</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44705000</c:v>
+                  <c:v>26314000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>455617910</c:v>
+                  <c:v>353915309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4824,98 +4824,98 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>177000000000</c:v>
+                <c:pt idx="0">
+                  <c:v>110783413000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45048831000</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>334000000000</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>233000000000</c:v>
+                  <c:v>27485135000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233888363000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135676497000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44549209000</c:v>
+                  <c:v>38167655000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34210397115</c:v>
+                  <c:v>26460747951</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10918524000</c:v>
+                  <c:v>6320671000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20006935000</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>131000000000</c:v>
+                  <c:v>14116757000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72271534000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57699909000</c:v>
+                  <c:v>35314670000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>209545182</c:v>
+                  <c:v>208731026</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15351070743</c:v>
+                  <c:v>7494597017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38748398699</c:v>
+                  <c:v>31748884293</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24352550000</c:v>
+                  <c:v>16600432000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23089171000</c:v>
+                  <c:v>17406214000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4104403000</c:v>
+                  <c:v>2652012000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>580007000</c:v>
+                  <c:v>364353000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7754142000</c:v>
+                  <c:v>4592341000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69606102599</c:v>
+                  <c:v>39366071996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48352477171</c:v>
+                  <c:v>40532955626</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15980169000</c:v>
+                  <c:v>13053647000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38500650630</c:v>
+                  <c:v>22068860384</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23586359804</c:v>
+                  <c:v>15018890572</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6040785868</c:v>
+                  <c:v>3134094492</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>342819732</c:v>
+                  <c:v>244047878</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1905128000</c:v>
+                  <c:v>1422792000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6091874000</c:v>
+                  <c:v>4495793000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3269614952</c:v>
+                  <c:v>1972765020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1213578067</c:v>
+                  <c:v>384154249</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>211811000</c:v>
+                  <c:v>136826000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8067515077</c:v>
+                  <c:v>3455185420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5077,7 +5077,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5352,97 +5352,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015920000</c:v>
+                  <c:v>4543000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>498581000</c:v>
+                  <c:v>48998000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1969262000</c:v>
+                  <c:v>1048215000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1381125000</c:v>
+                  <c:v>71816000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245947000</c:v>
+                  <c:v>6128000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1532069550</c:v>
+                  <c:v>79443155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99716000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>886962000</c:v>
+                  <c:v>23347000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5433667000</c:v>
+                  <c:v>101109000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>471484000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1537547273</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1930342940</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66318169</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>289128000</c:v>
+                  <c:v>59656000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200131000</c:v>
+                  <c:v>159313000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>175063000</c:v>
+                  <c:v>47293000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48994000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>423989000</c:v>
+                  <c:v>11931000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>981862837</c:v>
+                  <c:v>212339718</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72775412</c:v>
+                  <c:v>711715</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11631000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56619596</c:v>
+                  <c:v>37367089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>82216224</c:v>
+                  <c:v>398043</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46849371</c:v>
+                  <c:v>5491359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28586278</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>96131000</c:v>
+                  <c:v>48858000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8430692</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>302000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14740358</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5585,97 +5585,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9356671000</c:v>
+                  <c:v>12128420000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2565730000</c:v>
+                  <c:v>3332183000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16584092000</c:v>
+                  <c:v>24516058000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30266035000</c:v>
+                  <c:v>35582316000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>770080000</c:v>
+                  <c:v>663823000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2423434756</c:v>
+                  <c:v>1836656778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1150008000</c:v>
+                  <c:v>1263449000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4570237000</c:v>
+                  <c:v>4858757000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14989305000</c:v>
+                  <c:v>18497143000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4782880000</c:v>
+                  <c:v>5356484000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>877060604</c:v>
+                  <c:v>481799594</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1122357477</c:v>
+                  <c:v>1529911578</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1679359000</c:v>
+                  <c:v>1540291000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2083288000</c:v>
+                  <c:v>2256667000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>494361000</c:v>
+                  <c:v>555438000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62753000</c:v>
+                  <c:v>65315000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>775372000</c:v>
+                  <c:v>917370000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8156052839</c:v>
+                  <c:v>9284730519</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3158506454</c:v>
+                  <c:v>3796902640</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>916314000</c:v>
+                  <c:v>1132802000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1165915179</c:v>
+                  <c:v>2455111177</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2138871773</c:v>
+                  <c:v>2401368187</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>884645670</c:v>
+                  <c:v>963560179</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>218248034</c:v>
+                  <c:v>237028025</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>146870000</c:v>
+                  <c:v>227402000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>888231000</c:v>
+                  <c:v>1107547000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>392998880</c:v>
+                  <c:v>608701678</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16636447</c:v>
+                  <c:v>26803653</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4724000</c:v>
+                  <c:v>5020000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>852133733</c:v>
+                  <c:v>848218339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5818,97 +5818,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>19662245000</c:v>
+                  <c:v>29796146000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2009922000</c:v>
+                  <c:v>4494064000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25765576000</c:v>
+                  <c:v>42433467000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23559768000</c:v>
+                  <c:v>41192169000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>367087000</c:v>
+                  <c:v>2949360000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2163964488</c:v>
+                  <c:v>4515948273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1624383000</c:v>
+                  <c:v>1986610000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2041742000</c:v>
+                  <c:v>3005391000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16860069000</c:v>
+                  <c:v>26910350000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4505346000</c:v>
+                  <c:v>7214797000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>206544773</c:v>
+                  <c:v>216362764</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>811205447</c:v>
+                  <c:v>893465705</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1650682737</c:v>
+                  <c:v>2186712026</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7631925000</c:v>
+                  <c:v>9763452000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1380615000</c:v>
+                  <c:v>2956642000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>361089000</c:v>
+                  <c:v>511047000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62829000</c:v>
+                  <c:v>75520000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>497541000</c:v>
+                  <c:v>2164474000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6133067150</c:v>
+                  <c:v>9788241962</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1879953760</c:v>
+                  <c:v>3640569487</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>71025000</c:v>
+                  <c:v>582258000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1562678604</c:v>
+                  <c:v>2390097201</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1046578525</c:v>
+                  <c:v>1466238706</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1014538809</c:v>
+                  <c:v>1301372331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10513447</c:v>
+                  <c:v>18085662</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>96058000</c:v>
+                  <c:v>165616000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>444057000</c:v>
+                  <c:v>686026000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>174202255</c:v>
+                  <c:v>281436011</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36456114</c:v>
+                  <c:v>49910751</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>347000</c:v>
+                  <c:v>417000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>809925156</c:v>
+                  <c:v>1001085869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6051,88 +6051,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>5013034000</c:v>
+                  <c:v>3921782000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>612211000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1593699000</c:v>
+                  <c:v>703738000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5147618000</c:v>
+                  <c:v>1908680000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>501203000</c:v>
+                  <c:v>372565000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>780017983</c:v>
+                  <c:v>566181669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34552000</c:v>
+                  <c:v>12692000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>163673000</c:v>
+                  <c:v>68190000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1629470000</c:v>
+                  <c:v>340193000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>722592000</c:v>
+                  <c:v>420340000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>487170017</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1746314946</c:v>
+                  <c:v>297007266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1140302000</c:v>
+                  <c:v>777754000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>766375000</c:v>
+                  <c:v>705723000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>717448000</c:v>
+                  <c:v>275433000</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>65678000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>207626000</c:v>
+                  <c:v>61388000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1210901586</c:v>
+                  <c:v>448523778</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>526841527</c:v>
+                  <c:v>348285161</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>174192000</c:v>
+                  <c:v>123478000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>284228485</c:v>
+                  <c:v>249834045</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>182339540</c:v>
+                  <c:v>56035337</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165556805</c:v>
+                  <c:v>109173739</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9782004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>109708000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110063000</c:v>
+                  <c:v>76283000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56107125</c:v>
+                  <c:v>38911357</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -6141,7 +6141,7 @@
                   <c:v>9244000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44969634</c:v>
+                  <c:v>41853728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6284,97 +6284,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>97106585000</c:v>
+                  <c:v>176547254000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19701652000</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>130000000000</c:v>
+                  <c:v>41853799000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228476055000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92854627000</c:v>
+                  <c:v>181789129000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8571203000</c:v>
+                  <c:v>15938211000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14645789232</c:v>
+                  <c:v>23046729922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4034476000</c:v>
+                  <c:v>8488371000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9386962000</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>109000000000</c:v>
+                  <c:v>19785110000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181206026000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18101100000</c:v>
+                  <c:v>38978551000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>547806142</c:v>
+                  <c:v>2075792167</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11300406571</c:v>
+                  <c:v>21710151603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5246315732</c:v>
+                  <c:v>12103346519</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7669781000</c:v>
+                  <c:v>15514198000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17737265000</c:v>
+                  <c:v>26087864000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1683033000</c:v>
+                  <c:v>3149345000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>947453000</c:v>
+                  <c:v>1662598000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3843176000</c:v>
+                  <c:v>6991843000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41533898498</c:v>
+                  <c:v>71853118448</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11580299123</c:v>
+                  <c:v>24834588949</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2413372000</c:v>
+                  <c:v>7713322000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9910912941</c:v>
+                  <c:v>16950249408</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11221058078</c:v>
+                  <c:v>16334824426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3778010019</c:v>
+                  <c:v>5937140812</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>390275515</c:v>
+                  <c:v>454081479</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>851148000</c:v>
+                  <c:v>1393942000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3803070000</c:v>
+                  <c:v>5723122000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1039465088</c:v>
+                  <c:v>1918436674</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>573917531</c:v>
+                  <c:v>766406700</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>227477000</c:v>
+                  <c:v>320633000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3262876132</c:v>
+                  <c:v>5766462149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6516,98 +6516,98 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>115000000000</c:v>
+                <c:pt idx="0">
+                  <c:v>117479147000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21893148000</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>247000000000</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>258000000000</c:v>
+                  <c:v>20897602000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247960089000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256819892000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5303777000</c:v>
+                  <c:v>2788699000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18554347125</c:v>
+                  <c:v>17818928853</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4582522000</c:v>
+                  <c:v>4539010000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12367785000</c:v>
+                  <c:v>12379288000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95004058000</c:v>
+                  <c:v>93674090000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20473867000</c:v>
+                  <c:v>20670803000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1931332482</c:v>
+                  <c:v>1931889895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3850899620</c:v>
+                  <c:v>3869788354</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14455344373</c:v>
+                  <c:v>17091893403</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24869309000</c:v>
+                  <c:v>25877978000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28997550000</c:v>
+                  <c:v>29201485000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3028498000</c:v>
+                  <c:v>3047792000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>385695000</c:v>
+                  <c:v>380202000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4594756000</c:v>
+                  <c:v>4174397000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39902542936</c:v>
+                  <c:v>39338454428</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31916119028</c:v>
+                  <c:v>31401604740</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17717681000</c:v>
+                  <c:v>17352934000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25491348435</c:v>
+                  <c:v>35426920917</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10437611133</c:v>
+                  <c:v>10606741057</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3998684934</c:v>
+                  <c:v>3920863584</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>347546959</c:v>
+                  <c:v>339974744</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2738052000</c:v>
+                  <c:v>2748720000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3188661000</c:v>
+                  <c:v>3303566000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2388348688</c:v>
+                  <c:v>2599661530</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>233479068</c:v>
+                  <c:v>223194023</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>124247000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3988114755</c:v>
+                  <c:v>3943961180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6752,97 +6752,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>62181324000</c:v>
+                  <c:v>49778016000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15530245000</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>179000000000</c:v>
+                  <c:v>11653274000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181719286000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89703115000</c:v>
+                  <c:v>105753920000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6129891000</c:v>
+                  <c:v>6118494000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8983060842</c:v>
+                  <c:v>10381460364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>312035000</c:v>
+                  <c:v>455774000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9738740000</c:v>
+                  <c:v>6015167000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44824069000</c:v>
+                  <c:v>35436088000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4389233000</c:v>
+                  <c:v>6342372000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1464555003</c:v>
+                  <c:v>1504559029</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13310761584</c:v>
+                  <c:v>10396961269</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9569227000</c:v>
+                  <c:v>8143785000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15407516000</c:v>
+                  <c:v>13677101000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1156591000</c:v>
+                  <c:v>1529918000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>123812000</c:v>
+                  <c:v>119647000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1424828000</c:v>
+                  <c:v>1682390000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21702598412</c:v>
+                  <c:v>25101364591</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29651599401</c:v>
+                  <c:v>27280987966</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7086700000</c:v>
+                  <c:v>5002729000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13813211596</c:v>
+                  <c:v>13040519114</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5144262230</c:v>
+                  <c:v>8537422522</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1164767354</c:v>
+                  <c:v>1919133852</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3442390</c:v>
+                  <c:v>6100984</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1068668000</c:v>
+                  <c:v>1395470000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>983394000</c:v>
+                  <c:v>1251951000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>312085914</c:v>
+                  <c:v>340629296</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11874130</c:v>
+                  <c:v>577082833</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1388542964</c:v>
+                  <c:v>3381043119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6987,34 +6987,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>366547000</c:v>
+                  <c:v>270826000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>178372000</c:v>
+                  <c:v>103761000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1959731000</c:v>
+                  <c:v>138552000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1823881000</c:v>
+                  <c:v>896358000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27759000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>132820197</c:v>
+                  <c:v>131763546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27249000</c:v>
+                  <c:v>68257000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28592000</c:v>
+                  <c:v>4002000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>414369000</c:v>
+                  <c:v>324787000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>202228000</c:v>
+                  <c:v>60493000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -7023,37 +7023,37 @@
                   <c:v>664808137</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>174895024</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21917000</c:v>
+                  <c:v>73297000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23405000</c:v>
+                  <c:v>97161000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58245000</c:v>
+                  <c:v>56227000</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7839000</c:v>
+                  <c:v>7088000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>119970937</c:v>
+                  <c:v>112977102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55817114</c:v>
+                  <c:v>35669346</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8511000</c:v>
+                  <c:v>11846000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25808461</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>495261487</c:v>
+                  <c:v>441830917</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -7062,16 +7062,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13456000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>103397000</c:v>
+                  <c:v>2446000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13410164</c:v>
+                  <c:v>409034</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1574091</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -7222,97 +7222,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>26795760000</c:v>
+                  <c:v>19388844000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5228766000</c:v>
+                  <c:v>4229607000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54605901000</c:v>
+                  <c:v>39607680000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46223118000</c:v>
+                  <c:v>29220700000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>839197000</c:v>
+                  <c:v>550148000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2835744404</c:v>
+                  <c:v>1748088687</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>825763000</c:v>
+                  <c:v>661862000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3870705000</c:v>
+                  <c:v>3592079000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26249407000</c:v>
+                  <c:v>16774772000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7008346000</c:v>
+                  <c:v>5008176000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>630335849</c:v>
+                  <c:v>470195890</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2558085516</c:v>
+                  <c:v>2339458220</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2298910000</c:v>
+                  <c:v>1516177000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5485827000</c:v>
+                  <c:v>4054035000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>487890000</c:v>
+                  <c:v>396289000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60720000</c:v>
+                  <c:v>52353000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1403740000</c:v>
+                  <c:v>910112000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16726650815</c:v>
+                  <c:v>11518360634</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8873396808</c:v>
+                  <c:v>5132270537</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2373303000</c:v>
+                  <c:v>1844915000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3439724770</c:v>
+                  <c:v>2041096355</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2711577822</c:v>
+                  <c:v>2343863790</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>926614683</c:v>
+                  <c:v>604949890</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21419725</c:v>
+                  <c:v>18321315</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>599702000</c:v>
+                  <c:v>266170000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1100518000</c:v>
+                  <c:v>1016743000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>553465792</c:v>
+                  <c:v>506299117</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52575169</c:v>
+                  <c:v>46550659</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>4571000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1045489685</c:v>
+                  <c:v>1054292521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7457,97 +7457,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4907018000</c:v>
+                  <c:v>358305000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1324107000</c:v>
+                  <c:v>180225000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8009663000</c:v>
+                  <c:v>1820157000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5825441000</c:v>
+                  <c:v>1728614000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>488037000</c:v>
+                  <c:v>83803000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43964890</c:v>
+                  <c:v>19710370</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>242939000</c:v>
+                  <c:v>55916000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>636513000</c:v>
+                  <c:v>186989000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2176461000</c:v>
+                  <c:v>966269000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>876232000</c:v>
+                  <c:v>148943000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58889959</c:v>
+                  <c:v>541016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112229849</c:v>
+                  <c:v>68088737</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>474850000</c:v>
+                  <c:v>57905000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1025826000</c:v>
+                  <c:v>95474000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91536000</c:v>
+                  <c:v>48273000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>152613000</c:v>
+                  <c:v>114005000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>165593000</c:v>
+                  <c:v>73418000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1518876266</c:v>
+                  <c:v>1034065831</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>716020413</c:v>
+                  <c:v>273170929</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>202062000</c:v>
+                  <c:v>121168000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>493410579</c:v>
+                  <c:v>141741448</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>548339499</c:v>
+                  <c:v>81536782</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>331206667</c:v>
+                  <c:v>65740362</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>9729476</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>231295000</c:v>
+                  <c:v>95300000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>824016000</c:v>
+                  <c:v>76976000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>54261364</c:v>
+                  <c:v>33060645</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23872532</c:v>
+                  <c:v>931956</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2965000</c:v>
+                  <c:v>2159000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>161917685</c:v>
+                  <c:v>46560643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7692,31 +7692,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>12832385000</c:v>
+                  <c:v>12785846000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2165219000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17836465000</c:v>
+                  <c:v>17510144000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24118346000</c:v>
+                  <c:v>23886651000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>290400000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1225105960</c:v>
+                  <c:v>1225078312</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1066998000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2712118000</c:v>
+                  <c:v>2711591000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12527014000</c:v>
+                  <c:v>12599144000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2690670000</c:v>
@@ -7728,25 +7728,25 @@
                   <c:v>285616466</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4931766821</c:v>
+                  <c:v>4928640972</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7223018000</c:v>
+                  <c:v>7238792000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2173426000</c:v>
+                  <c:v>2135538000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>199955000</c:v>
+                  <c:v>200326000</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>92855000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>697863000</c:v>
+                  <c:v>695211000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5686751208</c:v>
+                  <c:v>5650389253</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3091540366</c:v>
@@ -7758,10 +7758,10 @@
                   <c:v>623092318</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>787443143</c:v>
+                  <c:v>785588978</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>583526433</c:v>
+                  <c:v>562553430</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>70120644</c:v>
@@ -7770,10 +7770,10 @@
                   <c:v>312289000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>669644000</c:v>
+                  <c:v>669524000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>223943800</c:v>
+                  <c:v>224118151</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48602650</c:v>
@@ -7927,97 +7927,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1521725000</c:v>
+                  <c:v>1866349000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237909000</c:v>
+                  <c:v>680238000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3016911000</c:v>
+                  <c:v>1679993000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13141934000</c:v>
+                  <c:v>12986536000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143435000</c:v>
+                  <c:v>314998000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>429642727</c:v>
+                  <c:v>409206674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>171720000</c:v>
+                  <c:v>226570000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1524349000</c:v>
+                  <c:v>1690401000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2352669000</c:v>
+                  <c:v>4517581000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>414332000</c:v>
+                  <c:v>634565000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>403753852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74321968</c:v>
+                  <c:v>1506888612</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>187645000</c:v>
+                  <c:v>481286000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>903385000</c:v>
+                  <c:v>997196000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86210000</c:v>
+                  <c:v>553854000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>14344000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>253081000</c:v>
+                  <c:v>594662000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>642016514</c:v>
+                  <c:v>1258563849</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>992084942</c:v>
+                  <c:v>805283288</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32168000</c:v>
+                  <c:v>103624000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>93959647</c:v>
+                  <c:v>148981151</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>534334608</c:v>
+                  <c:v>1621501207</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>117068719</c:v>
+                  <c:v>592772264</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15078006</c:v>
+                  <c:v>70783235</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4413000</c:v>
+                  <c:v>43168000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>186045000</c:v>
+                  <c:v>163847000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28625698</c:v>
+                  <c:v>144611242</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2307829</c:v>
+                  <c:v>167945066</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>962000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47192968</c:v>
+                  <c:v>246457780</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8163,97 +8163,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>9768952000</c:v>
+                  <c:v>8327303000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1793179000</c:v>
+                  <c:v>1663767000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13810958000</c:v>
+                  <c:v>13125455000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19804015000</c:v>
+                  <c:v>17767993000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>977345000</c:v>
+                  <c:v>932527000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2247624177</c:v>
+                  <c:v>1968038892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>397620000</c:v>
+                  <c:v>342325000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2055192000</c:v>
+                  <c:v>1553436000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10243490000</c:v>
+                  <c:v>9486254000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2031010000</c:v>
+                  <c:v>1528365000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>247716373</c:v>
+                  <c:v>180801066</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2596417830</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4972148000</c:v>
+                  <c:v>4735066000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4244196000</c:v>
+                  <c:v>3687563000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1841001000</c:v>
+                  <c:v>1462076000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1476740000</c:v>
+                  <c:v>1053279000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3207882000</c:v>
+                  <c:v>2380803000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8880399826</c:v>
+                  <c:v>7834490314</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2235590566</c:v>
+                  <c:v>1928481335</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>628450000</c:v>
+                  <c:v>572855000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>642029623</c:v>
+                  <c:v>529720257</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3274234946</c:v>
+                  <c:v>2494248288</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>445715312</c:v>
+                  <c:v>381124350</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39219007</c:v>
+                  <c:v>38507775</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>428951000</c:v>
+                  <c:v>325161000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1017612000</c:v>
+                  <c:v>884031000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>692980988</c:v>
+                  <c:v>538901645</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>91068296</c:v>
+                  <c:v>11211202</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44705000</c:v>
+                  <c:v>26314000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>455617910</c:v>
+                  <c:v>353915309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8398,98 +8398,98 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>177000000000</c:v>
+                <c:pt idx="0">
+                  <c:v>110783413000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45048831000</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>334000000000</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>233000000000</c:v>
+                  <c:v>27485135000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233888363000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135676497000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44549209000</c:v>
+                  <c:v>38167655000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34210397115</c:v>
+                  <c:v>26460747951</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10918524000</c:v>
+                  <c:v>6320671000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20006935000</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>131000000000</c:v>
+                  <c:v>14116757000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72271534000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57699909000</c:v>
+                  <c:v>35314670000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>209545182</c:v>
+                  <c:v>208731026</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15351070743</c:v>
+                  <c:v>7494597017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38748398699</c:v>
+                  <c:v>31748884293</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24352550000</c:v>
+                  <c:v>16600432000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23089171000</c:v>
+                  <c:v>17406214000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4104403000</c:v>
+                  <c:v>2652012000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>580007000</c:v>
+                  <c:v>364353000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7754142000</c:v>
+                  <c:v>4592341000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69606102599</c:v>
+                  <c:v>39366071996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48352477171</c:v>
+                  <c:v>40532955626</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15980169000</c:v>
+                  <c:v>13053647000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38500650630</c:v>
+                  <c:v>22068860384</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23586359804</c:v>
+                  <c:v>15018890572</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6040785868</c:v>
+                  <c:v>3134094492</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>342819732</c:v>
+                  <c:v>244047878</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1905128000</c:v>
+                  <c:v>1422792000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6091874000</c:v>
+                  <c:v>4495793000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3269614952</c:v>
+                  <c:v>1972765020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1213578067</c:v>
+                  <c:v>384154249</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>211811000</c:v>
+                  <c:v>136826000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8067515077</c:v>
+                  <c:v>3455185420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11326,7 +11326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -12706,8 +12706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9BCFDE-F588-4BFB-8907-B5755FADA2BA}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12764,46 +12764,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2015920000</v>
+        <v>4543000</v>
       </c>
       <c r="C2">
-        <v>9356671000</v>
+        <v>12128420000</v>
       </c>
       <c r="D2">
-        <v>19662245000</v>
+        <v>29796146000</v>
       </c>
       <c r="E2">
-        <v>5013034000</v>
+        <v>3921782000</v>
       </c>
       <c r="F2">
-        <v>97106585000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>115000000000</v>
+        <v>176547254000</v>
+      </c>
+      <c r="G2">
+        <v>117479147000</v>
       </c>
       <c r="H2">
-        <v>62181324000</v>
+        <v>49778016000</v>
       </c>
       <c r="I2">
-        <v>366547000</v>
+        <v>270826000</v>
       </c>
       <c r="J2">
-        <v>26795760000</v>
+        <v>19388844000</v>
       </c>
       <c r="K2">
-        <v>4907018000</v>
+        <v>358305000</v>
       </c>
       <c r="L2">
-        <v>12832385000</v>
+        <v>12785846000</v>
       </c>
       <c r="M2">
-        <v>1521725000</v>
+        <v>1866349000</v>
       </c>
       <c r="N2">
-        <v>9768952000</v>
-      </c>
-      <c r="O2" s="2">
-        <v>177000000000</v>
+        <v>8327303000</v>
+      </c>
+      <c r="O2">
+        <v>110783413000</v>
       </c>
       <c r="P2" s="2">
         <v>543528000000</v>
@@ -12814,46 +12814,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>498581000</v>
+        <v>48998000</v>
       </c>
       <c r="C3">
-        <v>2565730000</v>
+        <v>3332183000</v>
       </c>
       <c r="D3">
-        <v>2009922000</v>
+        <v>4494064000</v>
       </c>
       <c r="E3">
-        <v>612211000</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>19701652000</v>
+        <v>41853799000</v>
       </c>
       <c r="G3">
-        <v>21893148000</v>
+        <v>20897602000</v>
       </c>
       <c r="H3">
-        <v>15530245000</v>
+        <v>11653274000</v>
       </c>
       <c r="I3">
-        <v>178372000</v>
+        <v>103761000</v>
       </c>
       <c r="J3">
-        <v>5228766000</v>
+        <v>4229607000</v>
       </c>
       <c r="K3">
-        <v>1324107000</v>
+        <v>180225000</v>
       </c>
       <c r="L3">
         <v>2165219000</v>
       </c>
       <c r="M3">
-        <v>237909000</v>
+        <v>680238000</v>
       </c>
       <c r="N3">
-        <v>1793179000</v>
+        <v>1663767000</v>
       </c>
       <c r="O3">
-        <v>45048831000</v>
+        <v>27485135000</v>
       </c>
       <c r="P3" s="2">
         <v>118788000000</v>
@@ -12864,46 +12864,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1969262000</v>
+        <v>1048215000</v>
       </c>
       <c r="C4">
-        <v>16584092000</v>
+        <v>24516058000</v>
       </c>
       <c r="D4">
-        <v>25765576000</v>
+        <v>42433467000</v>
       </c>
       <c r="E4">
-        <v>1593699000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>130000000000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>247000000000</v>
-      </c>
-      <c r="H4" s="2">
-        <v>179000000000</v>
+        <v>703738000</v>
+      </c>
+      <c r="F4">
+        <v>228476055000</v>
+      </c>
+      <c r="G4">
+        <v>247960089000</v>
+      </c>
+      <c r="H4">
+        <v>181719286000</v>
       </c>
       <c r="I4">
-        <v>1959731000</v>
+        <v>138552000</v>
       </c>
       <c r="J4">
-        <v>54605901000</v>
+        <v>39607680000</v>
       </c>
       <c r="K4">
-        <v>8009663000</v>
+        <v>1820157000</v>
       </c>
       <c r="L4">
-        <v>17836465000</v>
+        <v>17510144000</v>
       </c>
       <c r="M4">
-        <v>3016911000</v>
+        <v>1679993000</v>
       </c>
       <c r="N4">
-        <v>13810958000</v>
-      </c>
-      <c r="O4" s="2">
-        <v>334000000000</v>
+        <v>13125455000</v>
+      </c>
+      <c r="O4">
+        <v>233888363000</v>
       </c>
       <c r="P4" s="2">
         <v>1035150000000</v>
@@ -12914,46 +12914,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1381125000</v>
+        <v>71816000</v>
       </c>
       <c r="C5">
-        <v>30266035000</v>
+        <v>35582316000</v>
       </c>
       <c r="D5">
-        <v>23559768000</v>
+        <v>41192169000</v>
       </c>
       <c r="E5">
-        <v>5147618000</v>
+        <v>1908680000</v>
       </c>
       <c r="F5">
-        <v>92854627000</v>
-      </c>
-      <c r="G5" s="2">
-        <v>258000000000</v>
+        <v>181789129000</v>
+      </c>
+      <c r="G5">
+        <v>256819892000</v>
       </c>
       <c r="H5">
-        <v>89703115000</v>
+        <v>105753920000</v>
       </c>
       <c r="I5">
-        <v>1823881000</v>
+        <v>896358000</v>
       </c>
       <c r="J5">
-        <v>46223118000</v>
+        <v>29220700000</v>
       </c>
       <c r="K5">
-        <v>5825441000</v>
+        <v>1728614000</v>
       </c>
       <c r="L5">
-        <v>24118346000</v>
+        <v>23886651000</v>
       </c>
       <c r="M5">
-        <v>13141934000</v>
+        <v>12986536000</v>
       </c>
       <c r="N5">
-        <v>19804015000</v>
-      </c>
-      <c r="O5" s="2">
-        <v>233000000000</v>
+        <v>17767993000</v>
+      </c>
+      <c r="O5">
+        <v>135676497000</v>
       </c>
       <c r="P5" s="2">
         <v>844849000000</v>
@@ -12964,46 +12964,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>245947000</v>
+        <v>6128000</v>
       </c>
       <c r="C6">
-        <v>770080000</v>
+        <v>663823000</v>
       </c>
       <c r="D6">
-        <v>367087000</v>
+        <v>2949360000</v>
       </c>
       <c r="E6">
-        <v>501203000</v>
+        <v>372565000</v>
       </c>
       <c r="F6">
-        <v>8571203000</v>
+        <v>15938211000</v>
       </c>
       <c r="G6">
-        <v>5303777000</v>
+        <v>2788699000</v>
       </c>
       <c r="H6">
-        <v>6129891000</v>
+        <v>6118494000</v>
       </c>
       <c r="I6">
         <v>27759000</v>
       </c>
       <c r="J6">
-        <v>839197000</v>
+        <v>550148000</v>
       </c>
       <c r="K6">
-        <v>488037000</v>
+        <v>83803000</v>
       </c>
       <c r="L6">
         <v>290400000</v>
       </c>
       <c r="M6">
-        <v>143435000</v>
+        <v>314998000</v>
       </c>
       <c r="N6">
-        <v>977345000</v>
+        <v>932527000</v>
       </c>
       <c r="O6">
-        <v>44549209000</v>
+        <v>38167655000</v>
       </c>
       <c r="P6">
         <v>69204570000</v>
@@ -13014,46 +13014,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1532069550</v>
+        <v>79443155</v>
       </c>
       <c r="C7">
-        <v>2423434756</v>
+        <v>1836656778</v>
       </c>
       <c r="D7">
-        <v>2163964488</v>
+        <v>4515948273</v>
       </c>
       <c r="E7">
-        <v>780017983</v>
+        <v>566181669</v>
       </c>
       <c r="F7">
-        <v>14645789232</v>
+        <v>23046729922</v>
       </c>
       <c r="G7">
-        <v>18554347125</v>
+        <v>17818928853</v>
       </c>
       <c r="H7">
-        <v>8983060842</v>
+        <v>10381460364</v>
       </c>
       <c r="I7">
-        <v>132820197</v>
+        <v>131763546</v>
       </c>
       <c r="J7">
-        <v>2835744404</v>
+        <v>1748088687</v>
       </c>
       <c r="K7">
-        <v>43964890</v>
+        <v>19710370</v>
       </c>
       <c r="L7">
-        <v>1225105960</v>
+        <v>1225078312</v>
       </c>
       <c r="M7">
-        <v>429642727</v>
+        <v>409206674</v>
       </c>
       <c r="N7">
-        <v>2247624177</v>
+        <v>1968038892</v>
       </c>
       <c r="O7">
-        <v>34210397115</v>
+        <v>26460747951</v>
       </c>
       <c r="P7">
         <v>90207983446</v>
@@ -13064,46 +13064,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>99716000</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1150008000</v>
+        <v>1263449000</v>
       </c>
       <c r="D8">
-        <v>1624383000</v>
+        <v>1986610000</v>
       </c>
       <c r="E8">
-        <v>34552000</v>
+        <v>12692000</v>
       </c>
       <c r="F8">
-        <v>4034476000</v>
+        <v>8488371000</v>
       </c>
       <c r="G8">
-        <v>4582522000</v>
+        <v>4539010000</v>
       </c>
       <c r="H8">
-        <v>312035000</v>
+        <v>455774000</v>
       </c>
       <c r="I8">
-        <v>27249000</v>
+        <v>68257000</v>
       </c>
       <c r="J8">
-        <v>825763000</v>
+        <v>661862000</v>
       </c>
       <c r="K8">
-        <v>242939000</v>
+        <v>55916000</v>
       </c>
       <c r="L8">
         <v>1066998000</v>
       </c>
       <c r="M8">
-        <v>171720000</v>
+        <v>226570000</v>
       </c>
       <c r="N8">
-        <v>397620000</v>
+        <v>342325000</v>
       </c>
       <c r="O8">
-        <v>10918524000</v>
+        <v>6320671000</v>
       </c>
       <c r="P8">
         <v>25488505000</v>
@@ -13114,46 +13114,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>886962000</v>
+        <v>23347000</v>
       </c>
       <c r="C9">
-        <v>4570237000</v>
+        <v>4858757000</v>
       </c>
       <c r="D9">
-        <v>2041742000</v>
+        <v>3005391000</v>
       </c>
       <c r="E9">
-        <v>163673000</v>
+        <v>68190000</v>
       </c>
       <c r="F9">
-        <v>9386962000</v>
+        <v>19785110000</v>
       </c>
       <c r="G9">
-        <v>12367785000</v>
+        <v>12379288000</v>
       </c>
       <c r="H9">
-        <v>9738740000</v>
+        <v>6015167000</v>
       </c>
       <c r="I9">
-        <v>28592000</v>
+        <v>4002000</v>
       </c>
       <c r="J9">
-        <v>3870705000</v>
+        <v>3592079000</v>
       </c>
       <c r="K9">
-        <v>636513000</v>
+        <v>186989000</v>
       </c>
       <c r="L9">
-        <v>2712118000</v>
+        <v>2711591000</v>
       </c>
       <c r="M9">
-        <v>1524349000</v>
+        <v>1690401000</v>
       </c>
       <c r="N9">
-        <v>2055192000</v>
+        <v>1553436000</v>
       </c>
       <c r="O9">
-        <v>20006935000</v>
+        <v>14116757000</v>
       </c>
       <c r="P9">
         <v>69990505000</v>
@@ -13164,46 +13164,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5433667000</v>
+        <v>101109000</v>
       </c>
       <c r="C10">
-        <v>14989305000</v>
+        <v>18497143000</v>
       </c>
       <c r="D10">
-        <v>16860069000</v>
+        <v>26910350000</v>
       </c>
       <c r="E10">
-        <v>1629470000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>109000000000</v>
+        <v>340193000</v>
+      </c>
+      <c r="F10">
+        <v>181206026000</v>
       </c>
       <c r="G10">
-        <v>95004058000</v>
+        <v>93674090000</v>
       </c>
       <c r="H10">
-        <v>44824069000</v>
+        <v>35436088000</v>
       </c>
       <c r="I10">
-        <v>414369000</v>
+        <v>324787000</v>
       </c>
       <c r="J10">
-        <v>26249407000</v>
+        <v>16774772000</v>
       </c>
       <c r="K10">
-        <v>2176461000</v>
+        <v>966269000</v>
       </c>
       <c r="L10">
-        <v>12527014000</v>
+        <v>12599144000</v>
       </c>
       <c r="M10">
-        <v>2352669000</v>
+        <v>4517581000</v>
       </c>
       <c r="N10">
-        <v>10243490000</v>
-      </c>
-      <c r="O10" s="2">
-        <v>131000000000</v>
+        <v>9486254000</v>
+      </c>
+      <c r="O10">
+        <v>72271534000</v>
       </c>
       <c r="P10" s="2">
         <v>472704000000</v>
@@ -13214,46 +13214,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>471484000</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4782880000</v>
+        <v>5356484000</v>
       </c>
       <c r="D11">
-        <v>4505346000</v>
+        <v>7214797000</v>
       </c>
       <c r="E11">
-        <v>722592000</v>
+        <v>420340000</v>
       </c>
       <c r="F11">
-        <v>18101100000</v>
+        <v>38978551000</v>
       </c>
       <c r="G11">
-        <v>20473867000</v>
+        <v>20670803000</v>
       </c>
       <c r="H11">
-        <v>4389233000</v>
+        <v>6342372000</v>
       </c>
       <c r="I11">
-        <v>202228000</v>
+        <v>60493000</v>
       </c>
       <c r="J11">
-        <v>7008346000</v>
+        <v>5008176000</v>
       </c>
       <c r="K11">
-        <v>876232000</v>
+        <v>148943000</v>
       </c>
       <c r="L11">
         <v>2690670000</v>
       </c>
       <c r="M11">
-        <v>414332000</v>
+        <v>634565000</v>
       </c>
       <c r="N11">
-        <v>2031010000</v>
+        <v>1528365000</v>
       </c>
       <c r="O11">
-        <v>57699909000</v>
+        <v>35314670000</v>
       </c>
       <c r="P11" s="2">
         <v>124369000000</v>
@@ -13264,22 +13264,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1537547273</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>206544773</v>
+        <v>216362764</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>547806142</v>
+        <v>2075792167</v>
       </c>
       <c r="G12">
-        <v>1931332482</v>
+        <v>1931889895</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -13303,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>209545182</v>
+        <v>208731026</v>
       </c>
       <c r="P12">
         <v>4432775852</v>
@@ -13314,46 +13314,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1930342940</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>877060604</v>
+        <v>481799594</v>
       </c>
       <c r="D13">
-        <v>811205447</v>
+        <v>893465705</v>
       </c>
       <c r="E13">
-        <v>487170017</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>11300406571</v>
+        <v>21710151603</v>
       </c>
       <c r="G13">
-        <v>3850899620</v>
+        <v>3869788354</v>
       </c>
       <c r="H13">
-        <v>1464555003</v>
+        <v>1504559029</v>
       </c>
       <c r="I13">
         <v>664808137</v>
       </c>
       <c r="J13">
-        <v>630335849</v>
+        <v>470195890</v>
       </c>
       <c r="K13">
-        <v>58889959</v>
+        <v>541016</v>
       </c>
       <c r="L13">
         <v>285616466</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>403753852</v>
       </c>
       <c r="N13">
-        <v>247716373</v>
+        <v>180801066</v>
       </c>
       <c r="O13">
-        <v>15351070743</v>
+        <v>7494597017</v>
       </c>
       <c r="P13">
         <v>37960077729</v>
@@ -13364,46 +13364,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66318169</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1122357477</v>
+        <v>1529911578</v>
       </c>
       <c r="D14">
-        <v>1650682737</v>
+        <v>2186712026</v>
       </c>
       <c r="E14">
-        <v>1746314946</v>
+        <v>297007266</v>
       </c>
       <c r="F14">
-        <v>5246315732</v>
+        <v>12103346519</v>
       </c>
       <c r="G14">
-        <v>14455344373</v>
+        <v>17091893403</v>
       </c>
       <c r="H14">
-        <v>13310761584</v>
+        <v>10396961269</v>
       </c>
       <c r="I14">
-        <v>174895024</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2558085516</v>
+        <v>2339458220</v>
       </c>
       <c r="K14">
-        <v>112229849</v>
+        <v>68088737</v>
       </c>
       <c r="L14">
-        <v>4931766821</v>
+        <v>4928640972</v>
       </c>
       <c r="M14">
-        <v>74321968</v>
+        <v>1506888612</v>
       </c>
       <c r="N14">
         <v>2596417830</v>
       </c>
       <c r="O14">
-        <v>38748398699</v>
+        <v>31748884293</v>
       </c>
       <c r="P14">
         <v>86794210725</v>
@@ -13414,46 +13414,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>289128000</v>
+        <v>59656000</v>
       </c>
       <c r="C15">
-        <v>1679359000</v>
+        <v>1540291000</v>
       </c>
       <c r="D15">
-        <v>7631925000</v>
+        <v>9763452000</v>
       </c>
       <c r="E15">
-        <v>1140302000</v>
+        <v>777754000</v>
       </c>
       <c r="F15">
-        <v>7669781000</v>
+        <v>15514198000</v>
       </c>
       <c r="G15">
-        <v>24869309000</v>
+        <v>25877978000</v>
       </c>
       <c r="H15">
-        <v>9569227000</v>
+        <v>8143785000</v>
       </c>
       <c r="I15">
-        <v>21917000</v>
+        <v>73297000</v>
       </c>
       <c r="J15">
-        <v>2298910000</v>
+        <v>1516177000</v>
       </c>
       <c r="K15">
-        <v>474850000</v>
+        <v>57905000</v>
       </c>
       <c r="L15">
-        <v>7223018000</v>
+        <v>7238792000</v>
       </c>
       <c r="M15">
-        <v>187645000</v>
+        <v>481286000</v>
       </c>
       <c r="N15">
-        <v>4972148000</v>
+        <v>4735066000</v>
       </c>
       <c r="O15">
-        <v>24352550000</v>
+        <v>16600432000</v>
       </c>
       <c r="P15">
         <v>92380069000</v>
@@ -13464,46 +13464,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>200131000</v>
+        <v>159313000</v>
       </c>
       <c r="C16">
-        <v>2083288000</v>
+        <v>2256667000</v>
       </c>
       <c r="D16">
-        <v>1380615000</v>
+        <v>2956642000</v>
       </c>
       <c r="E16">
-        <v>766375000</v>
+        <v>705723000</v>
       </c>
       <c r="F16">
-        <v>17737265000</v>
+        <v>26087864000</v>
       </c>
       <c r="G16">
-        <v>28997550000</v>
+        <v>29201485000</v>
       </c>
       <c r="H16">
-        <v>15407516000</v>
+        <v>13677101000</v>
       </c>
       <c r="I16">
-        <v>23405000</v>
+        <v>97161000</v>
       </c>
       <c r="J16">
-        <v>5485827000</v>
+        <v>4054035000</v>
       </c>
       <c r="K16">
-        <v>1025826000</v>
+        <v>95474000</v>
       </c>
       <c r="L16">
-        <v>2173426000</v>
+        <v>2135538000</v>
       </c>
       <c r="M16">
-        <v>903385000</v>
+        <v>997196000</v>
       </c>
       <c r="N16">
-        <v>4244196000</v>
+        <v>3687563000</v>
       </c>
       <c r="O16">
-        <v>23089171000</v>
+        <v>17406214000</v>
       </c>
       <c r="P16" s="2">
         <v>103518000000</v>
@@ -13514,46 +13514,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>175063000</v>
+        <v>47293000</v>
       </c>
       <c r="C17">
-        <v>494361000</v>
+        <v>555438000</v>
       </c>
       <c r="D17">
-        <v>361089000</v>
+        <v>511047000</v>
       </c>
       <c r="E17">
-        <v>717448000</v>
+        <v>275433000</v>
       </c>
       <c r="F17">
-        <v>1683033000</v>
+        <v>3149345000</v>
       </c>
       <c r="G17">
-        <v>3028498000</v>
+        <v>3047792000</v>
       </c>
       <c r="H17">
-        <v>1156591000</v>
+        <v>1529918000</v>
       </c>
       <c r="I17">
-        <v>58245000</v>
+        <v>56227000</v>
       </c>
       <c r="J17">
-        <v>487890000</v>
+        <v>396289000</v>
       </c>
       <c r="K17">
-        <v>91536000</v>
+        <v>48273000</v>
       </c>
       <c r="L17">
-        <v>199955000</v>
+        <v>200326000</v>
       </c>
       <c r="M17">
-        <v>86210000</v>
+        <v>553854000</v>
       </c>
       <c r="N17">
-        <v>1841001000</v>
+        <v>1462076000</v>
       </c>
       <c r="O17">
-        <v>4104403000</v>
+        <v>2652012000</v>
       </c>
       <c r="P17">
         <v>14485323000</v>
@@ -13564,46 +13564,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>48994000</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>62753000</v>
+        <v>65315000</v>
       </c>
       <c r="D18">
-        <v>62829000</v>
+        <v>75520000</v>
       </c>
       <c r="E18">
         <v>65678000</v>
       </c>
       <c r="F18">
-        <v>947453000</v>
+        <v>1662598000</v>
       </c>
       <c r="G18">
-        <v>385695000</v>
+        <v>380202000</v>
       </c>
       <c r="H18">
-        <v>123812000</v>
+        <v>119647000</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>60720000</v>
+        <v>52353000</v>
       </c>
       <c r="K18">
-        <v>152613000</v>
+        <v>114005000</v>
       </c>
       <c r="L18">
         <v>92855000</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14344000</v>
       </c>
       <c r="N18">
-        <v>1476740000</v>
+        <v>1053279000</v>
       </c>
       <c r="O18">
-        <v>580007000</v>
+        <v>364353000</v>
       </c>
       <c r="P18">
         <v>4060149000</v>
@@ -13614,46 +13614,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>423989000</v>
+        <v>11931000</v>
       </c>
       <c r="C19">
-        <v>775372000</v>
+        <v>917370000</v>
       </c>
       <c r="D19">
-        <v>497541000</v>
+        <v>2164474000</v>
       </c>
       <c r="E19">
-        <v>207626000</v>
+        <v>61388000</v>
       </c>
       <c r="F19">
-        <v>3843176000</v>
+        <v>6991843000</v>
       </c>
       <c r="G19">
-        <v>4594756000</v>
+        <v>4174397000</v>
       </c>
       <c r="H19">
-        <v>1424828000</v>
+        <v>1682390000</v>
       </c>
       <c r="I19">
-        <v>7839000</v>
+        <v>7088000</v>
       </c>
       <c r="J19">
-        <v>1403740000</v>
+        <v>910112000</v>
       </c>
       <c r="K19">
-        <v>165593000</v>
+        <v>73418000</v>
       </c>
       <c r="L19">
-        <v>697863000</v>
+        <v>695211000</v>
       </c>
       <c r="M19">
-        <v>253081000</v>
+        <v>594662000</v>
       </c>
       <c r="N19">
-        <v>3207882000</v>
+        <v>2380803000</v>
       </c>
       <c r="O19">
-        <v>7754142000</v>
+        <v>4592341000</v>
       </c>
       <c r="P19">
         <v>25257428000</v>
@@ -13664,46 +13664,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>981862837</v>
+        <v>212339718</v>
       </c>
       <c r="C20">
-        <v>8156052839</v>
+        <v>9284730519</v>
       </c>
       <c r="D20">
-        <v>6133067150</v>
+        <v>9788241962</v>
       </c>
       <c r="E20">
-        <v>1210901586</v>
+        <v>448523778</v>
       </c>
       <c r="F20">
-        <v>41533898498</v>
+        <v>71853118448</v>
       </c>
       <c r="G20">
-        <v>39902542936</v>
+        <v>39338454428</v>
       </c>
       <c r="H20">
-        <v>21702598412</v>
+        <v>25101364591</v>
       </c>
       <c r="I20">
-        <v>119970937</v>
+        <v>112977102</v>
       </c>
       <c r="J20">
-        <v>16726650815</v>
+        <v>11518360634</v>
       </c>
       <c r="K20">
-        <v>1518876266</v>
+        <v>1034065831</v>
       </c>
       <c r="L20">
-        <v>5686751208</v>
+        <v>5650389253</v>
       </c>
       <c r="M20">
-        <v>642016514</v>
+        <v>1258563849</v>
       </c>
       <c r="N20">
-        <v>8880399826</v>
+        <v>7834490314</v>
       </c>
       <c r="O20">
-        <v>69606102599</v>
+        <v>39366071996</v>
       </c>
       <c r="P20" s="2">
         <v>222802000000</v>
@@ -13714,46 +13714,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>72775412</v>
+        <v>711715</v>
       </c>
       <c r="C21">
-        <v>3158506454</v>
+        <v>3796902640</v>
       </c>
       <c r="D21">
-        <v>1879953760</v>
+        <v>3640569487</v>
       </c>
       <c r="E21">
-        <v>526841527</v>
+        <v>348285161</v>
       </c>
       <c r="F21">
-        <v>11580299123</v>
+        <v>24834588949</v>
       </c>
       <c r="G21">
-        <v>31916119028</v>
+        <v>31401604740</v>
       </c>
       <c r="H21">
-        <v>29651599401</v>
+        <v>27280987966</v>
       </c>
       <c r="I21">
-        <v>55817114</v>
+        <v>35669346</v>
       </c>
       <c r="J21">
-        <v>8873396808</v>
+        <v>5132270537</v>
       </c>
       <c r="K21">
-        <v>716020413</v>
+        <v>273170929</v>
       </c>
       <c r="L21">
         <v>3091540366</v>
       </c>
       <c r="M21">
-        <v>992084942</v>
+        <v>805283288</v>
       </c>
       <c r="N21">
-        <v>2235590566</v>
+        <v>1928481335</v>
       </c>
       <c r="O21">
-        <v>48352477171</v>
+        <v>40532955626</v>
       </c>
       <c r="P21" s="2">
         <v>143103000000</v>
@@ -13764,46 +13764,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11631000</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>916314000</v>
+        <v>1132802000</v>
       </c>
       <c r="D22">
-        <v>71025000</v>
+        <v>582258000</v>
       </c>
       <c r="E22">
-        <v>174192000</v>
+        <v>123478000</v>
       </c>
       <c r="F22">
-        <v>2413372000</v>
+        <v>7713322000</v>
       </c>
       <c r="G22">
-        <v>17717681000</v>
+        <v>17352934000</v>
       </c>
       <c r="H22">
-        <v>7086700000</v>
+        <v>5002729000</v>
       </c>
       <c r="I22">
-        <v>8511000</v>
+        <v>11846000</v>
       </c>
       <c r="J22">
-        <v>2373303000</v>
+        <v>1844915000</v>
       </c>
       <c r="K22">
-        <v>202062000</v>
+        <v>121168000</v>
       </c>
       <c r="L22">
         <v>439085000</v>
       </c>
       <c r="M22">
-        <v>32168000</v>
+        <v>103624000</v>
       </c>
       <c r="N22">
-        <v>628450000</v>
+        <v>572855000</v>
       </c>
       <c r="O22">
-        <v>15980169000</v>
+        <v>13053647000</v>
       </c>
       <c r="P22">
         <v>48054663000</v>
@@ -13814,46 +13814,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>56619596</v>
+        <v>37367089</v>
       </c>
       <c r="C23">
-        <v>1165915179</v>
+        <v>2455111177</v>
       </c>
       <c r="D23">
-        <v>1562678604</v>
+        <v>2390097201</v>
       </c>
       <c r="E23">
-        <v>284228485</v>
+        <v>249834045</v>
       </c>
       <c r="F23">
-        <v>9910912941</v>
+        <v>16950249408</v>
       </c>
       <c r="G23">
-        <v>25491348435</v>
+        <v>35426920917</v>
       </c>
       <c r="H23">
-        <v>13813211596</v>
+        <v>13040519114</v>
       </c>
       <c r="I23">
-        <v>25808461</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3439724770</v>
+        <v>2041096355</v>
       </c>
       <c r="K23">
-        <v>493410579</v>
+        <v>141741448</v>
       </c>
       <c r="L23">
         <v>623092318</v>
       </c>
       <c r="M23">
-        <v>93959647</v>
+        <v>148981151</v>
       </c>
       <c r="N23">
-        <v>642029623</v>
+        <v>529720257</v>
       </c>
       <c r="O23">
-        <v>38500650630</v>
+        <v>22068860384</v>
       </c>
       <c r="P23">
         <v>96103590864</v>
@@ -13864,46 +13864,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82216224</v>
+        <v>398043</v>
       </c>
       <c r="C24">
-        <v>2138871773</v>
+        <v>2401368187</v>
       </c>
       <c r="D24">
-        <v>1046578525</v>
+        <v>1466238706</v>
       </c>
       <c r="E24">
-        <v>182339540</v>
+        <v>56035337</v>
       </c>
       <c r="F24">
-        <v>11221058078</v>
+        <v>16334824426</v>
       </c>
       <c r="G24">
-        <v>10437611133</v>
+        <v>10606741057</v>
       </c>
       <c r="H24">
-        <v>5144262230</v>
+        <v>8537422522</v>
       </c>
       <c r="I24">
-        <v>495261487</v>
+        <v>441830917</v>
       </c>
       <c r="J24">
-        <v>2711577822</v>
+        <v>2343863790</v>
       </c>
       <c r="K24">
-        <v>548339499</v>
+        <v>81536782</v>
       </c>
       <c r="L24">
-        <v>787443143</v>
+        <v>785588978</v>
       </c>
       <c r="M24">
-        <v>534334608</v>
+        <v>1621501207</v>
       </c>
       <c r="N24">
-        <v>3274234946</v>
+        <v>2494248288</v>
       </c>
       <c r="O24">
-        <v>23586359804</v>
+        <v>15018890572</v>
       </c>
       <c r="P24">
         <v>62190488812</v>
@@ -13914,46 +13914,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>46849371</v>
+        <v>5491359</v>
       </c>
       <c r="C25">
-        <v>884645670</v>
+        <v>963560179</v>
       </c>
       <c r="D25">
-        <v>1014538809</v>
+        <v>1301372331</v>
       </c>
       <c r="E25">
-        <v>165556805</v>
+        <v>109173739</v>
       </c>
       <c r="F25">
-        <v>3778010019</v>
+        <v>5937140812</v>
       </c>
       <c r="G25">
-        <v>3998684934</v>
+        <v>3920863584</v>
       </c>
       <c r="H25">
-        <v>1164767354</v>
+        <v>1919133852</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>926614683</v>
+        <v>604949890</v>
       </c>
       <c r="K25">
-        <v>331206667</v>
+        <v>65740362</v>
       </c>
       <c r="L25">
-        <v>583526433</v>
+        <v>562553430</v>
       </c>
       <c r="M25">
-        <v>117068719</v>
+        <v>592772264</v>
       </c>
       <c r="N25">
-        <v>445715312</v>
+        <v>381124350</v>
       </c>
       <c r="O25">
-        <v>6040785868</v>
+        <v>3134094492</v>
       </c>
       <c r="P25">
         <v>19497970644</v>
@@ -13964,31 +13964,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>28586278</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>218248034</v>
+        <v>237028025</v>
       </c>
       <c r="D26">
-        <v>10513447</v>
+        <v>18085662</v>
       </c>
       <c r="E26">
-        <v>9782004</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>390275515</v>
+        <v>454081479</v>
       </c>
       <c r="G26">
-        <v>347546959</v>
+        <v>339974744</v>
       </c>
       <c r="H26">
-        <v>3442390</v>
+        <v>6100984</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>21419725</v>
+        <v>18321315</v>
       </c>
       <c r="K26">
         <v>9729476</v>
@@ -13997,13 +13997,13 @@
         <v>70120644</v>
       </c>
       <c r="M26">
-        <v>15078006</v>
+        <v>70783235</v>
       </c>
       <c r="N26">
-        <v>39219007</v>
+        <v>38507775</v>
       </c>
       <c r="O26">
-        <v>342819732</v>
+        <v>244047878</v>
       </c>
       <c r="P26">
         <v>1506781217</v>
@@ -14017,43 +14017,43 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>146870000</v>
+        <v>227402000</v>
       </c>
       <c r="D27">
-        <v>96058000</v>
+        <v>165616000</v>
       </c>
       <c r="E27">
         <v>109708000</v>
       </c>
       <c r="F27">
-        <v>851148000</v>
+        <v>1393942000</v>
       </c>
       <c r="G27">
-        <v>2738052000</v>
+        <v>2748720000</v>
       </c>
       <c r="H27">
-        <v>1068668000</v>
+        <v>1395470000</v>
       </c>
       <c r="I27">
-        <v>13456000</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>599702000</v>
+        <v>266170000</v>
       </c>
       <c r="K27">
-        <v>231295000</v>
+        <v>95300000</v>
       </c>
       <c r="L27">
         <v>312289000</v>
       </c>
       <c r="M27">
-        <v>4413000</v>
+        <v>43168000</v>
       </c>
       <c r="N27">
-        <v>428951000</v>
+        <v>325161000</v>
       </c>
       <c r="O27">
-        <v>1905128000</v>
+        <v>1422792000</v>
       </c>
       <c r="P27">
         <v>8505738000</v>
@@ -14064,46 +14064,46 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>96131000</v>
+        <v>48858000</v>
       </c>
       <c r="C28">
-        <v>888231000</v>
+        <v>1107547000</v>
       </c>
       <c r="D28">
-        <v>444057000</v>
+        <v>686026000</v>
       </c>
       <c r="E28">
-        <v>110063000</v>
+        <v>76283000</v>
       </c>
       <c r="F28">
-        <v>3803070000</v>
+        <v>5723122000</v>
       </c>
       <c r="G28">
-        <v>3188661000</v>
+        <v>3303566000</v>
       </c>
       <c r="H28">
-        <v>983394000</v>
+        <v>1251951000</v>
       </c>
       <c r="I28">
-        <v>103397000</v>
+        <v>2446000</v>
       </c>
       <c r="J28">
-        <v>1100518000</v>
+        <v>1016743000</v>
       </c>
       <c r="K28">
-        <v>824016000</v>
+        <v>76976000</v>
       </c>
       <c r="L28">
-        <v>669644000</v>
+        <v>669524000</v>
       </c>
       <c r="M28">
-        <v>186045000</v>
+        <v>163847000</v>
       </c>
       <c r="N28">
-        <v>1017612000</v>
+        <v>884031000</v>
       </c>
       <c r="O28">
-        <v>6091874000</v>
+        <v>4495793000</v>
       </c>
       <c r="P28">
         <v>19506713000</v>
@@ -14114,46 +14114,46 @@
         <v>49</v>
       </c>
       <c r="B29">
-        <v>8430692</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>392998880</v>
+        <v>608701678</v>
       </c>
       <c r="D29">
-        <v>174202255</v>
+        <v>281436011</v>
       </c>
       <c r="E29">
-        <v>56107125</v>
+        <v>38911357</v>
       </c>
       <c r="F29">
-        <v>1039465088</v>
+        <v>1918436674</v>
       </c>
       <c r="G29">
-        <v>2388348688</v>
+        <v>2599661530</v>
       </c>
       <c r="H29">
-        <v>312085914</v>
+        <v>340629296</v>
       </c>
       <c r="I29">
-        <v>13410164</v>
+        <v>409034</v>
       </c>
       <c r="J29">
-        <v>553465792</v>
+        <v>506299117</v>
       </c>
       <c r="K29">
-        <v>54261364</v>
+        <v>33060645</v>
       </c>
       <c r="L29">
-        <v>223943800</v>
+        <v>224118151</v>
       </c>
       <c r="M29">
-        <v>28625698</v>
+        <v>144611242</v>
       </c>
       <c r="N29">
-        <v>692980988</v>
+        <v>538901645</v>
       </c>
       <c r="O29">
-        <v>3269614952</v>
+        <v>1972765020</v>
       </c>
       <c r="P29">
         <v>9207941400</v>
@@ -14167,43 +14167,43 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>16636447</v>
+        <v>26803653</v>
       </c>
       <c r="D30">
-        <v>36456114</v>
+        <v>49910751</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>573917531</v>
+        <v>766406700</v>
       </c>
       <c r="G30">
-        <v>233479068</v>
+        <v>223194023</v>
       </c>
       <c r="H30">
-        <v>11874130</v>
+        <v>577082833</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1574091</v>
       </c>
       <c r="J30">
-        <v>52575169</v>
+        <v>46550659</v>
       </c>
       <c r="K30">
-        <v>23872532</v>
+        <v>931956</v>
       </c>
       <c r="L30">
         <v>48602650</v>
       </c>
       <c r="M30">
-        <v>2307829</v>
+        <v>167945066</v>
       </c>
       <c r="N30">
-        <v>91068296</v>
+        <v>11211202</v>
       </c>
       <c r="O30">
-        <v>1213578067</v>
+        <v>384154249</v>
       </c>
       <c r="P30">
         <v>2304367833</v>
@@ -14214,19 +14214,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>302000</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>4724000</v>
+        <v>5020000</v>
       </c>
       <c r="D31">
-        <v>347000</v>
+        <v>417000</v>
       </c>
       <c r="E31">
         <v>9244000</v>
       </c>
       <c r="F31">
-        <v>227477000</v>
+        <v>320633000</v>
       </c>
       <c r="G31">
         <v>124247000</v>
@@ -14241,19 +14241,19 @@
         <v>4571000</v>
       </c>
       <c r="K31">
-        <v>2965000</v>
+        <v>2159000</v>
       </c>
       <c r="L31">
         <v>4571000</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>962000</v>
       </c>
       <c r="N31">
-        <v>44705000</v>
+        <v>26314000</v>
       </c>
       <c r="O31">
-        <v>211811000</v>
+        <v>136826000</v>
       </c>
       <c r="P31">
         <v>634964000</v>
@@ -14264,46 +14264,46 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>14740358</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>852133733</v>
+        <v>848218339</v>
       </c>
       <c r="D32">
-        <v>809925156</v>
+        <v>1001085869</v>
       </c>
       <c r="E32">
-        <v>44969634</v>
+        <v>41853728</v>
       </c>
       <c r="F32">
-        <v>3262876132</v>
+        <v>5766462149</v>
       </c>
       <c r="G32">
-        <v>3988114755</v>
+        <v>3943961180</v>
       </c>
       <c r="H32">
-        <v>1388542964</v>
+        <v>3381043119</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1045489685</v>
+        <v>1054292521</v>
       </c>
       <c r="K32">
-        <v>161917685</v>
+        <v>46560643</v>
       </c>
       <c r="L32">
         <v>930032042</v>
       </c>
       <c r="M32">
-        <v>47192968</v>
+        <v>246457780</v>
       </c>
       <c r="N32">
-        <v>455617910</v>
+        <v>353915309</v>
       </c>
       <c r="O32">
-        <v>8067515077</v>
+        <v>3455185420</v>
       </c>
       <c r="P32">
         <v>21069068099</v>

--- a/data/industry/worksheet.xlsx
+++ b/data/industry/worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ys11m\Documents\GitHub\JED_validation\data\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63292B-0621-4D03-961E-CE58A26E9468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB98CC0B-F036-4E48-8629-DF148A1C3DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="21816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -879,7 +879,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1055,7 +1055,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1262,9 +1262,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -1351,30 +1351,27 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$31</c:f>
+              <c:f>Sheet2!$B$2:$B$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>465.21</c:v>
+                  <c:v>465.20996100000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252.529</c:v>
+                  <c:v>252.528897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144.13200000000001</c:v>
+                  <c:v>144.13211799999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.958</c:v>
+                  <c:v>107.95817099999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>55.597461021000001</c:v>
@@ -1450,9 +1447,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4.8359715999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.282E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,9 +1483,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -1578,54 +1572,51 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$31</c:f>
+              <c:f>Sheet2!$C$2:$C$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>188.107</c:v>
+                  <c:v>188.106942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.29900000000001</c:v>
+                  <c:v>165.988632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177.87899999999999</c:v>
+                  <c:v>177.675051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168.79300000000001</c:v>
+                  <c:v>168.57575600000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.996106781999998</c:v>
+                  <c:v>70.986749670999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.415476087999998</c:v>
+                  <c:v>17.404422514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.292234000000001</c:v>
+                  <c:v>43.252457</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>39.206440999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.337440999999998</c:v>
+                  <c:v>22.240279999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15.787066917000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.225536999999999</c:v>
+                  <c:v>13.157783999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.826431432</c:v>
+                  <c:v>21.796807628</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10.770965256</c:v>
@@ -1640,16 +1631,16 @@
                   <c:v>17.372536438000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1310710000000004</c:v>
+                  <c:v>4.1192250000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>24.866499983000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.643744</c:v>
+                  <c:v>11.575487000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8038160000000003</c:v>
+                  <c:v>6.8037859999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>7.1279937569999996</c:v>
@@ -1673,13 +1664,10 @@
                   <c:v>1.390298</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.96065172200000004</c:v>
+                  <c:v>0.95907763099999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.53083307000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.355431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1716,9 +1704,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -1805,21 +1793,18 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$31</c:f>
+              <c:f>Sheet2!$D$2:$D$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>101.879</c:v>
+                  <c:v>101.878935</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>62.081341999999999</c:v>
@@ -1904,9 +1889,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4.2826415999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.6759000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,9 +1925,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -2032,24 +2014,21 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$31</c:f>
+              <c:f>Sheet2!$E$2:$E$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>136.386</c:v>
+                  <c:v>136.385593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165.71700000000001</c:v>
+                  <c:v>165.71705499999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>64.153248000000005</c:v>
@@ -2131,9 +2110,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.15986489000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.121075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,9 +2146,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -2259,19 +2235,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$31</c:f>
+              <c:f>Sheet2!$F$2:$F$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>59.978529999999999</c:v>
                 </c:pt>
@@ -2358,9 +2331,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>9.1566682999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.4369999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,9 +2367,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -2486,19 +2456,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$31</c:f>
+              <c:f>Sheet2!$G$2:$G$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>17.686194</c:v>
                 </c:pt>
@@ -2585,9 +2552,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.8576600000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.6110000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2626,9 +2590,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -2715,19 +2679,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$2:$H$31</c:f>
+              <c:f>Sheet2!$H$2:$H$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>13.036766999999999</c:v>
                 </c:pt>
@@ -2814,9 +2775,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6.5470184000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.7265000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2855,9 +2813,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -2944,54 +2902,51 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$2:$I$31</c:f>
+              <c:f>Sheet2!$I$2:$I$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>16.134867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.643674000000001</c:v>
+                  <c:v>24.954267000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8392999999999997</c:v>
+                  <c:v>6.0429940000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.083863999999998</c:v>
+                  <c:v>16.300823000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4850052839999996</c:v>
+                  <c:v>8.4943623949999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4634558000000002</c:v>
+                  <c:v>3.4745093740000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.543215</c:v>
+                  <c:v>4.582992</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.8636699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5006689999999998</c:v>
+                  <c:v>3.5978300000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.442600986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8376859999999999</c:v>
+                  <c:v>1.9054390000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4899966459999998</c:v>
+                  <c:v>2.5196204500000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.572787661</c:v>
@@ -3006,16 +2961,16 @@
                   <c:v>1.8387569479999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.148765</c:v>
+                  <c:v>1.1606110000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.559582751</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.423719</c:v>
+                  <c:v>1.491976</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64763700000000002</c:v>
+                  <c:v>0.64766699999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.90248391299999997</c:v>
@@ -3039,13 +2994,10 @@
                   <c:v>0.114756</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.7454333E-2</c:v>
+                  <c:v>7.9028424E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.377838972</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8746000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3084,9 +3036,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -3173,19 +3125,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$2:$J$31</c:f>
+              <c:f>Sheet2!$J$2:$J$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>12.016059</c:v>
                 </c:pt>
@@ -3272,9 +3221,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5.3289852999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9249999999999997E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3313,9 +3259,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -3402,19 +3348,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$2:$K$31</c:f>
+              <c:f>Sheet2!$K$2:$K$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>6.6049119999999997</c:v>
                 </c:pt>
@@ -3501,9 +3444,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.104212076</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.6199999999999996E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,9 +3482,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -3631,19 +3571,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$2:$L$31</c:f>
+              <c:f>Sheet2!$L$2:$L$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>17.588491999999999</c:v>
                 </c:pt>
@@ -3730,9 +3667,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.9427569999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,9 +3997,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -4152,30 +4086,27 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$31</c:f>
+              <c:f>Sheet2!$B$2:$B$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>465.21</c:v>
+                  <c:v>465.20996100000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252.529</c:v>
+                  <c:v>252.528897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144.13200000000001</c:v>
+                  <c:v>144.13211799999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.958</c:v>
+                  <c:v>107.95817099999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>55.597461021000001</c:v>
@@ -4251,9 +4182,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4.8359715999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.282E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4290,9 +4218,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -4379,54 +4307,51 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$31</c:f>
+              <c:f>Sheet2!$C$2:$C$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>188.107</c:v>
+                  <c:v>188.106942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.29900000000001</c:v>
+                  <c:v>165.988632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177.87899999999999</c:v>
+                  <c:v>177.675051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168.79300000000001</c:v>
+                  <c:v>168.57575600000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.996106781999998</c:v>
+                  <c:v>70.986749670999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.415476087999998</c:v>
+                  <c:v>17.404422514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.292234000000001</c:v>
+                  <c:v>43.252457</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>39.206440999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.337440999999998</c:v>
+                  <c:v>22.240279999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15.787066917000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.225536999999999</c:v>
+                  <c:v>13.157783999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.826431432</c:v>
+                  <c:v>21.796807628</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10.770965256</c:v>
@@ -4441,16 +4366,16 @@
                   <c:v>17.372536438000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1310710000000004</c:v>
+                  <c:v>4.1192250000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>24.866499983000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.643744</c:v>
+                  <c:v>11.575487000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8038160000000003</c:v>
+                  <c:v>6.8037859999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>7.1279937569999996</c:v>
@@ -4474,13 +4399,10 @@
                   <c:v>1.390298</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.96065172200000004</c:v>
+                  <c:v>0.95907763099999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.53083307000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.355431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4517,9 +4439,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -4606,21 +4528,18 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$31</c:f>
+              <c:f>Sheet2!$D$2:$D$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>101.879</c:v>
+                  <c:v>101.878935</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>62.081341999999999</c:v>
@@ -4705,9 +4624,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4.2826415999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.6759000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4744,9 +4660,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -4833,24 +4749,21 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$31</c:f>
+              <c:f>Sheet2!$E$2:$E$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>136.386</c:v>
+                  <c:v>136.385593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165.71700000000001</c:v>
+                  <c:v>165.71705499999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>64.153248000000005</c:v>
@@ -4932,9 +4845,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.15986489000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.121075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4971,9 +4881,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -5060,19 +4970,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$31</c:f>
+              <c:f>Sheet2!$F$2:$F$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>59.978529999999999</c:v>
                 </c:pt>
@@ -5159,9 +5066,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>9.1566682999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.4369999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5198,9 +5102,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -5287,19 +5191,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$31</c:f>
+              <c:f>Sheet2!$G$2:$G$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>17.686194</c:v>
                 </c:pt>
@@ -5386,9 +5287,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.8576600000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.6110000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5427,9 +5325,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -5516,19 +5414,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$2:$H$31</c:f>
+              <c:f>Sheet2!$H$2:$H$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>13.036766999999999</c:v>
                 </c:pt>
@@ -5615,9 +5510,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6.5470184000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.7265000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5656,9 +5548,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -5745,54 +5637,51 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$2:$I$31</c:f>
+              <c:f>Sheet2!$I$2:$I$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>16.134867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.643674000000001</c:v>
+                  <c:v>24.954267000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8392999999999997</c:v>
+                  <c:v>6.0429940000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.083863999999998</c:v>
+                  <c:v>16.300823000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4850052839999996</c:v>
+                  <c:v>8.4943623949999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4634558000000002</c:v>
+                  <c:v>3.4745093740000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.543215</c:v>
+                  <c:v>4.582992</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.8636699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5006689999999998</c:v>
+                  <c:v>3.5978300000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.442600986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8376859999999999</c:v>
+                  <c:v>1.9054390000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4899966459999998</c:v>
+                  <c:v>2.5196204500000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.572787661</c:v>
@@ -5807,16 +5696,16 @@
                   <c:v>1.8387569479999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.148765</c:v>
+                  <c:v>1.1606110000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.559582751</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.423719</c:v>
+                  <c:v>1.491976</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64763700000000002</c:v>
+                  <c:v>0.64766699999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.90248391299999997</c:v>
@@ -5840,13 +5729,10 @@
                   <c:v>0.114756</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.7454333E-2</c:v>
+                  <c:v>7.9028424E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.377838972</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8746000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5885,9 +5771,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -5974,19 +5860,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$2:$J$31</c:f>
+              <c:f>Sheet2!$J$2:$J$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>12.016059</c:v>
                 </c:pt>
@@ -6073,9 +5956,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5.3289852999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9249999999999997E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6114,9 +5994,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -6203,19 +6083,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$2:$K$31</c:f>
+              <c:f>Sheet2!$K$2:$K$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>6.6049119999999997</c:v>
                 </c:pt>
@@ -6302,9 +6179,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.104212076</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.6199999999999996E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6343,9 +6217,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$31</c:f>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>Germany</c:v>
                 </c:pt>
@@ -6432,19 +6306,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Montenegro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$2:$L$31</c:f>
+              <c:f>Sheet2!$L$2:$L$30</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>17.588491999999999</c:v>
                 </c:pt>
@@ -6531,9 +6402,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.9427569999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8776,8 +8644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8888,7 +8756,7 @@
         <v>1034.627821</v>
       </c>
       <c r="Q2" s="4">
-        <f>N2*0.01163</f>
+        <f t="shared" ref="Q2:Q32" si="0">N2*0.01163</f>
         <v>582.26594016999991</v>
       </c>
       <c r="S2" s="2">
@@ -8941,19 +8809,19 @@
         <v>23502.312000000002</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P32" si="0">SUM($B3:$L3)/1000000000</f>
+        <f t="shared" ref="P3:P32" si="1">SUM($B3:$L3)/1000000000</f>
         <v>845.28109400000005</v>
       </c>
       <c r="Q3" s="4">
-        <f>N3*0.01163</f>
+        <f t="shared" si="0"/>
         <v>273.33188856000004</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S31" si="1">P3*0.4918</f>
+        <f t="shared" ref="S3:S31" si="2">P3*0.4918</f>
         <v>415.70924202920003</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T31" si="2">S3/Q3-1</f>
+        <f t="shared" ref="T3:T31" si="3">S3/Q3-1</f>
         <v>0.52089550992125178</v>
       </c>
     </row>
@@ -8998,19 +8866,19 @@
         <v>23957.107</v>
       </c>
       <c r="P4" s="5">
+        <f t="shared" si="1"/>
+        <v>543.436331</v>
+      </c>
+      <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>543.436331</v>
-      </c>
-      <c r="Q4" s="4">
-        <f>N4*0.01163</f>
         <v>278.62115440999997</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>267.2619875858</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.0769218863706991E-2</v>
       </c>
     </row>
@@ -9055,19 +8923,19 @@
         <v>18476.511999999999</v>
       </c>
       <c r="P5" s="5">
+        <f t="shared" si="1"/>
+        <v>473.10545400000001</v>
+      </c>
+      <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>473.10545400000001</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>N5*0.01163</f>
         <v>214.88183455999999</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>232.67326227720002</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2796332010243834E-2</v>
       </c>
     </row>
@@ -9112,19 +8980,19 @@
         <v>13723.846</v>
       </c>
       <c r="P6" s="5">
+        <f t="shared" si="1"/>
+        <v>222.80169242299999</v>
+      </c>
+      <c r="Q6" s="4">
         <f t="shared" si="0"/>
-        <v>222.80169242299999</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>N6*0.01163</f>
         <v>159.60832897999998</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109.5738723336314</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.31348274219848671</v>
       </c>
     </row>
@@ -9169,19 +9037,19 @@
         <v>5961.9170000000004</v>
       </c>
       <c r="P7" s="5">
+        <f t="shared" si="1"/>
+        <v>143.10302208499999</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="0"/>
-        <v>143.10302208499999</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>N7*0.01163</f>
         <v>69.337094710000002</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70.378066261402992</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5013198285229734E-2</v>
       </c>
     </row>
@@ -9226,19 +9094,19 @@
         <v>9274.3919999999998</v>
       </c>
       <c r="P8" s="5">
+        <f t="shared" si="1"/>
+        <v>124.369229</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="0"/>
-        <v>124.369229</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>N8*0.01163</f>
         <v>107.86117895999999</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.164786822200007</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.43293048145818247</v>
       </c>
     </row>
@@ -9283,19 +9151,19 @@
         <v>11636.499</v>
       </c>
       <c r="P9" s="5">
+        <f t="shared" si="1"/>
+        <v>118.78787199999999</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="0"/>
-        <v>118.78787199999999</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>N9*0.01163</f>
         <v>135.33248337000001</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.419875449599999</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.56832333232310805</v>
       </c>
     </row>
@@ -9340,19 +9208,19 @@
         <v>6941.1170000000002</v>
       </c>
       <c r="P10" s="5">
+        <f t="shared" si="1"/>
+        <v>103.517976</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="0"/>
-        <v>103.517976</v>
-      </c>
-      <c r="Q10" s="4">
-        <f>N10*0.01163</f>
         <v>80.725190710000007</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.910140596800005</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.36934010128645756</v>
       </c>
     </row>
@@ -9397,19 +9265,19 @@
         <v>3994.5770000000002</v>
       </c>
       <c r="P11" s="5">
+        <f t="shared" si="1"/>
+        <v>96.103590863999997</v>
+      </c>
+      <c r="Q11" s="4">
         <f t="shared" si="0"/>
-        <v>96.103590863999997</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>N11*0.01163</f>
         <v>46.456930509999999</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.263745986915197</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7366956190562943E-2</v>
       </c>
     </row>
@@ -9454,19 +9322,19 @@
         <v>9292.6010000000006</v>
       </c>
       <c r="P12" s="5">
+        <f t="shared" si="1"/>
+        <v>92.380069000000006</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="0"/>
-        <v>92.380069000000006</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>N12*0.01163</f>
         <v>108.07294963000001</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.432517934200007</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.57961249239755763</v>
       </c>
     </row>
@@ -9511,19 +9379,19 @@
         <v>2226.6570000000002</v>
       </c>
       <c r="P13" s="5">
+        <f t="shared" si="1"/>
+        <v>90.207983446</v>
+      </c>
+      <c r="Q13" s="4">
         <f t="shared" si="0"/>
-        <v>90.207983446</v>
-      </c>
-      <c r="Q13" s="4">
-        <f>N13*0.01163</f>
         <v>25.896020910000001</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.364286258742801</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71317000449328094</v>
       </c>
     </row>
@@ -9568,19 +9436,19 @@
         <v>11349.805</v>
       </c>
       <c r="P14" s="5">
+        <f t="shared" si="1"/>
+        <v>86.794210724999999</v>
+      </c>
+      <c r="Q14" s="4">
         <f t="shared" si="0"/>
-        <v>86.794210724999999</v>
-      </c>
-      <c r="Q14" s="4">
-        <f>N14*0.01163</f>
         <v>131.99823215000001</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.685392834555003</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.67662148091462149</v>
       </c>
     </row>
@@ -9625,19 +9493,19 @@
         <v>4312.7860000000001</v>
       </c>
       <c r="P15" s="5">
+        <f t="shared" si="1"/>
+        <v>69.990504999999999</v>
+      </c>
+      <c r="Q15" s="4">
         <f t="shared" si="0"/>
-        <v>69.990504999999999</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>N15*0.01163</f>
         <v>50.157701179999997</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.421330359000002</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.31373787974307632</v>
       </c>
     </row>
@@ -9682,19 +9550,19 @@
         <v>2060.134</v>
       </c>
       <c r="P16" s="5">
+        <f t="shared" si="1"/>
+        <v>69.204570000000004</v>
+      </c>
+      <c r="Q16" s="4">
         <f t="shared" si="0"/>
-        <v>69.204570000000004</v>
-      </c>
-      <c r="Q16" s="4">
-        <f>N16*0.01163</f>
         <v>23.959358420000001</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.034807526000002</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42052249185393675</v>
       </c>
     </row>
@@ -9739,19 +9607,19 @@
         <v>4958</v>
       </c>
       <c r="P17" s="5">
+        <f t="shared" si="1"/>
+        <v>62.190488811999998</v>
+      </c>
+      <c r="Q17" s="4">
         <f t="shared" si="0"/>
-        <v>62.190488811999998</v>
-      </c>
-      <c r="Q17" s="4">
-        <f>N17*0.01163</f>
         <v>57.661539999999995</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.585282397741601</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.46957222443691926</v>
       </c>
     </row>
@@ -9796,19 +9664,19 @@
         <v>2869.4789999999998</v>
       </c>
       <c r="P18" s="5">
+        <f t="shared" si="1"/>
+        <v>48.054662999999998</v>
+      </c>
+      <c r="Q18" s="4">
         <f t="shared" si="0"/>
-        <v>48.054662999999998</v>
-      </c>
-      <c r="Q18" s="4">
-        <f>N18*0.01163</f>
         <v>33.372040769999998</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.633283263399999</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.29182385259923072</v>
       </c>
     </row>
@@ -9853,19 +9721,19 @@
         <v>6094.0709999999999</v>
       </c>
       <c r="P19" s="5">
+        <f t="shared" si="1"/>
+        <v>37.960077728999998</v>
+      </c>
+      <c r="Q19" s="4">
         <f t="shared" si="0"/>
-        <v>37.960077728999998</v>
-      </c>
-      <c r="Q19" s="4">
-        <f>N19*0.01163</f>
         <v>70.874045729999992</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.668766227122198</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.73659234442122479</v>
       </c>
     </row>
@@ -9910,19 +9778,19 @@
         <v>2463.422</v>
       </c>
       <c r="P20" s="5">
+        <f t="shared" si="1"/>
+        <v>25.488505</v>
+      </c>
+      <c r="Q20" s="4">
         <f t="shared" si="0"/>
-        <v>25.488505</v>
-      </c>
-      <c r="Q20" s="4">
-        <f>N20*0.01163</f>
         <v>28.64959786</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.535246759</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.56246343071706906</v>
       </c>
     </row>
@@ -9967,19 +9835,19 @@
         <v>898.67</v>
       </c>
       <c r="P21" s="5">
+        <f t="shared" si="1"/>
+        <v>25.257428000000001</v>
+      </c>
+      <c r="Q21" s="4">
         <f t="shared" si="0"/>
-        <v>25.257428000000001</v>
-      </c>
-      <c r="Q21" s="4">
-        <f>N21*0.01163</f>
         <v>10.4515321</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.421603090400001</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18849590390675841</v>
       </c>
     </row>
@@ -10024,19 +9892,19 @@
         <v>2230.4870000000001</v>
       </c>
       <c r="P22" s="5">
+        <f t="shared" si="1"/>
+        <v>21.069068098999999</v>
+      </c>
+      <c r="Q22" s="4">
         <f t="shared" si="0"/>
-        <v>21.069068098999999</v>
-      </c>
-      <c r="Q22" s="4">
-        <f>N22*0.01163</f>
         <v>25.94056381</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.3617676910882</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.60055734459041421</v>
       </c>
     </row>
@@ -10081,19 +9949,19 @@
         <v>1173.8879999999999</v>
       </c>
       <c r="P23" s="5">
+        <f t="shared" si="1"/>
+        <v>19.506713000000001</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="0"/>
-        <v>19.506713000000001</v>
-      </c>
-      <c r="Q23" s="4">
-        <f>N23*0.01163</f>
         <v>13.652317439999999</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5934014534000003</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.29730600716240008</v>
       </c>
     </row>
@@ -10138,19 +10006,19 @@
         <v>2454.7359999999999</v>
       </c>
       <c r="P24" s="5">
+        <f t="shared" si="1"/>
+        <v>19.497970643999999</v>
+      </c>
+      <c r="Q24" s="4">
         <f t="shared" si="0"/>
-        <v>19.497970643999999</v>
-      </c>
-      <c r="Q24" s="4">
-        <f>N24*0.01163</f>
         <v>28.54857968</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5891019627191998</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.66411281856389714</v>
       </c>
     </row>
@@ -10195,19 +10063,19 @@
         <v>337.166</v>
       </c>
       <c r="P25" s="5">
+        <f t="shared" si="1"/>
+        <v>14.485322999999999</v>
+      </c>
+      <c r="Q25" s="4">
         <f t="shared" si="0"/>
-        <v>14.485322999999999</v>
-      </c>
-      <c r="Q25" s="4">
-        <f>N25*0.01163</f>
         <v>3.9212405800000001</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1238818514000002</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81674184637760727</v>
       </c>
     </row>
@@ -10252,19 +10120,19 @@
         <v>1073.3409999999999</v>
       </c>
       <c r="P26" s="5">
+        <f t="shared" si="1"/>
+        <v>8.5057379999999991</v>
+      </c>
+      <c r="Q26" s="4">
         <f t="shared" si="0"/>
-        <v>8.5057379999999991</v>
-      </c>
-      <c r="Q26" s="4">
-        <f>N26*0.01163</f>
         <v>12.482955829999998</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1831219483999993</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.66489331490328607</v>
       </c>
     </row>
@@ -10309,19 +10177,19 @@
         <v>1389.684</v>
       </c>
       <c r="P27" s="5">
+        <f t="shared" si="1"/>
+        <v>4.4327758519999998</v>
+      </c>
+      <c r="Q27" s="4">
         <f t="shared" si="0"/>
-        <v>4.4327758519999998</v>
-      </c>
-      <c r="Q27" s="4">
-        <f>N27*0.01163</f>
         <v>16.16202492</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1800391640135999</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.86511348826619683</v>
       </c>
     </row>
@@ -10366,19 +10234,19 @@
         <v>921.40599999999995</v>
       </c>
       <c r="P28" s="5">
+        <f t="shared" si="1"/>
+        <v>4.060149</v>
+      </c>
+      <c r="Q28" s="4">
         <f t="shared" si="0"/>
-        <v>4.060149</v>
-      </c>
-      <c r="Q28" s="4">
-        <f>N28*0.01163</f>
         <v>10.715951779999999</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9967812782000001</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.81366272271523787</v>
       </c>
     </row>
@@ -10423,19 +10291,19 @@
         <v>329.87</v>
       </c>
       <c r="P29" s="5">
+        <f t="shared" si="1"/>
+        <v>2.3043678330000001</v>
+      </c>
+      <c r="Q29" s="4">
         <f t="shared" si="0"/>
-        <v>2.3043678330000001</v>
-      </c>
-      <c r="Q29" s="4">
-        <f>N29*0.01163</f>
         <v>3.8363880999999997</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1332881002694002</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.70459503295055048</v>
       </c>
     </row>
@@ -10484,15 +10352,15 @@
         <v>1.5067812169999999</v>
       </c>
       <c r="Q30" s="4">
-        <f>N30*0.01163</f>
+        <f t="shared" si="0"/>
         <v>4.6962870399999996</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74103500252059995</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.84220832410605806</v>
       </c>
     </row>
@@ -10537,19 +10405,19 @@
         <v>85.137</v>
       </c>
       <c r="P31" s="5">
+        <f t="shared" si="1"/>
+        <v>0.63496399999999997</v>
+      </c>
+      <c r="Q31" s="4">
         <f t="shared" si="0"/>
-        <v>0.63496399999999997</v>
-      </c>
-      <c r="Q31" s="4">
-        <f>N31*0.01163</f>
         <v>0.99014331</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31227529519999997</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.68461606310302703</v>
       </c>
     </row>
@@ -10594,11 +10462,11 @@
         <v>47</v>
       </c>
       <c r="P32" s="5">
+        <f t="shared" si="1"/>
+        <v>9.2079413999999993</v>
+      </c>
+      <c r="Q32" s="4" t="e">
         <f t="shared" si="0"/>
-        <v>9.2079413999999993</v>
-      </c>
-      <c r="Q32" s="4" t="e">
-        <f>N32*0.01163</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10941,13 +10809,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9BCFDE-F588-4BFB-8907-B5755FADA2BA}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView zoomScale="81" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -10994,53 +10865,53 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <f>Sheet1!B2/1000000000</f>
-        <v>465.21</v>
-      </c>
-      <c r="C2" s="2">
-        <f>Sheet1!C2/1000000000</f>
-        <v>188.107</v>
-      </c>
-      <c r="D2" s="2">
-        <f>Sheet1!D2/1000000000</f>
-        <v>101.879</v>
-      </c>
-      <c r="E2" s="2">
-        <f>Sheet1!E2/1000000000</f>
-        <v>136.386</v>
-      </c>
-      <c r="F2" s="2">
-        <f>Sheet1!F2/1000000000</f>
+      <c r="B2">
+        <f>B39/1000000000</f>
+        <v>465.20996100000002</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:L2" si="0">C39/1000000000</f>
+        <v>188.106942</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>101.878935</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>136.385593</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
         <v>59.978529999999999</v>
       </c>
-      <c r="G2" s="2">
-        <f>Sheet1!G2/1000000000</f>
+      <c r="G2">
+        <f t="shared" si="0"/>
         <v>17.686194</v>
       </c>
-      <c r="H2" s="2">
-        <f>Sheet1!H2/1000000000</f>
+      <c r="H2">
+        <f t="shared" si="0"/>
         <v>13.036766999999999</v>
       </c>
-      <c r="I2" s="2">
-        <f>Sheet1!I2/1000000000</f>
+      <c r="I2">
+        <f t="shared" si="0"/>
         <v>16.134867</v>
       </c>
-      <c r="J2" s="2">
-        <f>Sheet1!J2/1000000000</f>
+      <c r="J2">
+        <f t="shared" si="0"/>
         <v>12.016059</v>
       </c>
-      <c r="K2" s="2">
-        <f>Sheet1!K2/1000000000</f>
+      <c r="K2">
+        <f t="shared" si="0"/>
         <v>6.6049119999999997</v>
       </c>
-      <c r="L2" s="2">
-        <f>Sheet1!L2/1000000000</f>
+      <c r="L2">
+        <f t="shared" si="0"/>
         <v>17.588491999999999</v>
       </c>
       <c r="N2" s="2">
         <f>SUM(B2:L2)</f>
-        <v>1034.627821</v>
+        <v>1034.627252</v>
       </c>
       <c r="P2">
         <v>582.26594016999991</v>
@@ -11050,53 +10921,53 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <f>Sheet1!B3/1000000000</f>
-        <v>252.529</v>
-      </c>
-      <c r="C3" s="2">
-        <f>Sheet1!C3/1000000000</f>
-        <v>166.29900000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <f>Sheet1!D3/1000000000</f>
+      <c r="B3">
+        <f t="shared" ref="B3:L30" si="1">B40/1000000000</f>
+        <v>252.528897</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>165.988632</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
         <v>62.081341999999999</v>
       </c>
-      <c r="E3" s="2">
-        <f>Sheet1!E3/1000000000</f>
-        <v>165.71700000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <f>Sheet1!F3/1000000000</f>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>165.71705499999999</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
         <v>72.113157000000001</v>
       </c>
-      <c r="G3" s="2">
-        <f>Sheet1!G3/1000000000</f>
+      <c r="G3">
+        <f t="shared" si="1"/>
         <v>22.98638</v>
       </c>
-      <c r="H3" s="2">
-        <f>Sheet1!H3/1000000000</f>
+      <c r="H3">
+        <f t="shared" si="1"/>
         <v>36.070497000000003</v>
       </c>
-      <c r="I3" s="2">
-        <f>Sheet1!I3/1000000000</f>
-        <v>24.643674000000001</v>
-      </c>
-      <c r="J3" s="2">
-        <f>Sheet1!J3/1000000000</f>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>24.954267000000002</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
         <v>10.731368</v>
       </c>
-      <c r="K3" s="2">
-        <f>Sheet1!K3/1000000000</f>
+      <c r="K3">
+        <f t="shared" si="1"/>
         <v>22.223593999999999</v>
       </c>
-      <c r="L3" s="2">
-        <f>Sheet1!L3/1000000000</f>
+      <c r="L3">
+        <f t="shared" si="1"/>
         <v>9.886082</v>
       </c>
       <c r="N3" s="2">
         <f>SUM(B3:L3)</f>
-        <v>845.28109400000017</v>
+        <v>845.28127100000006</v>
       </c>
       <c r="P3">
         <v>273.33188856000004</v>
@@ -11106,53 +10977,53 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
-        <f>Sheet1!B4/1000000000</f>
-        <v>144.13200000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <f>Sheet1!C4/1000000000</f>
-        <v>177.87899999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <f>Sheet1!D4/1000000000</f>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>144.13211799999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>177.675051</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
         <v>67.488350999999994</v>
       </c>
-      <c r="E4" s="2">
-        <f>Sheet1!E4/1000000000</f>
+      <c r="E4">
+        <f t="shared" si="1"/>
         <v>64.153248000000005</v>
       </c>
-      <c r="F4" s="2">
-        <f>Sheet1!F4/1000000000</f>
+      <c r="F4">
+        <f t="shared" si="1"/>
         <v>39.530724999999997</v>
       </c>
-      <c r="G4" s="2">
-        <f>Sheet1!G4/1000000000</f>
+      <c r="G4">
+        <f t="shared" si="1"/>
         <v>11.385241000000001</v>
       </c>
-      <c r="H4" s="2">
-        <f>Sheet1!H4/1000000000</f>
+      <c r="H4">
+        <f t="shared" si="1"/>
         <v>14.565042</v>
       </c>
-      <c r="I4" s="2">
-        <f>Sheet1!I4/1000000000</f>
-        <v>5.8392999999999997</v>
-      </c>
-      <c r="J4" s="2">
-        <f>Sheet1!J4/1000000000</f>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>6.0429940000000002</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
         <v>8.87913</v>
       </c>
-      <c r="K4" s="2">
-        <f>Sheet1!K4/1000000000</f>
+      <c r="K4">
+        <f t="shared" si="1"/>
         <v>3.9996459999999998</v>
       </c>
-      <c r="L4" s="2">
-        <f>Sheet1!L4/1000000000</f>
+      <c r="L4">
+        <f t="shared" si="1"/>
         <v>5.5846479999999996</v>
       </c>
       <c r="N4" s="2">
         <f>SUM(B4:L4)</f>
-        <v>543.436331</v>
+        <v>543.43619400000011</v>
       </c>
       <c r="P4">
         <v>278.62115440999997</v>
@@ -11162,53 +11033,53 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <f>Sheet1!B5/1000000000</f>
-        <v>107.958</v>
-      </c>
-      <c r="C5" s="2">
-        <f>Sheet1!C5/1000000000</f>
-        <v>168.79300000000001</v>
-      </c>
-      <c r="D5" s="2">
-        <f>Sheet1!D5/1000000000</f>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>107.95817099999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>168.57575600000001</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
         <v>46.041910999999999</v>
       </c>
-      <c r="E5" s="2">
-        <f>Sheet1!E5/1000000000</f>
+      <c r="E5">
+        <f t="shared" si="1"/>
         <v>59.233502999999999</v>
       </c>
-      <c r="F5" s="2">
-        <f>Sheet1!F5/1000000000</f>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>30.811143999999999</v>
       </c>
-      <c r="G5" s="2">
-        <f>Sheet1!G5/1000000000</f>
+      <c r="G5">
+        <f t="shared" si="1"/>
         <v>12.969948</v>
       </c>
-      <c r="H5" s="2">
-        <f>Sheet1!H5/1000000000</f>
+      <c r="H5">
+        <f t="shared" si="1"/>
         <v>14.555596</v>
       </c>
-      <c r="I5" s="2">
-        <f>Sheet1!I5/1000000000</f>
-        <v>16.083863999999998</v>
-      </c>
-      <c r="J5" s="2">
-        <f>Sheet1!J5/1000000000</f>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>16.300823000000001</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
         <v>6.0814919999999999</v>
       </c>
-      <c r="K5" s="2">
-        <f>Sheet1!K5/1000000000</f>
+      <c r="K5">
+        <f t="shared" si="1"/>
         <v>7.1393909999999998</v>
       </c>
-      <c r="L5" s="2">
-        <f>Sheet1!L5/1000000000</f>
+      <c r="L5">
+        <f t="shared" si="1"/>
         <v>3.437605</v>
       </c>
       <c r="N5" s="2">
         <f>SUM(B5:L5)</f>
-        <v>473.10545400000001</v>
+        <v>473.10533999999996</v>
       </c>
       <c r="P5">
         <v>214.88183455999999</v>
@@ -11218,53 +11089,53 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2">
-        <f>Sheet1!B6/1000000000</f>
+      <c r="B6">
+        <f t="shared" si="1"/>
         <v>55.597461021000001</v>
       </c>
-      <c r="C6" s="2">
-        <f>Sheet1!C6/1000000000</f>
-        <v>70.996106781999998</v>
-      </c>
-      <c r="D6" s="2">
-        <f>Sheet1!D6/1000000000</f>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>70.986749670999998</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
         <v>17.23661735</v>
       </c>
-      <c r="E6" s="2">
-        <f>Sheet1!E6/1000000000</f>
+      <c r="E6">
+        <f t="shared" si="1"/>
         <v>26.527168214</v>
       </c>
-      <c r="F6" s="2">
-        <f>Sheet1!F6/1000000000</f>
+      <c r="F6">
+        <f t="shared" si="1"/>
         <v>22.103689784</v>
       </c>
-      <c r="G6" s="2">
-        <f>Sheet1!G6/1000000000</f>
+      <c r="G6">
+        <f t="shared" si="1"/>
         <v>5.0640990749999997</v>
       </c>
-      <c r="H6" s="2">
-        <f>Sheet1!H6/1000000000</f>
+      <c r="H6">
+        <f t="shared" si="1"/>
         <v>10.537556803999999</v>
       </c>
-      <c r="I6" s="2">
-        <f>Sheet1!I6/1000000000</f>
-        <v>8.4850052839999996</v>
-      </c>
-      <c r="J6" s="2">
-        <f>Sheet1!J6/1000000000</f>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>8.4943623949999996</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
         <v>3.044248788</v>
       </c>
-      <c r="K6" s="2">
-        <f>Sheet1!K6/1000000000</f>
+      <c r="K6">
+        <f t="shared" si="1"/>
         <v>2.2876180100000001</v>
       </c>
-      <c r="L6" s="2">
-        <f>Sheet1!L6/1000000000</f>
+      <c r="L6">
+        <f t="shared" si="1"/>
         <v>0.92212131100000005</v>
       </c>
       <c r="N6" s="2">
         <f>SUM(B6:L6)</f>
-        <v>222.80169242300002</v>
+        <v>222.80169242299999</v>
       </c>
       <c r="P6">
         <v>159.60832897999998</v>
@@ -11274,48 +11145,48 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2">
-        <f>Sheet1!B7/1000000000</f>
+      <c r="B7">
+        <f t="shared" si="1"/>
         <v>77.425081743999996</v>
       </c>
-      <c r="C7" s="2">
-        <f>Sheet1!C7/1000000000</f>
-        <v>17.415476087999998</v>
-      </c>
-      <c r="D7" s="2">
-        <f>Sheet1!D7/1000000000</f>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>17.404422514</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
         <v>7.484392605</v>
       </c>
-      <c r="E7" s="2">
-        <f>Sheet1!E7/1000000000</f>
+      <c r="E7">
+        <f t="shared" si="1"/>
         <v>16.839212092</v>
       </c>
-      <c r="F7" s="2">
-        <f>Sheet1!F7/1000000000</f>
+      <c r="F7">
+        <f t="shared" si="1"/>
         <v>10.250497081000001</v>
       </c>
-      <c r="G7" s="2">
-        <f>Sheet1!G7/1000000000</f>
+      <c r="G7">
+        <f t="shared" si="1"/>
         <v>2.5138238199999998</v>
       </c>
-      <c r="H7" s="2">
-        <f>Sheet1!H7/1000000000</f>
+      <c r="H7">
+        <f t="shared" si="1"/>
         <v>3.4501975050000002</v>
       </c>
-      <c r="I7" s="2">
-        <f>Sheet1!I7/1000000000</f>
-        <v>3.4634558000000002</v>
-      </c>
-      <c r="J7" s="2">
-        <f>Sheet1!J7/1000000000</f>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>3.4745093740000002</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
         <v>1.21575279</v>
       </c>
-      <c r="K7" s="2">
-        <f>Sheet1!K7/1000000000</f>
+      <c r="K7">
+        <f t="shared" si="1"/>
         <v>1.645750206</v>
       </c>
-      <c r="L7" s="2">
-        <f>Sheet1!L7/1000000000</f>
+      <c r="L7">
+        <f t="shared" si="1"/>
         <v>1.3993823540000001</v>
       </c>
       <c r="N7" s="2">
@@ -11330,48 +11201,48 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <f>Sheet1!B8/1000000000</f>
+      <c r="B8">
+        <f t="shared" si="1"/>
         <v>15.035107</v>
       </c>
-      <c r="C8" s="2">
-        <f>Sheet1!C8/1000000000</f>
-        <v>43.292234000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <f>Sheet1!D8/1000000000</f>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>43.252457</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
         <v>32.582864000000001</v>
       </c>
-      <c r="E8" s="2">
-        <f>Sheet1!E8/1000000000</f>
+      <c r="E8">
+        <f t="shared" si="1"/>
         <v>13.375372</v>
       </c>
-      <c r="F8" s="2">
-        <f>Sheet1!F8/1000000000</f>
+      <c r="F8">
+        <f t="shared" si="1"/>
         <v>6.6997949999999999</v>
       </c>
-      <c r="G8" s="2">
-        <f>Sheet1!G8/1000000000</f>
+      <c r="G8">
+        <f t="shared" si="1"/>
         <v>2.0696370000000002</v>
       </c>
-      <c r="H8" s="2">
-        <f>Sheet1!H8/1000000000</f>
+      <c r="H8">
+        <f t="shared" si="1"/>
         <v>2.8157770000000002</v>
       </c>
-      <c r="I8" s="2">
-        <f>Sheet1!I8/1000000000</f>
-        <v>4.543215</v>
-      </c>
-      <c r="J8" s="2">
-        <f>Sheet1!J8/1000000000</f>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4.582992</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
         <v>1.341005</v>
       </c>
-      <c r="K8" s="2">
-        <f>Sheet1!K8/1000000000</f>
+      <c r="K8">
+        <f t="shared" si="1"/>
         <v>2.1166849999999999</v>
       </c>
-      <c r="L8" s="2">
-        <f>Sheet1!L8/1000000000</f>
+      <c r="L8">
+        <f t="shared" si="1"/>
         <v>0.49753799999999998</v>
       </c>
       <c r="N8" s="2">
@@ -11386,48 +11257,48 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
-        <f>Sheet1!B9/1000000000</f>
+      <c r="B9">
+        <f t="shared" si="1"/>
         <v>33.965474</v>
       </c>
-      <c r="C9" s="2">
-        <f>Sheet1!C9/1000000000</f>
+      <c r="C9">
+        <f t="shared" si="1"/>
         <v>39.206440999999998</v>
       </c>
-      <c r="D9" s="2">
-        <f>Sheet1!D9/1000000000</f>
+      <c r="D9">
+        <f t="shared" si="1"/>
         <v>17.37311</v>
       </c>
-      <c r="E9" s="2">
-        <f>Sheet1!E9/1000000000</f>
+      <c r="E9">
+        <f t="shared" si="1"/>
         <v>11.18009</v>
       </c>
-      <c r="F9" s="2">
-        <f>Sheet1!F9/1000000000</f>
+      <c r="F9">
+        <f t="shared" si="1"/>
         <v>5.6525259999999999</v>
       </c>
-      <c r="G9" s="2">
-        <f>Sheet1!G9/1000000000</f>
+      <c r="G9">
+        <f t="shared" si="1"/>
         <v>2.1715179999999998</v>
       </c>
-      <c r="H9" s="2">
-        <f>Sheet1!H9/1000000000</f>
+      <c r="H9">
+        <f t="shared" si="1"/>
         <v>2.8514140000000001</v>
       </c>
-      <c r="I9" s="2">
-        <f>Sheet1!I9/1000000000</f>
+      <c r="I9">
+        <f t="shared" si="1"/>
         <v>2.8636699999999999</v>
       </c>
-      <c r="J9" s="2">
-        <f>Sheet1!J9/1000000000</f>
+      <c r="J9">
+        <f t="shared" si="1"/>
         <v>2.1154709999999999</v>
       </c>
-      <c r="K9" s="2">
-        <f>Sheet1!K9/1000000000</f>
+      <c r="K9">
+        <f t="shared" si="1"/>
         <v>0.50744500000000003</v>
       </c>
-      <c r="L9" s="2">
-        <f>Sheet1!L9/1000000000</f>
+      <c r="L9">
+        <f t="shared" si="1"/>
         <v>0.90071299999999999</v>
       </c>
       <c r="N9" s="2">
@@ -11442,48 +11313,48 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
-        <f>Sheet1!B10/1000000000</f>
+      <c r="B10">
+        <f t="shared" si="1"/>
         <v>35.321807999999997</v>
       </c>
-      <c r="C10" s="2">
-        <f>Sheet1!C10/1000000000</f>
-        <v>22.337440999999998</v>
-      </c>
-      <c r="D10" s="2">
-        <f>Sheet1!D10/1000000000</f>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>22.240279999999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
         <v>4.0498219999999998</v>
       </c>
-      <c r="E10" s="2">
-        <f>Sheet1!E10/1000000000</f>
+      <c r="E10">
+        <f t="shared" si="1"/>
         <v>19.521476</v>
       </c>
-      <c r="F10" s="2">
-        <f>Sheet1!F10/1000000000</f>
+      <c r="F10">
+        <f t="shared" si="1"/>
         <v>7.779738</v>
       </c>
-      <c r="G10" s="2">
-        <f>Sheet1!G10/1000000000</f>
+      <c r="G10">
+        <f t="shared" si="1"/>
         <v>2.9732289999999999</v>
       </c>
-      <c r="H10" s="2">
-        <f>Sheet1!H10/1000000000</f>
+      <c r="H10">
+        <f t="shared" si="1"/>
         <v>3.6681240000000002</v>
       </c>
-      <c r="I10" s="2">
-        <f>Sheet1!I10/1000000000</f>
-        <v>3.5006689999999998</v>
-      </c>
-      <c r="J10" s="2">
-        <f>Sheet1!J10/1000000000</f>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>3.5978300000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
         <v>1.8806799999999999</v>
       </c>
-      <c r="K10" s="2">
-        <f>Sheet1!K10/1000000000</f>
+      <c r="K10">
+        <f t="shared" si="1"/>
         <v>1.271552</v>
       </c>
-      <c r="L10" s="2">
-        <f>Sheet1!L10/1000000000</f>
+      <c r="L10">
+        <f t="shared" si="1"/>
         <v>1.2134370000000001</v>
       </c>
       <c r="N10" s="2">
@@ -11498,48 +11369,48 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2">
-        <f>Sheet1!B11/1000000000</f>
+      <c r="B11">
+        <f t="shared" si="1"/>
         <v>54.572612595000003</v>
       </c>
-      <c r="C11" s="2">
-        <f>Sheet1!C11/1000000000</f>
+      <c r="C11">
+        <f t="shared" si="1"/>
         <v>15.787066917000001</v>
       </c>
-      <c r="D11" s="2">
-        <f>Sheet1!D11/1000000000</f>
+      <c r="D11">
+        <f t="shared" si="1"/>
         <v>9.5032221660000005</v>
       </c>
-      <c r="E11" s="2">
-        <f>Sheet1!E11/1000000000</f>
+      <c r="E11">
+        <f t="shared" si="1"/>
         <v>6.7435444770000004</v>
       </c>
-      <c r="F11" s="2">
-        <f>Sheet1!F11/1000000000</f>
+      <c r="F11">
+        <f t="shared" si="1"/>
         <v>4.4850326550000004</v>
       </c>
-      <c r="G11" s="2">
-        <f>Sheet1!G11/1000000000</f>
+      <c r="G11">
+        <f t="shared" si="1"/>
         <v>0.50998147900000002</v>
       </c>
-      <c r="H11" s="2">
-        <f>Sheet1!H11/1000000000</f>
+      <c r="H11">
+        <f t="shared" si="1"/>
         <v>0.873261226</v>
       </c>
-      <c r="I11" s="2">
-        <f>Sheet1!I11/1000000000</f>
+      <c r="I11">
+        <f t="shared" si="1"/>
         <v>1.442600986</v>
       </c>
-      <c r="J11" s="2">
-        <f>Sheet1!J11/1000000000</f>
+      <c r="J11">
+        <f t="shared" si="1"/>
         <v>0.90414947300000004</v>
       </c>
-      <c r="K11" s="2">
-        <f>Sheet1!K11/1000000000</f>
+      <c r="K11">
+        <f t="shared" si="1"/>
         <v>0.42628728300000002</v>
       </c>
-      <c r="L11" s="2">
-        <f>Sheet1!L11/1000000000</f>
+      <c r="L11">
+        <f t="shared" si="1"/>
         <v>0.85583160700000005</v>
       </c>
       <c r="N11" s="2">
@@ -11554,53 +11425,53 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <f>Sheet1!B12/1000000000</f>
+      <c r="B12">
+        <f t="shared" si="1"/>
         <v>27.535245</v>
       </c>
-      <c r="C12" s="2">
-        <f>Sheet1!C12/1000000000</f>
-        <v>13.225536999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <f>Sheet1!D12/1000000000</f>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>13.157783999999999</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
         <v>9.4426039999999993</v>
       </c>
-      <c r="E12" s="2">
-        <f>Sheet1!E12/1000000000</f>
+      <c r="E12">
+        <f t="shared" si="1"/>
         <v>18.517253</v>
       </c>
-      <c r="F12" s="2">
-        <f>Sheet1!F12/1000000000</f>
+      <c r="F12">
+        <f t="shared" si="1"/>
         <v>4.2338430000000002</v>
       </c>
-      <c r="G12" s="2">
-        <f>Sheet1!G12/1000000000</f>
+      <c r="G12">
+        <f t="shared" si="1"/>
         <v>10.840361</v>
       </c>
-      <c r="H12" s="2">
-        <f>Sheet1!H12/1000000000</f>
+      <c r="H12">
+        <f t="shared" si="1"/>
         <v>4.8727200000000002</v>
       </c>
-      <c r="I12" s="2">
-        <f>Sheet1!I12/1000000000</f>
-        <v>1.8376859999999999</v>
-      </c>
-      <c r="J12" s="2">
-        <f>Sheet1!J12/1000000000</f>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.9054390000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
         <v>0.889733</v>
       </c>
-      <c r="K12" s="2">
-        <f>Sheet1!K12/1000000000</f>
+      <c r="K12">
+        <f t="shared" si="1"/>
         <v>0.391376</v>
       </c>
-      <c r="L12" s="2">
-        <f>Sheet1!L12/1000000000</f>
+      <c r="L12">
+        <f t="shared" si="1"/>
         <v>0.59371099999999999</v>
       </c>
       <c r="N12" s="2">
         <f>SUM(B12:L12)</f>
-        <v>92.380068999999992</v>
+        <v>92.380069000000006</v>
       </c>
       <c r="P12">
         <v>108.07294963000001</v>
@@ -11610,53 +11481,53 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2">
-        <f>Sheet1!B13/1000000000</f>
+      <c r="B13">
+        <f t="shared" si="1"/>
         <v>26.548633714000001</v>
       </c>
-      <c r="C13" s="2">
-        <f>Sheet1!C13/1000000000</f>
-        <v>21.826431432</v>
-      </c>
-      <c r="D13" s="2">
-        <f>Sheet1!D13/1000000000</f>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>21.796807628</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
         <v>21.346001818000001</v>
       </c>
-      <c r="E13" s="2">
-        <f>Sheet1!E13/1000000000</f>
+      <c r="E13">
+        <f t="shared" si="1"/>
         <v>7.9431484760000002</v>
       </c>
-      <c r="F13" s="2">
-        <f>Sheet1!F13/1000000000</f>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>3.1746779620000001</v>
       </c>
-      <c r="G13" s="2">
-        <f>Sheet1!G13/1000000000</f>
+      <c r="G13">
+        <f t="shared" si="1"/>
         <v>0.70617374899999996</v>
       </c>
-      <c r="H13" s="2">
-        <f>Sheet1!H13/1000000000</f>
+      <c r="H13">
+        <f t="shared" si="1"/>
         <v>3.351096777</v>
       </c>
-      <c r="I13" s="2">
-        <f>Sheet1!I13/1000000000</f>
-        <v>2.4899966459999998</v>
-      </c>
-      <c r="J13" s="2">
-        <f>Sheet1!J13/1000000000</f>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>2.5196204500000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
         <v>0.40130722400000002</v>
       </c>
-      <c r="K13" s="2">
-        <f>Sheet1!K13/1000000000</f>
+      <c r="K13">
+        <f t="shared" si="1"/>
         <v>0.88488021699999997</v>
       </c>
-      <c r="L13" s="2">
-        <f>Sheet1!L13/1000000000</f>
+      <c r="L13">
+        <f t="shared" si="1"/>
         <v>1.535635431</v>
       </c>
       <c r="N13" s="2">
         <f>SUM(B13:L13)</f>
-        <v>90.207983446000014</v>
+        <v>90.207983446000028</v>
       </c>
       <c r="P13">
         <v>25.896020910000001</v>
@@ -11666,48 +11537,48 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <f>Sheet1!B14/1000000000</f>
+      <c r="B14">
+        <f t="shared" si="1"/>
         <v>34.734794933000003</v>
       </c>
-      <c r="C14" s="2">
-        <f>Sheet1!C14/1000000000</f>
+      <c r="C14">
+        <f t="shared" si="1"/>
         <v>10.770965256</v>
       </c>
-      <c r="D14" s="2">
-        <f>Sheet1!D14/1000000000</f>
+      <c r="D14">
+        <f t="shared" si="1"/>
         <v>17.380288359000001</v>
       </c>
-      <c r="E14" s="2">
-        <f>Sheet1!E14/1000000000</f>
+      <c r="E14">
+        <f t="shared" si="1"/>
         <v>7.002488939</v>
       </c>
-      <c r="F14" s="2">
-        <f>Sheet1!F14/1000000000</f>
+      <c r="F14">
+        <f t="shared" si="1"/>
         <v>2.6780663489999998</v>
       </c>
-      <c r="G14" s="2">
-        <f>Sheet1!G14/1000000000</f>
+      <c r="G14">
+        <f t="shared" si="1"/>
         <v>6.7842073210000002</v>
       </c>
-      <c r="H14" s="2">
-        <f>Sheet1!H14/1000000000</f>
+      <c r="H14">
+        <f t="shared" si="1"/>
         <v>4.6171790599999998</v>
       </c>
-      <c r="I14" s="2">
-        <f>Sheet1!I14/1000000000</f>
+      <c r="I14">
+        <f t="shared" si="1"/>
         <v>1.572787661</v>
       </c>
-      <c r="J14" s="2">
-        <f>Sheet1!J14/1000000000</f>
+      <c r="J14">
+        <f t="shared" si="1"/>
         <v>0.48315677400000001</v>
       </c>
-      <c r="K14" s="2">
-        <f>Sheet1!K14/1000000000</f>
+      <c r="K14">
+        <f t="shared" si="1"/>
         <v>0.206883124</v>
       </c>
-      <c r="L14" s="2">
-        <f>Sheet1!L14/1000000000</f>
+      <c r="L14">
+        <f t="shared" si="1"/>
         <v>0.56339294900000003</v>
       </c>
       <c r="N14" s="2">
@@ -11722,48 +11593,48 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
-        <f>Sheet1!B15/1000000000</f>
+      <c r="B15">
+        <f t="shared" si="1"/>
         <v>20.873930000000001</v>
       </c>
-      <c r="C15" s="2">
-        <f>Sheet1!C15/1000000000</f>
+      <c r="C15">
+        <f t="shared" si="1"/>
         <v>15.483574000000001</v>
       </c>
-      <c r="D15" s="2">
-        <f>Sheet1!D15/1000000000</f>
+      <c r="D15">
+        <f t="shared" si="1"/>
         <v>5.251525</v>
       </c>
-      <c r="E15" s="2">
-        <f>Sheet1!E15/1000000000</f>
+      <c r="E15">
+        <f t="shared" si="1"/>
         <v>6.6482489999999999</v>
       </c>
-      <c r="F15" s="2">
-        <f>Sheet1!F15/1000000000</f>
+      <c r="F15">
+        <f t="shared" si="1"/>
         <v>5.8340139999999998</v>
       </c>
-      <c r="G15" s="2">
-        <f>Sheet1!G15/1000000000</f>
+      <c r="G15">
+        <f t="shared" si="1"/>
         <v>3.5013030000000001</v>
       </c>
-      <c r="H15" s="2">
-        <f>Sheet1!H15/1000000000</f>
+      <c r="H15">
+        <f t="shared" si="1"/>
         <v>3.4363920000000001</v>
       </c>
-      <c r="I15" s="2">
-        <f>Sheet1!I15/1000000000</f>
+      <c r="I15">
+        <f t="shared" si="1"/>
         <v>3.6834419999999999</v>
       </c>
-      <c r="J15" s="2">
-        <f>Sheet1!J15/1000000000</f>
+      <c r="J15">
+        <f t="shared" si="1"/>
         <v>0.90313299999999996</v>
       </c>
-      <c r="K15" s="2">
-        <f>Sheet1!K15/1000000000</f>
+      <c r="K15">
+        <f t="shared" si="1"/>
         <v>3.7709410000000001</v>
       </c>
-      <c r="L15" s="2">
-        <f>Sheet1!L15/1000000000</f>
+      <c r="L15">
+        <f t="shared" si="1"/>
         <v>0.60400200000000004</v>
       </c>
       <c r="N15" s="2">
@@ -11778,48 +11649,48 @@
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
-        <f>Sheet1!B16/1000000000</f>
+      <c r="B16">
+        <f t="shared" si="1"/>
         <v>7.8670530000000003</v>
       </c>
-      <c r="C16" s="2">
-        <f>Sheet1!C16/1000000000</f>
+      <c r="C16">
+        <f t="shared" si="1"/>
         <v>17.420988999999999</v>
       </c>
-      <c r="D16" s="2">
-        <f>Sheet1!D16/1000000000</f>
+      <c r="D16">
+        <f t="shared" si="1"/>
         <v>30.146529000000001</v>
       </c>
-      <c r="E16" s="2">
-        <f>Sheet1!E16/1000000000</f>
+      <c r="E16">
+        <f t="shared" si="1"/>
         <v>2.53668</v>
       </c>
-      <c r="F16" s="2">
-        <f>Sheet1!F16/1000000000</f>
+      <c r="F16">
+        <f t="shared" si="1"/>
         <v>0.98684499999999997</v>
       </c>
-      <c r="G16" s="2">
-        <f>Sheet1!G16/1000000000</f>
+      <c r="G16">
+        <f t="shared" si="1"/>
         <v>0.187555</v>
       </c>
-      <c r="H16" s="2">
-        <f>Sheet1!H16/1000000000</f>
+      <c r="H16">
+        <f t="shared" si="1"/>
         <v>1.393632</v>
       </c>
-      <c r="I16" s="2">
-        <f>Sheet1!I16/1000000000</f>
+      <c r="I16">
+        <f t="shared" si="1"/>
         <v>1.8195669999999999</v>
       </c>
-      <c r="J16" s="2">
-        <f>Sheet1!J16/1000000000</f>
+      <c r="J16">
+        <f t="shared" si="1"/>
         <v>0.44695600000000002</v>
       </c>
-      <c r="K16" s="2">
-        <f>Sheet1!K16/1000000000</f>
+      <c r="K16">
+        <f t="shared" si="1"/>
         <v>0.218414</v>
       </c>
-      <c r="L16" s="2">
-        <f>Sheet1!L16/1000000000</f>
+      <c r="L16">
+        <f t="shared" si="1"/>
         <v>6.1803499999999998</v>
       </c>
       <c r="N16" s="2">
@@ -11834,48 +11705,48 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2">
-        <f>Sheet1!B17/1000000000</f>
+      <c r="B17">
+        <f t="shared" si="1"/>
         <v>20.314400699</v>
       </c>
-      <c r="C17" s="2">
-        <f>Sheet1!C17/1000000000</f>
+      <c r="C17">
+        <f t="shared" si="1"/>
         <v>17.372536438000001</v>
       </c>
-      <c r="D17" s="2">
-        <f>Sheet1!D17/1000000000</f>
+      <c r="D17">
+        <f t="shared" si="1"/>
         <v>5.2650457929999996</v>
       </c>
-      <c r="E17" s="2">
-        <f>Sheet1!E17/1000000000</f>
+      <c r="E17">
+        <f t="shared" si="1"/>
         <v>6.6421830689999997</v>
       </c>
-      <c r="F17" s="2">
-        <f>Sheet1!F17/1000000000</f>
+      <c r="F17">
+        <f t="shared" si="1"/>
         <v>4.1567283269999997</v>
       </c>
-      <c r="G17" s="2">
-        <f>Sheet1!G17/1000000000</f>
+      <c r="G17">
+        <f t="shared" si="1"/>
         <v>0.751281054</v>
       </c>
-      <c r="H17" s="2">
-        <f>Sheet1!H17/1000000000</f>
+      <c r="H17">
+        <f t="shared" si="1"/>
         <v>2.9011486469999999</v>
       </c>
-      <c r="I17" s="2">
-        <f>Sheet1!I17/1000000000</f>
+      <c r="I17">
+        <f t="shared" si="1"/>
         <v>1.8387569479999999</v>
       </c>
-      <c r="J17" s="2">
-        <f>Sheet1!J17/1000000000</f>
+      <c r="J17">
+        <f t="shared" si="1"/>
         <v>0.71340287700000005</v>
       </c>
-      <c r="K17" s="2">
-        <f>Sheet1!K17/1000000000</f>
+      <c r="K17">
+        <f t="shared" si="1"/>
         <v>2.0317694689999999</v>
       </c>
-      <c r="L17" s="2">
-        <f>Sheet1!L17/1000000000</f>
+      <c r="L17">
+        <f t="shared" si="1"/>
         <v>0.20323549099999999</v>
       </c>
       <c r="N17" s="2">
@@ -11890,53 +11761,53 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <f>Sheet1!B18/1000000000</f>
+      <c r="B18">
+        <f t="shared" si="1"/>
         <v>30.567019999999999</v>
       </c>
-      <c r="C18" s="2">
-        <f>Sheet1!C18/1000000000</f>
-        <v>4.1310710000000004</v>
-      </c>
-      <c r="D18" s="2">
-        <f>Sheet1!D18/1000000000</f>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>4.1192250000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
         <v>0.97799999999999998</v>
       </c>
-      <c r="E18" s="2">
-        <f>Sheet1!E18/1000000000</f>
+      <c r="E18">
+        <f t="shared" si="1"/>
         <v>6.7137779999999996</v>
       </c>
-      <c r="F18" s="2">
-        <f>Sheet1!F18/1000000000</f>
+      <c r="F18">
+        <f t="shared" si="1"/>
         <v>2.6907480000000001</v>
       </c>
-      <c r="G18" s="2">
-        <f>Sheet1!G18/1000000000</f>
+      <c r="G18">
+        <f t="shared" si="1"/>
         <v>0.378027</v>
       </c>
-      <c r="H18" s="2">
-        <f>Sheet1!H18/1000000000</f>
+      <c r="H18">
+        <f t="shared" si="1"/>
         <v>0.82642499999999997</v>
       </c>
-      <c r="I18" s="2">
-        <f>Sheet1!I18/1000000000</f>
-        <v>1.148765</v>
-      </c>
-      <c r="J18" s="2">
-        <f>Sheet1!J18/1000000000</f>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1.1606110000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
         <v>0.25679200000000002</v>
       </c>
-      <c r="K18" s="2">
-        <f>Sheet1!K18/1000000000</f>
+      <c r="K18">
+        <f t="shared" si="1"/>
         <v>0.198018</v>
       </c>
-      <c r="L18" s="2">
-        <f>Sheet1!L18/1000000000</f>
+      <c r="L18">
+        <f t="shared" si="1"/>
         <v>0.166019</v>
       </c>
       <c r="N18" s="2">
         <f>SUM(B18:L18)</f>
-        <v>48.054662999999991</v>
+        <v>48.054662999999998</v>
       </c>
       <c r="P18">
         <v>33.372040769999998</v>
@@ -11946,48 +11817,48 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2">
-        <f>Sheet1!B19/1000000000</f>
+      <c r="B19">
+        <f t="shared" si="1"/>
         <v>6.5230445159999997</v>
       </c>
-      <c r="C19" s="2">
-        <f>Sheet1!C19/1000000000</f>
+      <c r="C19">
+        <f t="shared" si="1"/>
         <v>24.866499983000001</v>
       </c>
-      <c r="D19" s="2">
-        <f>Sheet1!D19/1000000000</f>
+      <c r="D19">
+        <f t="shared" si="1"/>
         <v>0.33721316800000001</v>
       </c>
-      <c r="E19" s="2">
-        <f>Sheet1!E19/1000000000</f>
+      <c r="E19">
+        <f t="shared" si="1"/>
         <v>2.6757293789999999</v>
       </c>
-      <c r="F19" s="2">
-        <f>Sheet1!F19/1000000000</f>
+      <c r="F19">
+        <f t="shared" si="1"/>
         <v>0.63773413999999995</v>
       </c>
-      <c r="G19" s="2">
-        <f>Sheet1!G19/1000000000</f>
+      <c r="G19">
+        <f t="shared" si="1"/>
         <v>0.29203250800000002</v>
       </c>
-      <c r="H19" s="2">
-        <f>Sheet1!H19/1000000000</f>
+      <c r="H19">
+        <f t="shared" si="1"/>
         <v>0.69768853900000005</v>
       </c>
-      <c r="I19" s="2">
-        <f>Sheet1!I19/1000000000</f>
+      <c r="I19">
+        <f t="shared" si="1"/>
         <v>1.559582751</v>
       </c>
-      <c r="J19" s="2">
-        <f>Sheet1!J19/1000000000</f>
+      <c r="J19">
+        <f t="shared" si="1"/>
         <v>0.19715732499999999</v>
       </c>
-      <c r="K19" s="2">
-        <f>Sheet1!K19/1000000000</f>
+      <c r="K19">
+        <f t="shared" si="1"/>
         <v>1.4849625E-2</v>
       </c>
-      <c r="L19" s="2">
-        <f>Sheet1!L19/1000000000</f>
+      <c r="L19">
+        <f t="shared" si="1"/>
         <v>0.15854579499999999</v>
       </c>
       <c r="N19" s="2">
@@ -12002,53 +11873,53 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
-        <f>Sheet1!B20/1000000000</f>
+      <c r="B20">
+        <f t="shared" si="1"/>
         <v>1.949746</v>
       </c>
-      <c r="C20" s="2">
-        <f>Sheet1!C20/1000000000</f>
-        <v>11.643744</v>
-      </c>
-      <c r="D20" s="2">
-        <f>Sheet1!D20/1000000000</f>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>11.575487000000001</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
         <v>3.8141630000000002</v>
       </c>
-      <c r="E20" s="2">
-        <f>Sheet1!E20/1000000000</f>
+      <c r="E20">
+        <f t="shared" si="1"/>
         <v>3.0663939999999998</v>
       </c>
-      <c r="F20" s="2">
-        <f>Sheet1!F20/1000000000</f>
+      <c r="F20">
+        <f t="shared" si="1"/>
         <v>0.87507199999999996</v>
       </c>
-      <c r="G20" s="2">
-        <f>Sheet1!G20/1000000000</f>
+      <c r="G20">
+        <f t="shared" si="1"/>
         <v>0.97958400000000001</v>
       </c>
-      <c r="H20" s="2">
-        <f>Sheet1!H20/1000000000</f>
+      <c r="H20">
+        <f t="shared" si="1"/>
         <v>0.64649100000000004</v>
       </c>
-      <c r="I20" s="2">
-        <f>Sheet1!I20/1000000000</f>
-        <v>1.423719</v>
-      </c>
-      <c r="J20" s="2">
-        <f>Sheet1!J20/1000000000</f>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1.491976</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
         <v>0.52461000000000002</v>
       </c>
-      <c r="K20" s="2">
-        <f>Sheet1!K20/1000000000</f>
+      <c r="K20">
+        <f t="shared" si="1"/>
         <v>0.52853300000000003</v>
       </c>
-      <c r="L20" s="2">
-        <f>Sheet1!L20/1000000000</f>
+      <c r="L20">
+        <f t="shared" si="1"/>
         <v>3.6449000000000002E-2</v>
       </c>
       <c r="N20" s="2">
         <f>SUM(B20:L20)</f>
-        <v>25.488504999999996</v>
+        <v>25.488505</v>
       </c>
       <c r="P20">
         <v>28.64959786</v>
@@ -12058,48 +11929,48 @@
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
-        <f>Sheet1!B21/1000000000</f>
+      <c r="B21">
+        <f t="shared" si="1"/>
         <v>4.5815099999999997</v>
       </c>
-      <c r="C21" s="2">
-        <f>Sheet1!C21/1000000000</f>
-        <v>6.8038160000000003</v>
-      </c>
-      <c r="D21" s="2">
-        <f>Sheet1!D21/1000000000</f>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>6.8037859999999997</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
         <v>2.8067760000000002</v>
       </c>
-      <c r="E21" s="2">
-        <f>Sheet1!E21/1000000000</f>
+      <c r="E21">
+        <f t="shared" si="1"/>
         <v>1.8466469999999999</v>
       </c>
-      <c r="F21" s="2">
-        <f>Sheet1!F21/1000000000</f>
+      <c r="F21">
+        <f t="shared" si="1"/>
         <v>1.9359109999999999</v>
       </c>
-      <c r="G21" s="2">
-        <f>Sheet1!G21/1000000000</f>
+      <c r="G21">
+        <f t="shared" si="1"/>
         <v>0.66459699999999999</v>
       </c>
-      <c r="H21" s="2">
-        <f>Sheet1!H21/1000000000</f>
+      <c r="H21">
+        <f t="shared" si="1"/>
         <v>4.3150230000000001</v>
       </c>
-      <c r="I21" s="2">
-        <f>Sheet1!I21/1000000000</f>
-        <v>0.64763700000000002</v>
-      </c>
-      <c r="J21" s="2">
-        <f>Sheet1!J21/1000000000</f>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0.64766699999999999</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
         <v>0.434776</v>
       </c>
-      <c r="K21" s="2">
-        <f>Sheet1!K21/1000000000</f>
+      <c r="K21">
+        <f t="shared" si="1"/>
         <v>0.77343600000000001</v>
       </c>
-      <c r="L21" s="2">
-        <f>Sheet1!L21/1000000000</f>
+      <c r="L21">
+        <f t="shared" si="1"/>
         <v>0.447299</v>
       </c>
       <c r="N21" s="2">
@@ -12114,48 +11985,48 @@
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2">
-        <f>Sheet1!B22/1000000000</f>
+      <c r="B22">
+        <f t="shared" si="1"/>
         <v>4.4106335620000001</v>
       </c>
-      <c r="C22" s="2">
-        <f>Sheet1!C22/1000000000</f>
+      <c r="C22">
+        <f t="shared" si="1"/>
         <v>7.1279937569999996</v>
       </c>
-      <c r="D22" s="2">
-        <f>Sheet1!D22/1000000000</f>
+      <c r="D22">
+        <f t="shared" si="1"/>
         <v>1.814876003</v>
       </c>
-      <c r="E22" s="2">
-        <f>Sheet1!E22/1000000000</f>
+      <c r="E22">
+        <f t="shared" si="1"/>
         <v>3.005278256</v>
       </c>
-      <c r="F22" s="2">
-        <f>Sheet1!F22/1000000000</f>
+      <c r="F22">
+        <f t="shared" si="1"/>
         <v>1.5269962479999999</v>
       </c>
-      <c r="G22" s="2">
-        <f>Sheet1!G22/1000000000</f>
+      <c r="G22">
+        <f t="shared" si="1"/>
         <v>0.88076460599999995</v>
       </c>
-      <c r="H22" s="2">
-        <f>Sheet1!H22/1000000000</f>
+      <c r="H22">
+        <f t="shared" si="1"/>
         <v>0.70849552299999996</v>
       </c>
-      <c r="I22" s="2">
-        <f>Sheet1!I22/1000000000</f>
+      <c r="I22">
+        <f t="shared" si="1"/>
         <v>0.90248391299999997</v>
       </c>
-      <c r="J22" s="2">
-        <f>Sheet1!J22/1000000000</f>
+      <c r="J22">
+        <f t="shared" si="1"/>
         <v>0.23668536700000001</v>
       </c>
-      <c r="K22" s="2">
-        <f>Sheet1!K22/1000000000</f>
+      <c r="K22">
+        <f t="shared" si="1"/>
         <v>0.40488037900000001</v>
       </c>
-      <c r="L22" s="2">
-        <f>Sheet1!L22/1000000000</f>
+      <c r="L22">
+        <f t="shared" si="1"/>
         <v>4.9980484999999998E-2</v>
       </c>
       <c r="N22" s="2">
@@ -12170,48 +12041,48 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2">
-        <f>Sheet1!B23/1000000000</f>
+      <c r="B23">
+        <f t="shared" si="1"/>
         <v>3.5941519999999998</v>
       </c>
-      <c r="C23" s="2">
-        <f>Sheet1!C23/1000000000</f>
+      <c r="C23">
+        <f t="shared" si="1"/>
         <v>6.0438510000000001</v>
       </c>
-      <c r="D23" s="2">
-        <f>Sheet1!D23/1000000000</f>
+      <c r="D23">
+        <f t="shared" si="1"/>
         <v>1.514027</v>
       </c>
-      <c r="E23" s="2">
-        <f>Sheet1!E23/1000000000</f>
+      <c r="E23">
+        <f t="shared" si="1"/>
         <v>2.3659110000000001</v>
       </c>
-      <c r="F23" s="2">
-        <f>Sheet1!F23/1000000000</f>
+      <c r="F23">
+        <f t="shared" si="1"/>
         <v>1.534049</v>
       </c>
-      <c r="G23" s="2">
-        <f>Sheet1!G23/1000000000</f>
+      <c r="G23">
+        <f t="shared" si="1"/>
         <v>0.52019000000000004</v>
       </c>
-      <c r="H23" s="2">
-        <f>Sheet1!H23/1000000000</f>
+      <c r="H23">
+        <f t="shared" si="1"/>
         <v>1.3515539999999999</v>
       </c>
-      <c r="I23" s="2">
-        <f>Sheet1!I23/1000000000</f>
+      <c r="I23">
+        <f t="shared" si="1"/>
         <v>1.108673</v>
       </c>
-      <c r="J23" s="2">
-        <f>Sheet1!J23/1000000000</f>
+      <c r="J23">
+        <f t="shared" si="1"/>
         <v>1.0566850000000001</v>
       </c>
-      <c r="K23" s="2">
-        <f>Sheet1!K23/1000000000</f>
+      <c r="K23">
+        <f t="shared" si="1"/>
         <v>0.28725800000000001</v>
       </c>
-      <c r="L23" s="2">
-        <f>Sheet1!L23/1000000000</f>
+      <c r="L23">
+        <f t="shared" si="1"/>
         <v>0.13036300000000001</v>
       </c>
       <c r="N23" s="2">
@@ -12226,48 +12097,48 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
-        <f>Sheet1!B24/1000000000</f>
+      <c r="B24">
+        <f t="shared" si="1"/>
         <v>4.083827586</v>
       </c>
-      <c r="C24" s="2">
-        <f>Sheet1!C24/1000000000</f>
+      <c r="C24">
+        <f t="shared" si="1"/>
         <v>6.4353671139999999</v>
       </c>
-      <c r="D24" s="2">
-        <f>Sheet1!D24/1000000000</f>
+      <c r="D24">
+        <f t="shared" si="1"/>
         <v>1.326843751</v>
       </c>
-      <c r="E24" s="2">
-        <f>Sheet1!E24/1000000000</f>
+      <c r="E24">
+        <f t="shared" si="1"/>
         <v>2.6516632530000002</v>
       </c>
-      <c r="F24" s="2">
-        <f>Sheet1!F24/1000000000</f>
+      <c r="F24">
+        <f t="shared" si="1"/>
         <v>1.333999897</v>
       </c>
-      <c r="G24" s="2">
-        <f>Sheet1!G24/1000000000</f>
+      <c r="G24">
+        <f t="shared" si="1"/>
         <v>0.39881276100000002</v>
       </c>
-      <c r="H24" s="2">
-        <f>Sheet1!H24/1000000000</f>
+      <c r="H24">
+        <f t="shared" si="1"/>
         <v>0.74436394400000006</v>
       </c>
-      <c r="I24" s="2">
-        <f>Sheet1!I24/1000000000</f>
+      <c r="I24">
+        <f t="shared" si="1"/>
         <v>0.79915175500000002</v>
       </c>
-      <c r="J24" s="2">
-        <f>Sheet1!J24/1000000000</f>
+      <c r="J24">
+        <f t="shared" si="1"/>
         <v>0.471723591</v>
       </c>
-      <c r="K24" s="2">
-        <f>Sheet1!K24/1000000000</f>
+      <c r="K24">
+        <f t="shared" si="1"/>
         <v>1.1197852500000001</v>
       </c>
-      <c r="L24" s="2">
-        <f>Sheet1!L24/1000000000</f>
+      <c r="L24">
+        <f t="shared" si="1"/>
         <v>0.13243174199999999</v>
       </c>
       <c r="N24" s="2">
@@ -12282,48 +12153,48 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="2">
-        <f>Sheet1!B25/1000000000</f>
+      <c r="B25">
+        <f t="shared" si="1"/>
         <v>4.7151199999999998</v>
       </c>
-      <c r="C25" s="2">
-        <f>Sheet1!C25/1000000000</f>
+      <c r="C25">
+        <f t="shared" si="1"/>
         <v>2.6900400000000002</v>
       </c>
-      <c r="D25" s="2">
-        <f>Sheet1!D25/1000000000</f>
+      <c r="D25">
+        <f t="shared" si="1"/>
         <v>0.56881899999999996</v>
       </c>
-      <c r="E25" s="2">
-        <f>Sheet1!E25/1000000000</f>
+      <c r="E25">
+        <f t="shared" si="1"/>
         <v>1.3998459999999999</v>
       </c>
-      <c r="F25" s="2">
-        <f>Sheet1!F25/1000000000</f>
+      <c r="F25">
+        <f t="shared" si="1"/>
         <v>0.88019000000000003</v>
       </c>
-      <c r="G25" s="2">
-        <f>Sheet1!G25/1000000000</f>
+      <c r="G25">
+        <f t="shared" si="1"/>
         <v>0.23449700000000001</v>
       </c>
-      <c r="H25" s="2">
-        <f>Sheet1!H25/1000000000</f>
+      <c r="H25">
+        <f t="shared" si="1"/>
         <v>2.8893119999999999</v>
       </c>
-      <c r="I25" s="2">
-        <f>Sheet1!I25/1000000000</f>
+      <c r="I25">
+        <f t="shared" si="1"/>
         <v>0.40743200000000002</v>
       </c>
-      <c r="J25" s="2">
-        <f>Sheet1!J25/1000000000</f>
+      <c r="J25">
+        <f t="shared" ref="C25:L30" si="2">J62/1000000000</f>
         <v>0.180894</v>
       </c>
-      <c r="K25" s="2">
-        <f>Sheet1!K25/1000000000</f>
+      <c r="K25">
+        <f t="shared" si="2"/>
         <v>0.37474299999999999</v>
       </c>
-      <c r="L25" s="2">
-        <f>Sheet1!L25/1000000000</f>
+      <c r="L25">
+        <f t="shared" si="2"/>
         <v>0.14443</v>
       </c>
       <c r="N25" s="2">
@@ -12338,48 +12209,48 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
-        <f>Sheet1!B26/1000000000</f>
+      <c r="B26">
+        <f t="shared" si="1"/>
         <v>3.1039599999999998</v>
       </c>
-      <c r="C26" s="2">
-        <f>Sheet1!C26/1000000000</f>
+      <c r="C26">
+        <f t="shared" si="2"/>
         <v>1.175495</v>
       </c>
-      <c r="D26" s="2">
-        <f>Sheet1!D26/1000000000</f>
+      <c r="D26">
+        <f t="shared" si="2"/>
         <v>0.154359</v>
       </c>
-      <c r="E26" s="2">
-        <f>Sheet1!E26/1000000000</f>
+      <c r="E26">
+        <f t="shared" si="2"/>
         <v>2.07016</v>
       </c>
-      <c r="F26" s="2">
-        <f>Sheet1!F26/1000000000</f>
+      <c r="F26">
+        <f t="shared" si="2"/>
         <v>0.62004599999999999</v>
       </c>
-      <c r="G26" s="2">
-        <f>Sheet1!G26/1000000000</f>
+      <c r="G26">
+        <f t="shared" si="2"/>
         <v>0.26418399999999997</v>
       </c>
-      <c r="H26" s="2">
-        <f>Sheet1!H26/1000000000</f>
+      <c r="H26">
+        <f t="shared" si="2"/>
         <v>0.52360700000000004</v>
       </c>
-      <c r="I26" s="2">
-        <f>Sheet1!I26/1000000000</f>
+      <c r="I26">
+        <f t="shared" si="2"/>
         <v>0.18357399999999999</v>
       </c>
-      <c r="J26" s="2">
-        <f>Sheet1!J26/1000000000</f>
+      <c r="J26">
+        <f t="shared" si="2"/>
         <v>0.29882700000000001</v>
       </c>
-      <c r="K26" s="2">
-        <f>Sheet1!K26/1000000000</f>
+      <c r="K26">
+        <f t="shared" si="2"/>
         <v>4.3167999999999998E-2</v>
       </c>
-      <c r="L26" s="2">
-        <f>Sheet1!L26/1000000000</f>
+      <c r="L26">
+        <f t="shared" si="2"/>
         <v>6.8358000000000002E-2</v>
       </c>
       <c r="N26" s="2">
@@ -12394,48 +12265,48 @@
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="2">
-        <f>Sheet1!B27/1000000000</f>
+      <c r="B27">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C27" s="2">
-        <f>Sheet1!C27/1000000000</f>
+      <c r="C27">
+        <f t="shared" si="2"/>
         <v>2.300026452</v>
       </c>
-      <c r="D27" s="2">
-        <f>Sheet1!D27/1000000000</f>
+      <c r="D27">
+        <f t="shared" si="2"/>
         <v>2.4901089999999999E-3</v>
       </c>
-      <c r="E27" s="2">
-        <f>Sheet1!E27/1000000000</f>
+      <c r="E27">
+        <f t="shared" si="2"/>
         <v>2.1302592910000002</v>
       </c>
-      <c r="F27" s="2">
-        <f>Sheet1!F27/1000000000</f>
+      <c r="F27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="2">
-        <f>Sheet1!G27/1000000000</f>
+      <c r="G27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H27" s="2">
-        <f>Sheet1!H27/1000000000</f>
+      <c r="H27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I27" s="2">
-        <f>Sheet1!I27/1000000000</f>
+      <c r="I27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="2">
-        <f>Sheet1!J27/1000000000</f>
+      <c r="J27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="2">
-        <f>Sheet1!K27/1000000000</f>
+      <c r="K27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L27" s="2">
-        <f>Sheet1!L27/1000000000</f>
+      <c r="L27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N27" s="2">
@@ -12450,48 +12321,48 @@
       <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="2">
-        <f>Sheet1!B28/1000000000</f>
+      <c r="B28">
+        <f t="shared" si="1"/>
         <v>0.28207700000000002</v>
       </c>
-      <c r="C28" s="2">
-        <f>Sheet1!C28/1000000000</f>
+      <c r="C28">
+        <f t="shared" si="2"/>
         <v>1.390298</v>
       </c>
-      <c r="D28" s="2">
-        <f>Sheet1!D28/1000000000</f>
+      <c r="D28">
+        <f t="shared" si="2"/>
         <v>5.6440999999999998E-2</v>
       </c>
-      <c r="E28" s="2">
-        <f>Sheet1!E28/1000000000</f>
+      <c r="E28">
+        <f t="shared" si="2"/>
         <v>0.21479400000000001</v>
       </c>
-      <c r="F28" s="2">
-        <f>Sheet1!F28/1000000000</f>
+      <c r="F28">
+        <f t="shared" si="2"/>
         <v>0.43482100000000001</v>
       </c>
-      <c r="G28" s="2">
-        <f>Sheet1!G28/1000000000</f>
+      <c r="G28">
+        <f t="shared" si="2"/>
         <v>7.2174000000000002E-2</v>
       </c>
-      <c r="H28" s="2">
-        <f>Sheet1!H28/1000000000</f>
+      <c r="H28">
+        <f t="shared" si="2"/>
         <v>1.254793</v>
       </c>
-      <c r="I28" s="2">
-        <f>Sheet1!I28/1000000000</f>
+      <c r="I28">
+        <f t="shared" si="2"/>
         <v>0.114756</v>
       </c>
-      <c r="J28" s="2">
-        <f>Sheet1!J28/1000000000</f>
+      <c r="J28">
+        <f t="shared" si="2"/>
         <v>0.185143</v>
       </c>
-      <c r="K28" s="2">
-        <f>Sheet1!K28/1000000000</f>
+      <c r="K28">
+        <f t="shared" si="2"/>
         <v>3.3397000000000003E-2</v>
       </c>
-      <c r="L28" s="2">
-        <f>Sheet1!L28/1000000000</f>
+      <c r="L28">
+        <f t="shared" si="2"/>
         <v>2.1454999999999998E-2</v>
       </c>
       <c r="N28" s="2">
@@ -12506,48 +12377,48 @@
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <f>Sheet1!B29/1000000000</f>
+      <c r="B29">
+        <f t="shared" si="1"/>
         <v>0.69829112699999996</v>
       </c>
-      <c r="C29" s="2">
-        <f>Sheet1!C29/1000000000</f>
-        <v>0.96065172200000004</v>
-      </c>
-      <c r="D29" s="2">
-        <f>Sheet1!D29/1000000000</f>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>0.95907763099999999</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
         <v>6.9578712000000001E-2</v>
       </c>
-      <c r="E29" s="2">
-        <f>Sheet1!E29/1000000000</f>
+      <c r="E29">
+        <f t="shared" si="2"/>
         <v>0.15808394200000001</v>
       </c>
-      <c r="F29" s="2">
-        <f>Sheet1!F29/1000000000</f>
+      <c r="F29">
+        <f t="shared" si="2"/>
         <v>5.5944327000000002E-2</v>
       </c>
-      <c r="G29" s="2">
-        <f>Sheet1!G29/1000000000</f>
+      <c r="G29">
+        <f t="shared" si="2"/>
         <v>4.2455119999999999E-2</v>
       </c>
-      <c r="H29" s="2">
-        <f>Sheet1!H29/1000000000</f>
+      <c r="H29">
+        <f t="shared" si="2"/>
         <v>3.3352799000000002E-2</v>
       </c>
-      <c r="I29" s="2">
-        <f>Sheet1!I29/1000000000</f>
-        <v>7.7454333E-2</v>
-      </c>
-      <c r="J29" s="2">
-        <f>Sheet1!J29/1000000000</f>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>7.9028424E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
         <v>3.0020062E-2</v>
       </c>
-      <c r="K29" s="2">
-        <f>Sheet1!K29/1000000000</f>
+      <c r="K29">
+        <f t="shared" si="2"/>
         <v>0.178535689</v>
       </c>
-      <c r="L29" s="2">
-        <f>Sheet1!L29/1000000000</f>
+      <c r="L29">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N29" s="2">
@@ -12562,48 +12433,48 @@
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="2">
-        <f>Sheet1!B30/1000000000</f>
+      <c r="B30">
+        <f t="shared" si="1"/>
         <v>4.8359715999999997E-2</v>
       </c>
-      <c r="C30" s="2">
-        <f>Sheet1!C30/1000000000</f>
+      <c r="C30">
+        <f t="shared" si="2"/>
         <v>0.53083307000000002</v>
       </c>
-      <c r="D30" s="2">
-        <f>Sheet1!D30/1000000000</f>
+      <c r="D30">
+        <f t="shared" si="2"/>
         <v>4.2826415999999999E-2</v>
       </c>
-      <c r="E30" s="2">
-        <f>Sheet1!E30/1000000000</f>
+      <c r="E30">
+        <f t="shared" si="2"/>
         <v>0.15986489000000001</v>
       </c>
-      <c r="F30" s="2">
-        <f>Sheet1!F30/1000000000</f>
+      <c r="F30">
+        <f t="shared" si="2"/>
         <v>9.1566682999999996E-2</v>
       </c>
-      <c r="G30" s="2">
-        <f>Sheet1!G30/1000000000</f>
+      <c r="G30">
+        <f t="shared" si="2"/>
         <v>2.8576600000000001E-2</v>
       </c>
-      <c r="H30" s="2">
-        <f>Sheet1!H30/1000000000</f>
+      <c r="H30">
+        <f t="shared" si="2"/>
         <v>6.5470184000000001E-2</v>
       </c>
-      <c r="I30" s="2">
-        <f>Sheet1!I30/1000000000</f>
+      <c r="I30">
+        <f t="shared" si="2"/>
         <v>0.377838972</v>
       </c>
-      <c r="J30" s="2">
-        <f>Sheet1!J30/1000000000</f>
+      <c r="J30">
+        <f t="shared" si="2"/>
         <v>5.3289852999999998E-2</v>
       </c>
-      <c r="K30" s="2">
-        <f>Sheet1!K30/1000000000</f>
+      <c r="K30">
+        <f t="shared" si="2"/>
         <v>0.104212076</v>
       </c>
-      <c r="L30" s="2">
-        <f>Sheet1!L30/1000000000</f>
+      <c r="L30">
+        <f t="shared" si="2"/>
         <v>3.9427569999999999E-3</v>
       </c>
       <c r="N30" s="2">
@@ -12618,48 +12489,48 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="2">
-        <f>Sheet1!B31/1000000000</f>
+      <c r="B31">
+        <f>B68/1000000000</f>
         <v>1.282E-2</v>
       </c>
-      <c r="C31" s="2">
-        <f>Sheet1!C31/1000000000</f>
+      <c r="C31">
+        <f t="shared" ref="C31:L31" si="3">C68/1000000000</f>
         <v>0.355431</v>
       </c>
-      <c r="D31" s="2">
-        <f>Sheet1!D31/1000000000</f>
+      <c r="D31">
+        <f t="shared" si="3"/>
         <v>4.6759000000000002E-2</v>
       </c>
-      <c r="E31" s="2">
-        <f>Sheet1!E31/1000000000</f>
+      <c r="E31">
+        <f t="shared" si="3"/>
         <v>0.121075</v>
       </c>
-      <c r="F31" s="2">
-        <f>Sheet1!F31/1000000000</f>
+      <c r="F31">
+        <f t="shared" si="3"/>
         <v>2.4369999999999999E-2</v>
       </c>
-      <c r="G31" s="2">
-        <f>Sheet1!G31/1000000000</f>
+      <c r="G31">
+        <f t="shared" si="3"/>
         <v>3.6110000000000001E-3</v>
       </c>
-      <c r="H31" s="2">
-        <f>Sheet1!H31/1000000000</f>
+      <c r="H31">
+        <f t="shared" si="3"/>
         <v>2.7265000000000001E-2</v>
       </c>
-      <c r="I31" s="2">
-        <f>Sheet1!I31/1000000000</f>
+      <c r="I31">
+        <f t="shared" si="3"/>
         <v>3.8746000000000003E-2</v>
       </c>
-      <c r="J31" s="2">
-        <f>Sheet1!J31/1000000000</f>
+      <c r="J31">
+        <f t="shared" si="3"/>
         <v>3.9249999999999997E-3</v>
       </c>
-      <c r="K31" s="2">
-        <f>Sheet1!K31/1000000000</f>
+      <c r="K31">
+        <f t="shared" si="3"/>
         <v>9.6199999999999996E-4</v>
       </c>
-      <c r="L31" s="2">
-        <f>Sheet1!L31/1000000000</f>
+      <c r="L31">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N31" s="2">
@@ -12675,505 +12546,1555 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
+      <c r="B39">
+        <v>465209961000</v>
+      </c>
+      <c r="C39">
+        <v>188106942000</v>
+      </c>
+      <c r="D39">
+        <v>101878935000</v>
+      </c>
+      <c r="E39">
+        <v>136385593000</v>
+      </c>
+      <c r="F39">
+        <v>59978530000</v>
+      </c>
+      <c r="G39">
+        <v>17686194000</v>
+      </c>
+      <c r="H39">
+        <v>13036767000</v>
+      </c>
+      <c r="I39">
+        <v>16134867000</v>
+      </c>
+      <c r="J39">
+        <v>12016059000</v>
+      </c>
+      <c r="K39">
+        <v>6604912000</v>
+      </c>
+      <c r="L39">
+        <v>17588492000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>252528897000</v>
+      </c>
+      <c r="C40">
+        <v>165988632000</v>
+      </c>
+      <c r="D40">
+        <v>62081342000</v>
+      </c>
+      <c r="E40">
+        <v>165717055000</v>
+      </c>
+      <c r="F40">
+        <v>72113157000</v>
+      </c>
+      <c r="G40">
+        <v>22986380000</v>
+      </c>
+      <c r="H40">
+        <v>36070497000</v>
+      </c>
+      <c r="I40">
+        <v>24954267000</v>
+      </c>
+      <c r="J40">
+        <v>10731368000</v>
+      </c>
+      <c r="K40">
+        <v>22223594000</v>
+      </c>
+      <c r="L40">
+        <v>9886082000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>144132118000</v>
+      </c>
+      <c r="C41">
+        <v>177675051000</v>
+      </c>
+      <c r="D41">
+        <v>67488351000</v>
+      </c>
+      <c r="E41">
+        <v>64153248000</v>
+      </c>
+      <c r="F41">
+        <v>39530725000</v>
+      </c>
+      <c r="G41">
+        <v>11385241000</v>
+      </c>
+      <c r="H41">
+        <v>14565042000</v>
+      </c>
+      <c r="I41">
+        <v>6042994000</v>
+      </c>
+      <c r="J41">
+        <v>8879130000</v>
+      </c>
+      <c r="K41">
+        <v>3999646000</v>
+      </c>
+      <c r="L41">
+        <v>5584648000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>107958171000</v>
+      </c>
+      <c r="C42">
+        <v>168575756000</v>
+      </c>
+      <c r="D42">
+        <v>46041911000</v>
+      </c>
+      <c r="E42">
+        <v>59233503000</v>
+      </c>
+      <c r="F42">
+        <v>30811144000</v>
+      </c>
+      <c r="G42">
+        <v>12969948000</v>
+      </c>
+      <c r="H42">
+        <v>14555596000</v>
+      </c>
+      <c r="I42">
+        <v>16300823000</v>
+      </c>
+      <c r="J42">
+        <v>6081492000</v>
+      </c>
+      <c r="K42">
+        <v>7139391000</v>
+      </c>
+      <c r="L42">
+        <v>3437605000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>55597461021</v>
+      </c>
+      <c r="C43">
+        <v>70986749671</v>
+      </c>
+      <c r="D43">
+        <v>17236617350</v>
+      </c>
+      <c r="E43">
+        <v>26527168214</v>
+      </c>
+      <c r="F43">
+        <v>22103689784</v>
+      </c>
+      <c r="G43">
+        <v>5064099075</v>
+      </c>
+      <c r="H43">
+        <v>10537556804</v>
+      </c>
+      <c r="I43">
+        <v>8494362395</v>
+      </c>
+      <c r="J43">
+        <v>3044248788</v>
+      </c>
+      <c r="K43">
+        <v>2287618010</v>
+      </c>
+      <c r="L43">
+        <v>922121311</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>77425081744</v>
+      </c>
+      <c r="C44">
+        <v>17404422514</v>
+      </c>
+      <c r="D44">
+        <v>7484392605</v>
+      </c>
+      <c r="E44">
+        <v>16839212092</v>
+      </c>
+      <c r="F44">
+        <v>10250497081</v>
+      </c>
+      <c r="G44">
+        <v>2513823820</v>
+      </c>
+      <c r="H44">
+        <v>3450197505</v>
+      </c>
+      <c r="I44">
+        <v>3474509374</v>
+      </c>
+      <c r="J44">
+        <v>1215752790</v>
+      </c>
+      <c r="K44">
+        <v>1645750206</v>
+      </c>
+      <c r="L44">
+        <v>1399382354</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>15035107000</v>
+      </c>
+      <c r="C45">
+        <v>43252457000</v>
+      </c>
+      <c r="D45">
+        <v>32582864000</v>
+      </c>
+      <c r="E45">
+        <v>13375372000</v>
+      </c>
+      <c r="F45">
+        <v>6699795000</v>
+      </c>
+      <c r="G45">
+        <v>2069637000</v>
+      </c>
+      <c r="H45">
+        <v>2815777000</v>
+      </c>
+      <c r="I45">
+        <v>4582992000</v>
+      </c>
+      <c r="J45">
+        <v>1341005000</v>
+      </c>
+      <c r="K45">
+        <v>2116685000</v>
+      </c>
+      <c r="L45">
+        <v>497538000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>33965474000</v>
+      </c>
+      <c r="C46">
+        <v>39206441000</v>
+      </c>
+      <c r="D46">
+        <v>17373110000</v>
+      </c>
+      <c r="E46">
+        <v>11180090000</v>
+      </c>
+      <c r="F46">
+        <v>5652526000</v>
+      </c>
+      <c r="G46">
+        <v>2171518000</v>
+      </c>
+      <c r="H46">
+        <v>2851414000</v>
+      </c>
+      <c r="I46">
+        <v>2863670000</v>
+      </c>
+      <c r="J46">
+        <v>2115471000</v>
+      </c>
+      <c r="K46">
+        <v>507445000</v>
+      </c>
+      <c r="L46">
+        <v>900713000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>35321808000</v>
+      </c>
+      <c r="C47">
+        <v>22240280000</v>
+      </c>
+      <c r="D47">
+        <v>4049822000</v>
+      </c>
+      <c r="E47">
+        <v>19521476000</v>
+      </c>
+      <c r="F47">
+        <v>7779738000</v>
+      </c>
+      <c r="G47">
+        <v>2973229000</v>
+      </c>
+      <c r="H47">
+        <v>3668124000</v>
+      </c>
+      <c r="I47">
+        <v>3597830000</v>
+      </c>
+      <c r="J47">
+        <v>1880680000</v>
+      </c>
+      <c r="K47">
+        <v>1271552000</v>
+      </c>
+      <c r="L47">
+        <v>1213437000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>54572612595</v>
+      </c>
+      <c r="C48">
+        <v>15787066917</v>
+      </c>
+      <c r="D48">
+        <v>9503222166</v>
+      </c>
+      <c r="E48">
+        <v>6743544477</v>
+      </c>
+      <c r="F48">
+        <v>4485032655</v>
+      </c>
+      <c r="G48">
+        <v>509981479</v>
+      </c>
+      <c r="H48">
+        <v>873261226</v>
+      </c>
+      <c r="I48">
+        <v>1442600986</v>
+      </c>
+      <c r="J48">
+        <v>904149473</v>
+      </c>
+      <c r="K48">
+        <v>426287283</v>
+      </c>
+      <c r="L48">
+        <v>855831607</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>27535245000</v>
+      </c>
+      <c r="C49">
+        <v>13157784000</v>
+      </c>
+      <c r="D49">
+        <v>9442604000</v>
+      </c>
+      <c r="E49">
+        <v>18517253000</v>
+      </c>
+      <c r="F49">
+        <v>4233843000</v>
+      </c>
+      <c r="G49">
+        <v>10840361000</v>
+      </c>
+      <c r="H49">
+        <v>4872720000</v>
+      </c>
+      <c r="I49">
+        <v>1905439000</v>
+      </c>
+      <c r="J49">
+        <v>889733000</v>
+      </c>
+      <c r="K49">
+        <v>391376000</v>
+      </c>
+      <c r="L49">
+        <v>593711000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>26548633714</v>
+      </c>
+      <c r="C50">
+        <v>21796807628</v>
+      </c>
+      <c r="D50">
+        <v>21346001818</v>
+      </c>
+      <c r="E50">
+        <v>7943148476</v>
+      </c>
+      <c r="F50">
+        <v>3174677962</v>
+      </c>
+      <c r="G50">
+        <v>706173749</v>
+      </c>
+      <c r="H50">
+        <v>3351096777</v>
+      </c>
+      <c r="I50">
+        <v>2519620450</v>
+      </c>
+      <c r="J50">
+        <v>401307224</v>
+      </c>
+      <c r="K50">
+        <v>884880217</v>
+      </c>
+      <c r="L50">
+        <v>1535635431</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>34734794933</v>
+      </c>
+      <c r="C51">
+        <v>10770965256</v>
+      </c>
+      <c r="D51">
+        <v>17380288359</v>
+      </c>
+      <c r="E51">
+        <v>7002488939</v>
+      </c>
+      <c r="F51">
+        <v>2678066349</v>
+      </c>
+      <c r="G51">
+        <v>6784207321</v>
+      </c>
+      <c r="H51">
+        <v>4617179060</v>
+      </c>
+      <c r="I51">
+        <v>1572787661</v>
+      </c>
+      <c r="J51">
+        <v>483156774</v>
+      </c>
+      <c r="K51">
+        <v>206883124</v>
+      </c>
+      <c r="L51">
+        <v>563392949</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>20873930000</v>
+      </c>
+      <c r="C52">
+        <v>15483574000</v>
+      </c>
+      <c r="D52">
+        <v>5251525000</v>
+      </c>
+      <c r="E52">
+        <v>6648249000</v>
+      </c>
+      <c r="F52">
+        <v>5834014000</v>
+      </c>
+      <c r="G52">
+        <v>3501303000</v>
+      </c>
+      <c r="H52">
+        <v>3436392000</v>
+      </c>
+      <c r="I52">
+        <v>3683442000</v>
+      </c>
+      <c r="J52">
+        <v>903133000</v>
+      </c>
+      <c r="K52">
+        <v>3770941000</v>
+      </c>
+      <c r="L52">
+        <v>604002000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>7867053000</v>
+      </c>
+      <c r="C53">
+        <v>17420989000</v>
+      </c>
+      <c r="D53">
+        <v>30146529000</v>
+      </c>
+      <c r="E53">
+        <v>2536680000</v>
+      </c>
+      <c r="F53">
+        <v>986845000</v>
+      </c>
+      <c r="G53">
+        <v>187555000</v>
+      </c>
+      <c r="H53">
+        <v>1393632000</v>
+      </c>
+      <c r="I53">
+        <v>1819567000</v>
+      </c>
+      <c r="J53">
+        <v>446956000</v>
+      </c>
+      <c r="K53">
+        <v>218414000</v>
+      </c>
+      <c r="L53">
+        <v>6180350000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>20314400699</v>
+      </c>
+      <c r="C54">
+        <v>17372536438</v>
+      </c>
+      <c r="D54">
+        <v>5265045793</v>
+      </c>
+      <c r="E54">
+        <v>6642183069</v>
+      </c>
+      <c r="F54">
+        <v>4156728327</v>
+      </c>
+      <c r="G54">
+        <v>751281054</v>
+      </c>
+      <c r="H54">
+        <v>2901148647</v>
+      </c>
+      <c r="I54">
+        <v>1838756948</v>
+      </c>
+      <c r="J54">
+        <v>713402877</v>
+      </c>
+      <c r="K54">
+        <v>2031769469</v>
+      </c>
+      <c r="L54">
+        <v>203235491</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>30567020000</v>
+      </c>
+      <c r="C55">
+        <v>4119225000</v>
+      </c>
+      <c r="D55">
+        <v>978000000</v>
+      </c>
+      <c r="E55">
+        <v>6713778000</v>
+      </c>
+      <c r="F55">
+        <v>2690748000</v>
+      </c>
+      <c r="G55">
+        <v>378027000</v>
+      </c>
+      <c r="H55">
+        <v>826425000</v>
+      </c>
+      <c r="I55">
+        <v>1160611000</v>
+      </c>
+      <c r="J55">
+        <v>256792000</v>
+      </c>
+      <c r="K55">
+        <v>198018000</v>
+      </c>
+      <c r="L55">
+        <v>166019000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>6523044516</v>
+      </c>
+      <c r="C56">
+        <v>24866499983</v>
+      </c>
+      <c r="D56">
+        <v>337213168</v>
+      </c>
+      <c r="E56">
+        <v>2675729379</v>
+      </c>
+      <c r="F56">
+        <v>637734140</v>
+      </c>
+      <c r="G56">
+        <v>292032508</v>
+      </c>
+      <c r="H56">
+        <v>697688539</v>
+      </c>
+      <c r="I56">
+        <v>1559582751</v>
+      </c>
+      <c r="J56">
+        <v>197157325</v>
+      </c>
+      <c r="K56">
+        <v>14849625</v>
+      </c>
+      <c r="L56">
+        <v>158545795</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1949746000</v>
+      </c>
+      <c r="C57">
+        <v>11575487000</v>
+      </c>
+      <c r="D57">
+        <v>3814163000</v>
+      </c>
+      <c r="E57">
+        <v>3066394000</v>
+      </c>
+      <c r="F57">
+        <v>875072000</v>
+      </c>
+      <c r="G57">
+        <v>979584000</v>
+      </c>
+      <c r="H57">
+        <v>646491000</v>
+      </c>
+      <c r="I57">
+        <v>1491976000</v>
+      </c>
+      <c r="J57">
+        <v>524610000</v>
+      </c>
+      <c r="K57">
+        <v>528533000</v>
+      </c>
+      <c r="L57">
+        <v>36449000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>4581510000</v>
+      </c>
+      <c r="C58">
+        <v>6803786000</v>
+      </c>
+      <c r="D58">
+        <v>2806776000</v>
+      </c>
+      <c r="E58">
+        <v>1846647000</v>
+      </c>
+      <c r="F58">
+        <v>1935911000</v>
+      </c>
+      <c r="G58">
+        <v>664597000</v>
+      </c>
+      <c r="H58">
+        <v>4315023000</v>
+      </c>
+      <c r="I58">
+        <v>647667000</v>
+      </c>
+      <c r="J58">
+        <v>434776000</v>
+      </c>
+      <c r="K58">
+        <v>773436000</v>
+      </c>
+      <c r="L58">
+        <v>447299000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>4410633562</v>
+      </c>
+      <c r="C59">
+        <v>7127993757</v>
+      </c>
+      <c r="D59">
+        <v>1814876003</v>
+      </c>
+      <c r="E59">
+        <v>3005278256</v>
+      </c>
+      <c r="F59">
+        <v>1526996248</v>
+      </c>
+      <c r="G59">
+        <v>880764606</v>
+      </c>
+      <c r="H59">
+        <v>708495523</v>
+      </c>
+      <c r="I59">
+        <v>902483913</v>
+      </c>
+      <c r="J59">
+        <v>236685367</v>
+      </c>
+      <c r="K59">
+        <v>404880379</v>
+      </c>
+      <c r="L59">
+        <v>49980485</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>3594152000</v>
+      </c>
+      <c r="C60">
+        <v>6043851000</v>
+      </c>
+      <c r="D60">
+        <v>1514027000</v>
+      </c>
+      <c r="E60">
+        <v>2365911000</v>
+      </c>
+      <c r="F60">
+        <v>1534049000</v>
+      </c>
+      <c r="G60">
+        <v>520190000</v>
+      </c>
+      <c r="H60">
+        <v>1351554000</v>
+      </c>
+      <c r="I60">
+        <v>1108673000</v>
+      </c>
+      <c r="J60">
+        <v>1056685000</v>
+      </c>
+      <c r="K60">
+        <v>287258000</v>
+      </c>
+      <c r="L60">
+        <v>130363000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>4083827586</v>
+      </c>
+      <c r="C61">
+        <v>6435367114</v>
+      </c>
+      <c r="D61">
+        <v>1326843751</v>
+      </c>
+      <c r="E61">
+        <v>2651663253</v>
+      </c>
+      <c r="F61">
+        <v>1333999897</v>
+      </c>
+      <c r="G61">
+        <v>398812761</v>
+      </c>
+      <c r="H61">
+        <v>744363944</v>
+      </c>
+      <c r="I61">
+        <v>799151755</v>
+      </c>
+      <c r="J61">
+        <v>471723591</v>
+      </c>
+      <c r="K61">
+        <v>1119785250</v>
+      </c>
+      <c r="L61">
+        <v>132431742</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>4715120000</v>
+      </c>
+      <c r="C62">
+        <v>2690040000</v>
+      </c>
+      <c r="D62">
+        <v>568819000</v>
+      </c>
+      <c r="E62">
+        <v>1399846000</v>
+      </c>
+      <c r="F62">
+        <v>880190000</v>
+      </c>
+      <c r="G62">
+        <v>234497000</v>
+      </c>
+      <c r="H62">
+        <v>2889312000</v>
+      </c>
+      <c r="I62">
+        <v>407432000</v>
+      </c>
+      <c r="J62">
+        <v>180894000</v>
+      </c>
+      <c r="K62">
+        <v>374743000</v>
+      </c>
+      <c r="L62">
+        <v>144430000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>3103960000</v>
+      </c>
+      <c r="C63">
+        <v>1175495000</v>
+      </c>
+      <c r="D63">
+        <v>154359000</v>
+      </c>
+      <c r="E63">
+        <v>2070160000</v>
+      </c>
+      <c r="F63">
+        <v>620046000</v>
+      </c>
+      <c r="G63">
+        <v>264184000</v>
+      </c>
+      <c r="H63">
+        <v>523607000</v>
+      </c>
+      <c r="I63">
+        <v>183574000</v>
+      </c>
+      <c r="J63">
+        <v>298827000</v>
+      </c>
+      <c r="K63">
+        <v>43168000</v>
+      </c>
+      <c r="L63">
+        <v>68358000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>2300026452</v>
+      </c>
+      <c r="D64">
+        <v>2490109</v>
+      </c>
+      <c r="E64">
+        <v>2130259291</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>282077000</v>
+      </c>
+      <c r="C65">
+        <v>1390298000</v>
+      </c>
+      <c r="D65">
+        <v>56441000</v>
+      </c>
+      <c r="E65">
+        <v>214794000</v>
+      </c>
+      <c r="F65">
+        <v>434821000</v>
+      </c>
+      <c r="G65">
+        <v>72174000</v>
+      </c>
+      <c r="H65">
+        <v>1254793000</v>
+      </c>
+      <c r="I65">
+        <v>114756000</v>
+      </c>
+      <c r="J65">
+        <v>185143000</v>
+      </c>
+      <c r="K65">
+        <v>33397000</v>
+      </c>
+      <c r="L65">
+        <v>21455000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>698291127</v>
+      </c>
+      <c r="C66">
+        <v>959077631</v>
+      </c>
+      <c r="D66">
+        <v>69578712</v>
+      </c>
+      <c r="E66">
+        <v>158083942</v>
+      </c>
+      <c r="F66">
+        <v>55944327</v>
+      </c>
+      <c r="G66">
+        <v>42455120</v>
+      </c>
+      <c r="H66">
+        <v>33352799</v>
+      </c>
+      <c r="I66">
+        <v>79028424</v>
+      </c>
+      <c r="J66">
+        <v>30020062</v>
+      </c>
+      <c r="K66">
+        <v>178535689</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>48359716</v>
+      </c>
+      <c r="C67">
+        <v>530833070</v>
+      </c>
+      <c r="D67">
+        <v>42826416</v>
+      </c>
+      <c r="E67">
+        <v>159864890</v>
+      </c>
+      <c r="F67">
+        <v>91566683</v>
+      </c>
+      <c r="G67">
+        <v>28576600</v>
+      </c>
+      <c r="H67">
+        <v>65470184</v>
+      </c>
+      <c r="I67">
+        <v>377838972</v>
+      </c>
+      <c r="J67">
+        <v>53289853</v>
+      </c>
+      <c r="K67">
+        <v>104212076</v>
+      </c>
+      <c r="L67">
+        <v>3942757</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>12820000</v>
+      </c>
+      <c r="C68">
+        <v>355431000</v>
+      </c>
+      <c r="D68">
+        <v>46759000</v>
+      </c>
+      <c r="E68">
+        <v>121075000</v>
+      </c>
+      <c r="F68">
+        <v>24370000</v>
+      </c>
+      <c r="G68">
+        <v>3611000</v>
+      </c>
+      <c r="H68">
+        <v>27265000</v>
+      </c>
+      <c r="I68">
+        <v>38746000</v>
+      </c>
+      <c r="J68">
+        <v>3925000</v>
+      </c>
+      <c r="K68">
+        <v>962000</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B74" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="6">
-        <v>0.99024923300470147</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="s">
+      <c r="C74" s="6">
+        <v>0.99013338297788389</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="6">
-        <v>0.9805935434663996</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
+      <c r="C75" s="6">
+        <v>0.98036411608722884</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B76" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="6">
-        <v>0.91774804002766264</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
+      <c r="C76" s="6">
+        <v>0.91739786139629664</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B77" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="6">
-        <v>25.805349227974641</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="7" t="s">
+      <c r="C77" s="6">
+        <v>25.957439283229778</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C78" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
+    <row r="80" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E81" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F81" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G81" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="6" t="s">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C82" s="6">
         <v>11</v>
       </c>
-      <c r="D48" s="6">
-        <v>639316.43363323726</v>
-      </c>
-      <c r="E48" s="6">
-        <v>58119.675784839754</v>
-      </c>
-      <c r="F48" s="6">
-        <v>87.277782074056702</v>
-      </c>
-      <c r="G48" s="6">
-        <v>2.7314715977791756E-13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="6" t="s">
+      <c r="D82" s="6">
+        <v>639166.85413130547</v>
+      </c>
+      <c r="E82" s="6">
+        <v>58106.077648300496</v>
+      </c>
+      <c r="F82" s="6">
+        <v>86.237839255759241</v>
+      </c>
+      <c r="G82" s="6">
+        <v>3.0338388208718623E-13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C83" s="6">
         <v>19</v>
       </c>
-      <c r="D49" s="6">
-        <v>12652.404926776895</v>
-      </c>
-      <c r="E49" s="6">
-        <v>665.91604877773136</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="7" t="s">
+      <c r="D83" s="6">
+        <v>12801.984428708651</v>
+      </c>
+      <c r="E83" s="6">
+        <v>673.78865414256052</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C84" s="7">
         <v>30</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D84" s="7">
         <v>651968.83856001415</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8" t="s">
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E86" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F86" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H86" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I86" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J86" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="6" t="s">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C87" s="6">
         <v>0</v>
       </c>
-      <c r="D53" s="6" t="e">
+      <c r="D87" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E53" s="6" t="e">
+      <c r="E87" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F53" s="6" t="e">
+      <c r="F87" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G53" s="6" t="e">
+      <c r="G87" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H53" s="6" t="e">
+      <c r="H87" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I53" s="6" t="e">
+      <c r="I87" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J53" s="6" t="e">
+      <c r="J87" s="6" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="6" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="6">
-        <v>0.90927078182773946</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0.33613597036179982</v>
-      </c>
-      <c r="E54" s="6">
-        <v>2.7050683711387573</v>
-      </c>
-      <c r="F54" s="6">
-        <v>1.4034946251010101E-2</v>
-      </c>
-      <c r="G54" s="6">
-        <v>0.20573011030861377</v>
-      </c>
-      <c r="H54" s="6">
-        <v>1.6128114533468652</v>
-      </c>
-      <c r="I54" s="6">
-        <v>0.20573011030861377</v>
-      </c>
-      <c r="J54" s="6">
-        <v>1.6128114533468652</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="6" t="s">
+      <c r="C88" s="6">
+        <v>0.92662712417935955</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0.33612632500283823</v>
+      </c>
+      <c r="E88" s="6">
+        <v>2.7567823620227756</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1.2549010153196373E-2</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0.2231066406285539</v>
+      </c>
+      <c r="H88" s="6">
+        <v>1.6301476077301653</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0.2231066406285539</v>
+      </c>
+      <c r="J88" s="6">
+        <v>1.6301476077301653</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="6">
-        <v>-0.78636925675427494</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.66764376631979117</v>
-      </c>
-      <c r="E55" s="6">
-        <v>-1.1778276027183276</v>
-      </c>
-      <c r="F55" s="6">
-        <v>0.25340821471950747</v>
-      </c>
-      <c r="G55" s="6">
-        <v>-2.1837637194373585</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0.61102520592880849</v>
-      </c>
-      <c r="I55" s="6">
-        <v>-2.1837637194373585</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0.61102520592880849</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="6" t="s">
+      <c r="C89" s="6">
+        <v>-0.77552009946043143</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0.67658920966038372</v>
+      </c>
+      <c r="E89" s="6">
+        <v>-1.1462200230028889</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0.26593546316431704</v>
+      </c>
+      <c r="G89" s="6">
+        <v>-2.1916375902327214</v>
+      </c>
+      <c r="H89" s="6">
+        <v>0.64059739131185878</v>
+      </c>
+      <c r="I89" s="6">
+        <v>-2.1916375902327214</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0.64059739131185878</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="6">
-        <v>2.0896051649098606</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0.94294973240899083</v>
-      </c>
-      <c r="E56" s="6">
-        <v>2.2160302856987553</v>
-      </c>
-      <c r="F56" s="6">
-        <v>3.9095148406514388E-2</v>
-      </c>
-      <c r="G56" s="6">
-        <v>0.11598869287996405</v>
-      </c>
-      <c r="H56" s="6">
-        <v>4.0632216369397574</v>
-      </c>
-      <c r="I56" s="6">
-        <v>0.11598869287996405</v>
-      </c>
-      <c r="J56" s="6">
-        <v>4.0632216369397574</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="6" t="s">
+      <c r="C90" s="6">
+        <v>2.0831666784551164</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0.94909376831709813</v>
+      </c>
+      <c r="E90" s="6">
+        <v>2.1949008074817717</v>
+      </c>
+      <c r="F90" s="6">
+        <v>4.0798208656457974E-2</v>
+      </c>
+      <c r="G90" s="6">
+        <v>9.6690591478402865E-2</v>
+      </c>
+      <c r="H90" s="6">
+        <v>4.0696427654318299</v>
+      </c>
+      <c r="I90" s="6">
+        <v>9.6690591478402865E-2</v>
+      </c>
+      <c r="J90" s="6">
+        <v>4.0696427654318299</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="6">
-        <v>-1.1115091577489051</v>
-      </c>
-      <c r="D57" s="6">
-        <v>1.4876544163783738</v>
-      </c>
-      <c r="E57" s="6">
-        <v>-0.74715548551579813</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0.46411647274736878</v>
-      </c>
-      <c r="G57" s="6">
-        <v>-4.2252056358755965</v>
-      </c>
-      <c r="H57" s="6">
-        <v>2.0021873203777867</v>
-      </c>
-      <c r="I57" s="6">
-        <v>-4.2252056358755965</v>
-      </c>
-      <c r="J57" s="6">
-        <v>2.0021873203777867</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="6" t="s">
+      <c r="C91" s="6">
+        <v>-1.1480675819186537</v>
+      </c>
+      <c r="D91" s="6">
+        <v>1.497154546859264</v>
+      </c>
+      <c r="E91" s="6">
+        <v>-0.76683304627907245</v>
+      </c>
+      <c r="F91" s="6">
+        <v>0.45260449062828112</v>
+      </c>
+      <c r="G91" s="6">
+        <v>-4.2816480616618655</v>
+      </c>
+      <c r="H91" s="6">
+        <v>1.9855128978245584</v>
+      </c>
+      <c r="I91" s="6">
+        <v>-4.2816480616618655</v>
+      </c>
+      <c r="J91" s="6">
+        <v>1.9855128978245584</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="6">
-        <v>-2.7286699939123182</v>
-      </c>
-      <c r="D58" s="6">
-        <v>3.7449644513029687</v>
-      </c>
-      <c r="E58" s="6">
-        <v>-0.72862373712598105</v>
-      </c>
-      <c r="F58" s="6">
-        <v>0.47511758996494313</v>
-      </c>
-      <c r="G58" s="6">
-        <v>-10.566970673393449</v>
-      </c>
-      <c r="H58" s="6">
-        <v>5.1096306855688116</v>
-      </c>
-      <c r="I58" s="6">
-        <v>-10.566970673393449</v>
-      </c>
-      <c r="J58" s="6">
-        <v>5.1096306855688116</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="6" t="s">
+      <c r="C92" s="6">
+        <v>-2.6764211755491751</v>
+      </c>
+      <c r="D92" s="6">
+        <v>3.7686671400900629</v>
+      </c>
+      <c r="E92" s="6">
+        <v>-0.71017711993668253</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.48622028210236323</v>
+      </c>
+      <c r="G92" s="6">
+        <v>-10.564332152815847</v>
+      </c>
+      <c r="H92" s="6">
+        <v>5.211489801717498</v>
+      </c>
+      <c r="I92" s="6">
+        <v>-10.564332152815847</v>
+      </c>
+      <c r="J92" s="6">
+        <v>5.211489801717498</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="6">
-        <v>5.5603007954690256</v>
-      </c>
-      <c r="D59" s="6">
-        <v>3.3763737980196358</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1.6468261893071026</v>
-      </c>
-      <c r="F59" s="6">
-        <v>0.11603387249500084</v>
-      </c>
-      <c r="G59" s="6">
-        <v>-1.5065307804600154</v>
-      </c>
-      <c r="H59" s="6">
-        <v>12.627132371398066</v>
-      </c>
-      <c r="I59" s="6">
-        <v>-1.5065307804600154</v>
-      </c>
-      <c r="J59" s="6">
-        <v>12.627132371398066</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="6" t="s">
+      <c r="C93" s="6">
+        <v>5.5416741366812792</v>
+      </c>
+      <c r="D93" s="6">
+        <v>3.3968483691210518</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1.6314163997008821</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0.11926704889838408</v>
+      </c>
+      <c r="G93" s="6">
+        <v>-1.5680112090667189</v>
+      </c>
+      <c r="H93" s="6">
+        <v>12.651359482429278</v>
+      </c>
+      <c r="I93" s="6">
+        <v>-1.5680112090667189</v>
+      </c>
+      <c r="J93" s="6">
+        <v>12.651359482429278</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="6">
-        <v>2.3509163480134556</v>
-      </c>
-      <c r="D60" s="6">
-        <v>4.4025355133652297</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0.5339914558046237</v>
-      </c>
-      <c r="F60" s="6">
-        <v>0.5995401956475539</v>
-      </c>
-      <c r="G60" s="6">
-        <v>-6.8636963818468057</v>
-      </c>
-      <c r="H60" s="6">
-        <v>11.565529077873718</v>
-      </c>
-      <c r="I60" s="6">
-        <v>-6.8636963818468057</v>
-      </c>
-      <c r="J60" s="6">
-        <v>11.565529077873718</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
+      <c r="C94" s="6">
+        <v>2.3801519288506214</v>
+      </c>
+      <c r="D94" s="6">
+        <v>4.4306178934867457</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.5372054160548525</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.59736154241941453</v>
+      </c>
+      <c r="G94" s="6">
+        <v>-6.8932378981090121</v>
+      </c>
+      <c r="H94" s="6">
+        <v>11.653541755810254</v>
+      </c>
+      <c r="I94" s="6">
+        <v>-6.8932378981090121</v>
+      </c>
+      <c r="J94" s="6">
+        <v>11.653541755810254</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="6">
-        <v>10.193170645497689</v>
-      </c>
-      <c r="D61" s="6">
-        <v>4.4027907442809795</v>
-      </c>
-      <c r="E61" s="6">
-        <v>2.3151612778186528</v>
-      </c>
-      <c r="F61" s="6">
-        <v>3.1943335505934867E-2</v>
-      </c>
-      <c r="G61" s="6">
-        <v>0.97802371119133369</v>
-      </c>
-      <c r="H61" s="6">
-        <v>19.408317579804045</v>
-      </c>
-      <c r="I61" s="6">
-        <v>0.97802371119133369</v>
-      </c>
-      <c r="J61" s="6">
-        <v>19.408317579804045</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="6" t="s">
+      <c r="C95" s="6">
+        <v>10.01371689159652</v>
+      </c>
+      <c r="D95" s="6">
+        <v>4.4477858346662433</v>
+      </c>
+      <c r="E95" s="6">
+        <v>2.2513936740274585</v>
+      </c>
+      <c r="F95" s="6">
+        <v>3.6390073871157641E-2</v>
+      </c>
+      <c r="G95" s="6">
+        <v>0.70439415078353207</v>
+      </c>
+      <c r="H95" s="6">
+        <v>19.323039632409508</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0.70439415078353207</v>
+      </c>
+      <c r="J95" s="6">
+        <v>19.323039632409508</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="6">
-        <v>31.356974273116837</v>
-      </c>
-      <c r="D62" s="6">
-        <v>16.881106394978509</v>
-      </c>
-      <c r="E62" s="6">
-        <v>1.8575189054222387</v>
-      </c>
-      <c r="F62" s="6">
-        <v>7.8806330541988601E-2</v>
-      </c>
-      <c r="G62" s="6">
-        <v>-3.9755874765991273</v>
-      </c>
-      <c r="H62" s="6">
-        <v>66.689536022832797</v>
-      </c>
-      <c r="I62" s="6">
-        <v>-3.9755874765991273</v>
-      </c>
-      <c r="J62" s="6">
-        <v>66.689536022832797</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="6" t="s">
+      <c r="C96" s="6">
+        <v>30.775839658416221</v>
+      </c>
+      <c r="D96" s="6">
+        <v>16.95736147473902</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1.814895536918421</v>
+      </c>
+      <c r="F96" s="6">
+        <v>8.5360212323741594E-2</v>
+      </c>
+      <c r="G96" s="6">
+        <v>-4.7163258075093175</v>
+      </c>
+      <c r="H96" s="6">
+        <v>66.268005124341755</v>
+      </c>
+      <c r="I96" s="6">
+        <v>-4.7163258075093175</v>
+      </c>
+      <c r="J96" s="6">
+        <v>66.268005124341755</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="6">
-        <v>-12.218375801715078</v>
-      </c>
-      <c r="D63" s="6">
-        <v>6.542638003854174</v>
-      </c>
-      <c r="E63" s="6">
-        <v>-1.8674998975210624</v>
-      </c>
-      <c r="F63" s="6">
-        <v>7.7337012653897572E-2</v>
-      </c>
-      <c r="G63" s="6">
-        <v>-25.912274523067829</v>
-      </c>
-      <c r="H63" s="6">
-        <v>1.4755229196376742</v>
-      </c>
-      <c r="I63" s="6">
-        <v>-25.912274523067829</v>
-      </c>
-      <c r="J63" s="6">
-        <v>1.4755229196376742</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="7" t="s">
+      <c r="C97" s="6">
+        <v>-12.103709810226016</v>
+      </c>
+      <c r="D97" s="6">
+        <v>6.5879107109743469</v>
+      </c>
+      <c r="E97" s="6">
+        <v>-1.8372607555325968</v>
+      </c>
+      <c r="F97" s="6">
+        <v>8.1864129751528375E-2</v>
+      </c>
+      <c r="G97" s="6">
+        <v>-25.892365396589476</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1.6849457761374413</v>
+      </c>
+      <c r="I97" s="6">
+        <v>-25.892365396589476</v>
+      </c>
+      <c r="J97" s="6">
+        <v>1.6849457761374413</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="7">
-        <v>-10.530449547321641</v>
-      </c>
-      <c r="D64" s="7">
-        <v>5.7764559853231754</v>
-      </c>
-      <c r="E64" s="7">
-        <v>-1.8229948560289244</v>
-      </c>
-      <c r="F64" s="7">
-        <v>8.4079358636554608E-2</v>
-      </c>
-      <c r="G64" s="7">
-        <v>-22.6207108738339</v>
-      </c>
-      <c r="H64" s="7">
-        <v>1.5598117791906176</v>
-      </c>
-      <c r="I64" s="7">
-        <v>-22.6207108738339</v>
-      </c>
-      <c r="J64" s="7">
-        <v>1.5598117791906176</v>
+      <c r="C98" s="7">
+        <v>-10.462128154491756</v>
+      </c>
+      <c r="D98" s="7">
+        <v>5.8087023692258928</v>
+      </c>
+      <c r="E98" s="7">
+        <v>-1.801112794127548</v>
+      </c>
+      <c r="F98" s="7">
+        <v>8.7579038427443981E-2</v>
+      </c>
+      <c r="G98" s="7">
+        <v>-22.619881938180086</v>
+      </c>
+      <c r="H98" s="7">
+        <v>1.6956256291965754</v>
+      </c>
+      <c r="I98" s="7">
+        <v>-22.619881938180086</v>
+      </c>
+      <c r="J98" s="7">
+        <v>1.6956256291965754</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M32">
-    <sortCondition descending="1" ref="M2:M32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N31">
+    <sortCondition descending="1" ref="N1:N31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
